--- a/data/nzd0034/nzd0034.xlsx
+++ b/data/nzd0034/nzd0034.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I452"/>
+  <dimension ref="A1:I462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14611,6 +14611,328 @@
         <v>390.5576923076923</v>
       </c>
       <c r="I452" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>378.3792307692308</v>
+      </c>
+      <c r="C453" t="n">
+        <v>386.2266666666667</v>
+      </c>
+      <c r="D453" t="n">
+        <v>379.6066666666667</v>
+      </c>
+      <c r="E453" t="n">
+        <v>384.9871428571428</v>
+      </c>
+      <c r="F453" t="n">
+        <v>389.9192307692308</v>
+      </c>
+      <c r="G453" t="n">
+        <v>395.7371428571428</v>
+      </c>
+      <c r="H453" t="n">
+        <v>389.4692307692308</v>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>382.6523076923077</v>
+      </c>
+      <c r="C454" t="n">
+        <v>389.0166666666667</v>
+      </c>
+      <c r="D454" t="n">
+        <v>385.0766666666667</v>
+      </c>
+      <c r="E454" t="n">
+        <v>394.3542857142857</v>
+      </c>
+      <c r="F454" t="n">
+        <v>399.6623076923077</v>
+      </c>
+      <c r="G454" t="n">
+        <v>403.3042857142857</v>
+      </c>
+      <c r="H454" t="n">
+        <v>393.4523076923077</v>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>382.1746153846154</v>
+      </c>
+      <c r="C455" t="n">
+        <v>388.5700000000001</v>
+      </c>
+      <c r="D455" t="n">
+        <v>386.03</v>
+      </c>
+      <c r="E455" t="n">
+        <v>388.0085714285714</v>
+      </c>
+      <c r="F455" t="n">
+        <v>392.7246153846153</v>
+      </c>
+      <c r="G455" t="n">
+        <v>400.6485714285715</v>
+      </c>
+      <c r="H455" t="n">
+        <v>390.3746153846154</v>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>393.5330769230769</v>
+      </c>
+      <c r="C456" t="n">
+        <v>390.8733333333333</v>
+      </c>
+      <c r="D456" t="n">
+        <v>388.7333333333333</v>
+      </c>
+      <c r="E456" t="n">
+        <v>390.3157142857143</v>
+      </c>
+      <c r="F456" t="n">
+        <v>393.7830769230769</v>
+      </c>
+      <c r="G456" t="n">
+        <v>402.7757142857143</v>
+      </c>
+      <c r="H456" t="n">
+        <v>394.0130769230769</v>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>382.5830769230769</v>
+      </c>
+      <c r="C457" t="n">
+        <v>387.0100000000001</v>
+      </c>
+      <c r="D457" t="n">
+        <v>388.19</v>
+      </c>
+      <c r="E457" t="n">
+        <v>390.9857142857143</v>
+      </c>
+      <c r="F457" t="n">
+        <v>396.3130769230769</v>
+      </c>
+      <c r="G457" t="n">
+        <v>404.6657142857143</v>
+      </c>
+      <c r="H457" t="n">
+        <v>392.2430769230769</v>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="n">
+        <v>394.19</v>
+      </c>
+      <c r="D458" t="n">
+        <v>394.35</v>
+      </c>
+      <c r="E458" t="n">
+        <v>397.6457142857143</v>
+      </c>
+      <c r="F458" t="n">
+        <v>409.7038461538461</v>
+      </c>
+      <c r="G458" t="n">
+        <v>407.1557142857143</v>
+      </c>
+      <c r="H458" t="n">
+        <v>398.5738461538461</v>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>398.4761538461539</v>
+      </c>
+      <c r="C459" t="n">
+        <v>404.2966666666667</v>
+      </c>
+      <c r="D459" t="n">
+        <v>400.9566666666666</v>
+      </c>
+      <c r="E459" t="n">
+        <v>399.5571428571428</v>
+      </c>
+      <c r="F459" t="n">
+        <v>402.2561538461539</v>
+      </c>
+      <c r="G459" t="n">
+        <v>410.4671428571429</v>
+      </c>
+      <c r="H459" t="n">
+        <v>390.6161538461538</v>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>381.8392307692308</v>
+      </c>
+      <c r="C460" t="n">
+        <v>389.78</v>
+      </c>
+      <c r="D460" t="n">
+        <v>385.01</v>
+      </c>
+      <c r="E460" t="n">
+        <v>395.4314285714286</v>
+      </c>
+      <c r="F460" t="n">
+        <v>398.0592307692308</v>
+      </c>
+      <c r="G460" t="n">
+        <v>399.7714285714285</v>
+      </c>
+      <c r="H460" t="n">
+        <v>390.0292307692308</v>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>403.9476923076923</v>
+      </c>
+      <c r="C461" t="n">
+        <v>399.6566666666666</v>
+      </c>
+      <c r="D461" t="n">
+        <v>393.0166666666667</v>
+      </c>
+      <c r="E461" t="n">
+        <v>392.9742857142857</v>
+      </c>
+      <c r="F461" t="n">
+        <v>406.4676923076924</v>
+      </c>
+      <c r="G461" t="n">
+        <v>407.2242857142857</v>
+      </c>
+      <c r="H461" t="n">
+        <v>396.5176923076923</v>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>376.0984615384616</v>
+      </c>
+      <c r="C462" t="n">
+        <v>384.1633333333333</v>
+      </c>
+      <c r="D462" t="n">
+        <v>384.5333333333333</v>
+      </c>
+      <c r="E462" t="n">
+        <v>388.3971428571429</v>
+      </c>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14627,7 +14949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B514"/>
+  <dimension ref="A1:B525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19775,6 +20097,116 @@
       </c>
       <c r="B514" t="n">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>-0.29</v>
       </c>
     </row>
   </sheetData>
@@ -19943,28 +20375,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4036640195174553</v>
+        <v>0.3231294613198628</v>
       </c>
       <c r="J2" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K2" t="n">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01422205275471988</v>
+        <v>0.009516678047267302</v>
       </c>
       <c r="M2" t="n">
-        <v>20.83176436593209</v>
+        <v>20.69969800865601</v>
       </c>
       <c r="N2" t="n">
-        <v>603.9023123115961</v>
+        <v>597.8524810386252</v>
       </c>
       <c r="O2" t="n">
-        <v>24.57442394668888</v>
+        <v>24.45102208576617</v>
       </c>
       <c r="P2" t="n">
-        <v>393.4852660614837</v>
+        <v>394.2589744060417</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -20020,28 +20452,28 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1639513922775327</v>
+        <v>0.1572479281404725</v>
       </c>
       <c r="J3" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K3" t="n">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01165588241226656</v>
+        <v>0.01122061423187071</v>
       </c>
       <c r="M3" t="n">
-        <v>8.708436602658859</v>
+        <v>8.621069227691176</v>
       </c>
       <c r="N3" t="n">
-        <v>120.9353485245355</v>
+        <v>118.823050637338</v>
       </c>
       <c r="O3" t="n">
-        <v>10.99706090392044</v>
+        <v>10.9005986366501</v>
       </c>
       <c r="P3" t="n">
-        <v>388.600226785241</v>
+        <v>388.6657329165627</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -20097,28 +20529,28 @@
         <v>0.0819</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2496137980153006</v>
+        <v>0.2426902875922014</v>
       </c>
       <c r="J4" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K4" t="n">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03218050477552059</v>
+        <v>0.03173475690288252</v>
       </c>
       <c r="M4" t="n">
-        <v>7.804057436219341</v>
+        <v>7.741287920008559</v>
       </c>
       <c r="N4" t="n">
-        <v>102.8974523955221</v>
+        <v>101.3082250996863</v>
       </c>
       <c r="O4" t="n">
-        <v>10.14383814911901</v>
+        <v>10.06519871138599</v>
       </c>
       <c r="P4" t="n">
-        <v>383.7530768313775</v>
+        <v>383.8185838602649</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -20174,28 +20606,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2707791939456615</v>
+        <v>0.2726447150088172</v>
       </c>
       <c r="J5" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K5" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03265800834462829</v>
+        <v>0.03464560519928817</v>
       </c>
       <c r="M5" t="n">
-        <v>8.434892708806579</v>
+        <v>8.323083974789011</v>
       </c>
       <c r="N5" t="n">
-        <v>118.646878653505</v>
+        <v>116.2736645214608</v>
       </c>
       <c r="O5" t="n">
-        <v>10.89251479932458</v>
+        <v>10.78302668648561</v>
       </c>
       <c r="P5" t="n">
-        <v>384.9696027728622</v>
+        <v>384.9517785100407</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -20251,28 +20683,28 @@
         <v>0.0703</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2361122679147634</v>
+        <v>0.2459546104379706</v>
       </c>
       <c r="J6" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K6" t="n">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02517177347900657</v>
+        <v>0.02830789682398915</v>
       </c>
       <c r="M6" t="n">
-        <v>8.134654863803009</v>
+        <v>8.06863563911242</v>
       </c>
       <c r="N6" t="n">
-        <v>116.2735930284081</v>
+        <v>114.6780647630828</v>
       </c>
       <c r="O6" t="n">
-        <v>10.78302337141157</v>
+        <v>10.7087844671131</v>
       </c>
       <c r="P6" t="n">
-        <v>390.4319783522171</v>
+        <v>390.3374133865964</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -20328,28 +20760,28 @@
         <v>0.0769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2005235272416486</v>
+        <v>0.211482354367526</v>
       </c>
       <c r="J7" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K7" t="n">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01888915047614004</v>
+        <v>0.02180216052029393</v>
       </c>
       <c r="M7" t="n">
-        <v>8.203820845242177</v>
+        <v>8.116799212958741</v>
       </c>
       <c r="N7" t="n">
-        <v>113.8373629685327</v>
+        <v>111.9331971290961</v>
       </c>
       <c r="O7" t="n">
-        <v>10.66945935689961</v>
+        <v>10.57984863450778</v>
       </c>
       <c r="P7" t="n">
-        <v>395.7272571250554</v>
+        <v>395.6219856123483</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -20405,28 +20837,28 @@
         <v>0.0727</v>
       </c>
       <c r="I8" t="n">
-        <v>0.123583086064599</v>
+        <v>0.1231752631015731</v>
       </c>
       <c r="J8" t="n">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="K8" t="n">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008407775988972577</v>
+        <v>0.008735939000407034</v>
       </c>
       <c r="M8" t="n">
-        <v>7.440123481449888</v>
+        <v>7.329692025794275</v>
       </c>
       <c r="N8" t="n">
-        <v>96.47214013726908</v>
+        <v>94.49850290306385</v>
       </c>
       <c r="O8" t="n">
-        <v>9.822023220155259</v>
+        <v>9.721034044949326</v>
       </c>
       <c r="P8" t="n">
-        <v>389.7645118219335</v>
+        <v>389.7684001774036</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -20463,7 +20895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I452"/>
+  <dimension ref="A1:I462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40215,6 +40647,460 @@
         </is>
       </c>
     </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>-34.94350461375778,173.57326632734006</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>-34.94398689851114,173.57382819332418</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>-34.94438437341278,173.57452155164805</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>-34.94463841404641,173.57534088650402</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>-34.94481131859694,173.57617970972728</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>-34.94488587259359,173.57700772312057</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>-34.94487950180253,173.5778441501287</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>-34.9434808717201,173.57330318243774</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>-34.9439678643476,173.57384817180088</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>-34.9443405481992,173.57454903748848</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-34.94455954566137,173.5753776064702</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>-34.94472603639875,173.57620534368232</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>-34.94481770612269,173.57701142405813</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>-34.94484373866719,173.57784012668952</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>-34.94348352587104,173.57329906236396</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>-34.94397091163326,173.57384497333572</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>-34.94433291016623,173.57455382782697</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>-34.94461297457315,173.57535273075874</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>-34.94478676276488,173.5761870906764</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>-34.944841629375446,173.57701012520224</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>-34.94487137256149,173.5778432355691</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>-34.943420416022434,173.57339702849032</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>-34.94395519764438,173.57386146691113</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>-34.94431125126747,173.57456741161425</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>-34.94459354915896,173.5753617749484</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>-34.944777497937515,173.57618987548088</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>-34.944822467609264,173.57701116554463</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>-34.944838703648685,173.5778395602381</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:17:46+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>-34.94348125637967,173.57330258532562</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>-34.94398155439148,173.57383380257485</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>-34.944315604412466,173.57456468145782</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>-34.94458790797044,173.57536440140268</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>-34.94475535257588,173.57619653188965</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>-34.94480544207752,173.5770120899049</t>
+        </is>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>-34.94485459607333,173.57784134817356</t>
+        </is>
+      </c>
+      <c r="I457" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>-34.943932570406126,173.5738852166939</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>-34.944266250961206,173.5745956343802</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-34.9445318328694,173.57539050912297</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>-34.94463814172828,173.57623176283292</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>-34.94478301161499,173.5770133077124</t>
+        </is>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>-34.94479775354592,173.57783495325774</t>
+        </is>
+      </c>
+      <c r="I458" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>-34.94339295128942,173.5734396622187</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>-34.943863619838694,173.57395758781092</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>-34.94421331884179,173.57462883168355</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>-34.94451573924218,173.5753980020658</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>-34.94470333218389,173.5762121680614</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>-34.94475318154478,173.57701492726275</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>-34.94486920384296,173.577842991583</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-28 22:17:42+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>-34.9434853893328,173.5732961696872</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>-34.94396265667267,173.57385363783413</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>-34.944341082327384,173.57454870249973</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>-34.944550476457906,173.57538182895388</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>-34.94474006830356,173.57620112600372</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>-34.94484953086936,173.57700969620933</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>-34.94487447369083,173.57784358445377</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>-34.94336255030015,173.57348685386148</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>-34.94389527524963,173.57392436203605</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>-34.94427693352709,173.57458893461657</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>-34.94457116482634,173.5753721967617</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>-34.944666468133065,173.57622324856231</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>-34.94478239390862,173.57701334124928</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>-34.94481621528063,173.57783703024458</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>-34.943517286146,173.57324665579858</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>-34.944000975148505,173.57381341831578</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>-34.9443449013438,173.5745463073301</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>-34.944609702924495,173.57535425399098</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0034/nzd0034.xlsx
+++ b/data/nzd0034/nzd0034.xlsx
@@ -20220,7 +20220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20311,35 +20311,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -20398,27 +20403,28 @@
       <c r="P2" t="n">
         <v>394.2589744060417</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.57000273887957 -34.945606917692245, 173.57800284433768 -34.940453148418094)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.5700027388796</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.94560691769225</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.5780028443377</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.94045314841809</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.5740027916086</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.94303003305517</v>
       </c>
     </row>
@@ -20475,27 +20481,28 @@
       <c r="P3" t="n">
         <v>388.6657329165627</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.57106243393835 -34.946621813875524, 173.5777023399791 -34.9402956441404)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.5710624339384</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.94662181387552</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.5777023399791</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.9402956441404</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.5743823869587</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.94345872900796</v>
       </c>
     </row>
@@ -20552,27 +20559,28 @@
       <c r="P4" t="n">
         <v>383.8185838602649</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.57261402041343 -34.94742573716384, 173.5772717359911 -34.93999904026476)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.5726140204134</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.94742573716384</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.5772717359911</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.93999904026476</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.5749428782023</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.9437123887143</v>
       </c>
     </row>
@@ -20629,27 +20637,28 @@
       <c r="P5" t="n">
         <v>384.9517785100407</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.57383164536782 -34.947879874328784, 173.57746484258698 -34.94007624551272)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.5738316453678</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.94787987432878</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.577464842587</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.94007624551272</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.5756482439774</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.94397805992075</v>
       </c>
     </row>
@@ -20706,27 +20715,28 @@
       <c r="P6" t="n">
         <v>390.3374133865964</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.57515379284794 -34.94822431848549, 173.57759196422637 -34.9401125901014)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.5751537928479</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.94822431848549</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.5775919642264</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.9401125901014</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.5763728785371</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.94416845429345</v>
       </c>
     </row>
@@ -20783,27 +20793,28 @@
       <c r="P7" t="n">
         <v>395.6219856123483</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.57681416862673 -34.948450757828134, 173.57726736479643 -34.94010337014074)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.5768141686267</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.94845075782813</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.5772673647964</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.94010337014074</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.5770407667116</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.94427706398444</v>
       </c>
     </row>
@@ -20860,27 +20871,28 @@
       <c r="P8" t="n">
         <v>389.7684001774036</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.57823758397114 -34.94837645499253, 173.57730155895425 -34.940056271214885)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.5782375839711</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.94837645499253</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.5773015589542</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.94005627121489</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.5777695714627</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.94421636310371</v>
       </c>
     </row>

--- a/data/nzd0034/nzd0034.xlsx
+++ b/data/nzd0034/nzd0034.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I462"/>
+  <dimension ref="A1:I466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14933,6 +14933,130 @@
       <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>389.9123076923077</v>
+      </c>
+      <c r="C463" t="n">
+        <v>397.13</v>
+      </c>
+      <c r="D463" t="n">
+        <v>393.13</v>
+      </c>
+      <c r="E463" t="n">
+        <v>396.8257142857143</v>
+      </c>
+      <c r="F463" t="n">
+        <v>397.2623076923077</v>
+      </c>
+      <c r="G463" t="n">
+        <v>410.3657142857143</v>
+      </c>
+      <c r="H463" t="n">
+        <v>406.0623076923077</v>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="n">
+        <v>400.4530769230769</v>
+      </c>
+      <c r="G464" t="n">
+        <v>399.5271428571429</v>
+      </c>
+      <c r="H464" t="n">
+        <v>393.6430769230769</v>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>367.4823076923077</v>
+      </c>
+      <c r="C465" t="n">
+        <v>372.9</v>
+      </c>
+      <c r="D465" t="n">
+        <v>368.75</v>
+      </c>
+      <c r="E465" t="n">
+        <v>378.3085714285714</v>
+      </c>
+      <c r="F465" t="n">
+        <v>385.0423076923077</v>
+      </c>
+      <c r="G465" t="n">
+        <v>398.0585714285714</v>
+      </c>
+      <c r="H465" t="n">
+        <v>383.6323076923077</v>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>381.3484615384616</v>
+      </c>
+      <c r="C466" t="n">
+        <v>379.5266666666667</v>
+      </c>
+      <c r="D466" t="n">
+        <v>375.9566666666666</v>
+      </c>
+      <c r="E466" t="n">
+        <v>390.8342857142857</v>
+      </c>
+      <c r="F466" t="n">
+        <v>399.0984615384616</v>
+      </c>
+      <c r="G466" t="n">
+        <v>397.9942857142857</v>
+      </c>
+      <c r="H466" t="n">
+        <v>391.4484615384616</v>
+      </c>
+      <c r="I466" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -14949,7 +15073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B525"/>
+  <dimension ref="A1:B529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20207,6 +20331,46 @@
       </c>
       <c r="B525" t="n">
         <v>-0.29</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>-0.16</v>
       </c>
     </row>
   </sheetData>
@@ -20380,28 +20544,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3231294613198628</v>
+        <v>0.2870411538871762</v>
       </c>
       <c r="J2" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K2" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009516678047267302</v>
+        <v>0.007594456345058842</v>
       </c>
       <c r="M2" t="n">
-        <v>20.69969800865601</v>
+        <v>20.69655057070232</v>
       </c>
       <c r="N2" t="n">
-        <v>597.8524810386252</v>
+        <v>597.8765944350787</v>
       </c>
       <c r="O2" t="n">
-        <v>24.45102208576617</v>
+        <v>24.45151517667318</v>
       </c>
       <c r="P2" t="n">
-        <v>394.2589744060417</v>
+        <v>394.6106092525097</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20458,28 +20622,28 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1572479281404725</v>
+        <v>0.143342660087631</v>
       </c>
       <c r="J3" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K3" t="n">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01122061423187071</v>
+        <v>0.009373032903829737</v>
       </c>
       <c r="M3" t="n">
-        <v>8.621069227691176</v>
+        <v>8.645100572654052</v>
       </c>
       <c r="N3" t="n">
-        <v>118.823050637338</v>
+        <v>119.3844505886992</v>
       </c>
       <c r="O3" t="n">
-        <v>10.9005986366501</v>
+        <v>10.92631916926735</v>
       </c>
       <c r="P3" t="n">
-        <v>388.6657329165627</v>
+        <v>388.80416108047</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20536,28 +20700,28 @@
         <v>0.0819</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2426902875922014</v>
+        <v>0.2281073059263289</v>
       </c>
       <c r="J4" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K4" t="n">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03173475690288252</v>
+        <v>0.02813137714328051</v>
       </c>
       <c r="M4" t="n">
-        <v>7.741287920008559</v>
+        <v>7.778403256396074</v>
       </c>
       <c r="N4" t="n">
-        <v>101.3082250996863</v>
+        <v>102.1335428379628</v>
       </c>
       <c r="O4" t="n">
-        <v>10.06519871138599</v>
+        <v>10.10611413145343</v>
       </c>
       <c r="P4" t="n">
-        <v>383.8185838602649</v>
+        <v>383.9591943789814</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20614,28 +20778,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2726447150088172</v>
+        <v>0.2680926372337781</v>
       </c>
       <c r="J5" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K5" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03464560519928817</v>
+        <v>0.03389110372626358</v>
       </c>
       <c r="M5" t="n">
-        <v>8.323083974789011</v>
+        <v>8.309590505678642</v>
       </c>
       <c r="N5" t="n">
-        <v>116.2736645214608</v>
+        <v>115.9477302894045</v>
       </c>
       <c r="O5" t="n">
-        <v>10.78302668648561</v>
+        <v>10.76790278045844</v>
       </c>
       <c r="P5" t="n">
-        <v>384.9517785100407</v>
+        <v>384.9956747634353</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20692,28 +20856,28 @@
         <v>0.0703</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2459546104379706</v>
+        <v>0.243721189284436</v>
       </c>
       <c r="J6" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K6" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02830789682398915</v>
+        <v>0.02828440372939789</v>
       </c>
       <c r="M6" t="n">
-        <v>8.06863563911242</v>
+        <v>8.036420344173797</v>
       </c>
       <c r="N6" t="n">
-        <v>114.6780647630828</v>
+        <v>113.9563139704441</v>
       </c>
       <c r="O6" t="n">
-        <v>10.7087844671131</v>
+        <v>10.67503227022963</v>
       </c>
       <c r="P6" t="n">
-        <v>390.3374133865964</v>
+        <v>390.3591045193571</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20770,28 +20934,28 @@
         <v>0.0769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.211482354367526</v>
+        <v>0.212213667949301</v>
       </c>
       <c r="J7" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K7" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02180216052029393</v>
+        <v>0.02232638003956433</v>
       </c>
       <c r="M7" t="n">
-        <v>8.116799212958741</v>
+        <v>8.080434140735717</v>
       </c>
       <c r="N7" t="n">
-        <v>111.9331971290961</v>
+        <v>111.134825377677</v>
       </c>
       <c r="O7" t="n">
-        <v>10.57984863450778</v>
+        <v>10.54205034031222</v>
       </c>
       <c r="P7" t="n">
-        <v>395.6219856123483</v>
+        <v>395.6150277764378</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -20848,28 +21012,28 @@
         <v>0.0727</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1231752631015731</v>
+        <v>0.1245809994535018</v>
       </c>
       <c r="J8" t="n">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K8" t="n">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008735939000407034</v>
+        <v>0.009058331005141751</v>
       </c>
       <c r="M8" t="n">
-        <v>7.329692025794275</v>
+        <v>7.317635291805168</v>
       </c>
       <c r="N8" t="n">
-        <v>94.49850290306385</v>
+        <v>94.21072027534825</v>
       </c>
       <c r="O8" t="n">
-        <v>9.721034044949326</v>
+        <v>9.706220699909323</v>
       </c>
       <c r="P8" t="n">
-        <v>389.7684001774036</v>
+        <v>389.7547736869499</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -20907,7 +21071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I462"/>
+  <dimension ref="A1:I466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41113,6 +41277,178 @@
         </is>
       </c>
     </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>-34.943440533737636,173.57336579956473</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>-34.94391251289059,173.57390626925425</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>-34.944276025509005,173.57458950409654</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>-34.94453873701128,173.5753872946608</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>-34.94474704385694,173.57619902930693</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>-34.94475409523546,173.57701487765615</t>
+        </is>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>-34.944730516363116,173.5778273889314</t>
+        </is>
+      </c>
+      <c r="I463" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>-34.944719114710516,173.57620742418734</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>-34.94485173144828,173.5770095767341</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>-34.94484202579396,173.57783993398726</t>
+        </is>
+      </c>
+      <c r="I464" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>-34.94356515910925,173.57317234176864</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>-34.944077816728836,173.5737327643441</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>-34.944471356161216,173.57446699861742</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-34.94469464550198,173.57531470591533</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>-34.94485400682588,173.57616687856338</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-34.94486496065952,173.57700885848521</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>-34.94493191019717,173.5778500462066</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>-34.94348811614141,173.57329193682514</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>-34.94403260777945,173.57378021629944</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>-34.94441361692474,173.57450321098884</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>-34.94458918295122,173.57536380779044</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>-34.94473097180482,173.57620386020915</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>-34.94486553975924,173.57700882704435</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>-34.94486173074286,173.57784215084106</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0034/nzd0034.xlsx
+++ b/data/nzd0034/nzd0034.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I466"/>
+  <dimension ref="A1:I470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15059,6 +15059,136 @@
       <c r="I466" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>368.1353846153846</v>
+      </c>
+      <c r="C467" t="n">
+        <v>376.9366666666667</v>
+      </c>
+      <c r="D467" t="n">
+        <v>373.7866666666666</v>
+      </c>
+      <c r="E467" t="n">
+        <v>380.3285714285714</v>
+      </c>
+      <c r="F467" t="n">
+        <v>397.7653846153846</v>
+      </c>
+      <c r="G467" t="n">
+        <v>393.0485714285714</v>
+      </c>
+      <c r="H467" t="n">
+        <v>387.2953846153847</v>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>373.9153846153847</v>
+      </c>
+      <c r="C468" t="n">
+        <v>385.5933333333334</v>
+      </c>
+      <c r="D468" t="n">
+        <v>380.0433333333334</v>
+      </c>
+      <c r="E468" t="n">
+        <v>397.4828571428571</v>
+      </c>
+      <c r="F468" t="n">
+        <v>397.2453846153846</v>
+      </c>
+      <c r="G468" t="n">
+        <v>402.9428571428572</v>
+      </c>
+      <c r="H468" t="n">
+        <v>392.7253846153847</v>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>376.3469230769231</v>
+      </c>
+      <c r="C469" t="n">
+        <v>382.1066666666666</v>
+      </c>
+      <c r="D469" t="n">
+        <v>387.8866666666667</v>
+      </c>
+      <c r="E469" t="n">
+        <v>384.3157142857143</v>
+      </c>
+      <c r="F469" t="n">
+        <v>397.3869230769231</v>
+      </c>
+      <c r="G469" t="n">
+        <v>404.2257142857143</v>
+      </c>
+      <c r="H469" t="n">
+        <v>391.5069230769231</v>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="n">
+        <v>383.1</v>
+      </c>
+      <c r="D470" t="n">
+        <v>384.86</v>
+      </c>
+      <c r="E470" t="n">
+        <v>384.8157142857143</v>
+      </c>
+      <c r="F470" t="n">
+        <v>398.6123076923077</v>
+      </c>
+      <c r="G470" t="n">
+        <v>407.9857142857143</v>
+      </c>
+      <c r="H470" t="n">
+        <v>394.7323076923077</v>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -15073,7 +15203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B529"/>
+  <dimension ref="A1:B533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20371,6 +20501,46 @@
       </c>
       <c r="B529" t="n">
         <v>-0.16</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>-0.54</v>
       </c>
     </row>
   </sheetData>
@@ -20544,28 +20714,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2870411538871762</v>
+        <v>0.2420217223797963</v>
       </c>
       <c r="J2" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K2" t="n">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007594456345058842</v>
+        <v>0.005442261142270755</v>
       </c>
       <c r="M2" t="n">
-        <v>20.69655057070232</v>
+        <v>20.73497529566207</v>
       </c>
       <c r="N2" t="n">
-        <v>597.8765944350787</v>
+        <v>599.8340208585735</v>
       </c>
       <c r="O2" t="n">
-        <v>24.45151517667318</v>
+        <v>24.49150915845272</v>
       </c>
       <c r="P2" t="n">
-        <v>394.6106092525097</v>
+        <v>395.0507341540418</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20622,28 +20792,28 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.143342660087631</v>
+        <v>0.123303771875278</v>
       </c>
       <c r="J3" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K3" t="n">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009373032903829737</v>
+        <v>0.007025883013062395</v>
       </c>
       <c r="M3" t="n">
-        <v>8.645100572654052</v>
+        <v>8.654354898977699</v>
       </c>
       <c r="N3" t="n">
-        <v>119.3844505886992</v>
+        <v>119.373688551185</v>
       </c>
       <c r="O3" t="n">
-        <v>10.92631916926735</v>
+        <v>10.92582667587149</v>
       </c>
       <c r="P3" t="n">
-        <v>388.80416108047</v>
+        <v>389.004082495438</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20700,28 +20870,28 @@
         <v>0.0819</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2281073059263289</v>
+        <v>0.2136784173813006</v>
       </c>
       <c r="J4" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K4" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02813137714328051</v>
+        <v>0.02503508032687918</v>
       </c>
       <c r="M4" t="n">
-        <v>7.778403256396074</v>
+        <v>7.781520464407527</v>
       </c>
       <c r="N4" t="n">
-        <v>102.1335428379628</v>
+        <v>102.0555886804582</v>
       </c>
       <c r="O4" t="n">
-        <v>10.10611413145343</v>
+        <v>10.10225661327499</v>
       </c>
       <c r="P4" t="n">
-        <v>383.9591943789814</v>
+        <v>384.0986223607115</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20778,28 +20948,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2680926372337781</v>
+        <v>0.2588344096829558</v>
       </c>
       <c r="J5" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K5" t="n">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03389110372626358</v>
+        <v>0.03210729810987267</v>
       </c>
       <c r="M5" t="n">
-        <v>8.309590505678642</v>
+        <v>8.303836898762961</v>
       </c>
       <c r="N5" t="n">
-        <v>115.9477302894045</v>
+        <v>115.4947144776355</v>
       </c>
       <c r="O5" t="n">
-        <v>10.76790278045844</v>
+        <v>10.7468467225338</v>
       </c>
       <c r="P5" t="n">
-        <v>384.9956747634353</v>
+        <v>385.0851284305238</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -20856,28 +21026,28 @@
         <v>0.0703</v>
       </c>
       <c r="I6" t="n">
-        <v>0.243721189284436</v>
+        <v>0.2457265031953472</v>
       </c>
       <c r="J6" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K6" t="n">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02828440372939789</v>
+        <v>0.02930315358146052</v>
       </c>
       <c r="M6" t="n">
-        <v>8.036420344173797</v>
+        <v>7.970077100213511</v>
       </c>
       <c r="N6" t="n">
-        <v>113.9563139704441</v>
+        <v>112.8950423284438</v>
       </c>
       <c r="O6" t="n">
-        <v>10.67503227022963</v>
+        <v>10.62520787224625</v>
       </c>
       <c r="P6" t="n">
-        <v>390.3591045193571</v>
+        <v>390.3395608448561</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -20934,28 +21104,28 @@
         <v>0.0769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.212213667949301</v>
+        <v>0.2139048531920948</v>
       </c>
       <c r="J7" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K7" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02232638003956433</v>
+        <v>0.02304627788774516</v>
       </c>
       <c r="M7" t="n">
-        <v>8.080434140735717</v>
+        <v>8.051676310218959</v>
       </c>
       <c r="N7" t="n">
-        <v>111.134825377677</v>
+        <v>110.3923493943406</v>
       </c>
       <c r="O7" t="n">
-        <v>10.54205034031222</v>
+        <v>10.50677635596859</v>
       </c>
       <c r="P7" t="n">
-        <v>395.6150277764378</v>
+        <v>395.598465607149</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21012,28 +21182,28 @@
         <v>0.0727</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1245809994535018</v>
+        <v>0.1219645975658616</v>
       </c>
       <c r="J8" t="n">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K8" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009058331005141751</v>
+        <v>0.008852855973038642</v>
       </c>
       <c r="M8" t="n">
-        <v>7.317635291805168</v>
+        <v>7.268991438713622</v>
       </c>
       <c r="N8" t="n">
-        <v>94.21072027534825</v>
+        <v>93.37840275206671</v>
       </c>
       <c r="O8" t="n">
-        <v>9.706220699909323</v>
+        <v>9.663250113293493</v>
       </c>
       <c r="P8" t="n">
-        <v>389.7547736869499</v>
+        <v>389.7806327695437</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21071,7 +21241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I466"/>
+  <dimension ref="A1:I470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41449,6 +41619,190 @@
         </is>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>-34.94356153049322,173.5731779745376</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>-34.94405027747665,173.5737616699428</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>-34.94443100279218,173.57449230708397</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-34.94467763774256,173.57532262449712</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>-34.944742640370535,173.57620035289742</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-34.94491009183037,173.577006408193</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>-34.944899020269055,173.57784634600497</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>-34.9435294157342,173.57322782684355</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>-34.943991219288556,173.5738236581848</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>-34.944380874873715,173.5745237458265</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>-34.94453320407529,173.57538987071067</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>-34.94474719198646,173.57619898478248</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>-34.944820961949986,173.5770112472908</t>
+        </is>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>-34.94485026554303,173.57784086097857</t>
+        </is>
+      </c>
+      <c r="I468" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>-34.943515905646514,173.5732487987695</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>-34.94401500630222,173.57379869104065</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>-34.94431803469583,173.57456315725992</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>-34.94464406726252,173.57533825444645</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>-34.94474595308508,173.5761993571688</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>-34.94480940569338,173.57701187470997</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>-34.9448612058301,173.57784209178712</t>
+        </is>
+      </c>
+      <c r="I469" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>-34.94400822950536,173.5738058040526</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>-34.94434228411577,173.57454794877503</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>-34.94463985742073,173.57534021448933</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>-34.94473522716175,173.5762025811435</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>-34.94477553479413,173.5770137136481</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>-34.94483224584031,173.57783883371954</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0034/nzd0034.xlsx
+++ b/data/nzd0034/nzd0034.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -29460,7 +29460,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>-34.9448059053573,173.57701206475227</t>
+          <t>-34.94480590535729,173.57701206475227</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -31602,7 +31602,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-34.94383958264205,173.57398281742323</t>
+          <t>-34.94383958264204,173.57398281742323</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -36632,7 +36632,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>-34.94345190257255,173.57334815159916</t>
+          <t>-34.94345190257254,173.57334815159916</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">

--- a/data/nzd0034/nzd0034.xlsx
+++ b/data/nzd0034/nzd0034.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I470"/>
+  <dimension ref="A1:I473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15189,6 +15189,103 @@
       <c r="I470" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>380.9284615384615</v>
+      </c>
+      <c r="C471" t="n">
+        <v>382.4833333333333</v>
+      </c>
+      <c r="D471" t="n">
+        <v>378.2933333333334</v>
+      </c>
+      <c r="E471" t="n">
+        <v>382.1057142857143</v>
+      </c>
+      <c r="F471" t="n">
+        <v>395.9784615384616</v>
+      </c>
+      <c r="G471" t="n">
+        <v>392.0357142857143</v>
+      </c>
+      <c r="H471" t="n">
+        <v>386.6484615384616</v>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr"/>
+      <c r="C472" t="n">
+        <v>392.21</v>
+      </c>
+      <c r="D472" t="n">
+        <v>382.26</v>
+      </c>
+      <c r="E472" t="n">
+        <v>389.2342857142857</v>
+      </c>
+      <c r="F472" t="n">
+        <v>395.7576923076923</v>
+      </c>
+      <c r="G472" t="n">
+        <v>396.4842857142857</v>
+      </c>
+      <c r="H472" t="n">
+        <v>389.3776923076923</v>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>371.3023076923077</v>
+      </c>
+      <c r="C473" t="n">
+        <v>385.21</v>
+      </c>
+      <c r="D473" t="n">
+        <v>381.65</v>
+      </c>
+      <c r="E473" t="n">
+        <v>388.4042857142857</v>
+      </c>
+      <c r="F473" t="n">
+        <v>400.0623076923077</v>
+      </c>
+      <c r="G473" t="n">
+        <v>407.2842857142857</v>
+      </c>
+      <c r="H473" t="n">
+        <v>382.1323076923077</v>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -15203,7 +15300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B533"/>
+  <dimension ref="A1:B536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20541,6 +20638,36 @@
       </c>
       <c r="B533" t="n">
         <v>-0.54</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -20714,28 +20841,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2420217223797963</v>
+        <v>0.2163593458363275</v>
       </c>
       <c r="J2" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K2" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005442261142270755</v>
+        <v>0.004378085854014113</v>
       </c>
       <c r="M2" t="n">
-        <v>20.73497529566207</v>
+        <v>20.74302746986731</v>
       </c>
       <c r="N2" t="n">
-        <v>599.8340208585735</v>
+        <v>600.0869748510974</v>
       </c>
       <c r="O2" t="n">
-        <v>24.49150915845272</v>
+        <v>24.4966727302117</v>
       </c>
       <c r="P2" t="n">
-        <v>395.0507341540418</v>
+        <v>395.3026510065853</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20792,28 +20919,28 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.123303771875278</v>
+        <v>0.1155172259417865</v>
       </c>
       <c r="J3" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K3" t="n">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007025883013062395</v>
+        <v>0.00624656483217001</v>
       </c>
       <c r="M3" t="n">
-        <v>8.654354898977699</v>
+        <v>8.62792014891571</v>
       </c>
       <c r="N3" t="n">
-        <v>119.373688551185</v>
+        <v>118.8377580239524</v>
       </c>
       <c r="O3" t="n">
-        <v>10.92582667587149</v>
+        <v>10.90127322948803</v>
       </c>
       <c r="P3" t="n">
-        <v>389.004082495438</v>
+        <v>389.0820509791567</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20870,28 +20997,28 @@
         <v>0.0819</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2136784173813006</v>
+        <v>0.202104825770715</v>
       </c>
       <c r="J4" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K4" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02503508032687918</v>
+        <v>0.02265078713202151</v>
       </c>
       <c r="M4" t="n">
-        <v>7.781520464407527</v>
+        <v>7.787607652840571</v>
       </c>
       <c r="N4" t="n">
-        <v>102.0555886804582</v>
+        <v>101.9062425924443</v>
       </c>
       <c r="O4" t="n">
-        <v>10.10225661327499</v>
+        <v>10.09486218788767</v>
       </c>
       <c r="P4" t="n">
-        <v>384.0986223607115</v>
+        <v>384.2109076682152</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -20948,28 +21075,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2588344096829558</v>
+        <v>0.2519665961097263</v>
       </c>
       <c r="J5" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K5" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03210729810987267</v>
+        <v>0.03084546822045253</v>
       </c>
       <c r="M5" t="n">
-        <v>8.303836898762961</v>
+        <v>8.279894079981608</v>
       </c>
       <c r="N5" t="n">
-        <v>115.4947144776355</v>
+        <v>114.9443877585691</v>
       </c>
       <c r="O5" t="n">
-        <v>10.7468467225338</v>
+        <v>10.7212120470854</v>
       </c>
       <c r="P5" t="n">
-        <v>385.0851284305238</v>
+        <v>385.1516974648319</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21026,28 +21153,28 @@
         <v>0.0703</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2457265031953472</v>
+        <v>0.2464896106597181</v>
       </c>
       <c r="J6" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K6" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02930315358146052</v>
+        <v>0.02989953365323139</v>
       </c>
       <c r="M6" t="n">
-        <v>7.970077100213511</v>
+        <v>7.925513582888991</v>
       </c>
       <c r="N6" t="n">
-        <v>112.8950423284438</v>
+        <v>112.1314894674938</v>
       </c>
       <c r="O6" t="n">
-        <v>10.62520787224625</v>
+        <v>10.58921571541036</v>
       </c>
       <c r="P6" t="n">
-        <v>390.3395608448561</v>
+        <v>390.3320786044613</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21104,28 +21231,28 @@
         <v>0.0769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2139048531920948</v>
+        <v>0.2106252188609655</v>
       </c>
       <c r="J7" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K7" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02304627788774516</v>
+        <v>0.02260636087424794</v>
       </c>
       <c r="M7" t="n">
-        <v>8.051676310218959</v>
+        <v>8.04152639196281</v>
       </c>
       <c r="N7" t="n">
-        <v>110.3923493943406</v>
+        <v>109.9547987693246</v>
       </c>
       <c r="O7" t="n">
-        <v>10.50677635596859</v>
+        <v>10.48593337616278</v>
       </c>
       <c r="P7" t="n">
-        <v>395.598465607149</v>
+        <v>395.630555907502</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21182,28 +21309,28 @@
         <v>0.0727</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1219645975658616</v>
+        <v>0.1124780508131465</v>
       </c>
       <c r="J8" t="n">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K8" t="n">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008852855973038642</v>
+        <v>0.007618604426972042</v>
       </c>
       <c r="M8" t="n">
-        <v>7.268991438713622</v>
+        <v>7.267753939208369</v>
       </c>
       <c r="N8" t="n">
-        <v>93.37840275206671</v>
+        <v>93.10043800417822</v>
       </c>
       <c r="O8" t="n">
-        <v>9.663250113293493</v>
+        <v>9.648856823695656</v>
       </c>
       <c r="P8" t="n">
-        <v>389.7806327695437</v>
+        <v>389.8748354658913</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21241,7 +21368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I470"/>
+  <dimension ref="A1:I473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41803,6 +41930,143 @@
         </is>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>-34.9434904497424,173.5732883143442</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>-34.94401243657729,173.57380138825673</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>-34.94439489573612,173.5745149523621</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>-34.94466267476282,173.57532959105438</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>-34.9447582815003,173.57619565151955</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>-34.94491921586801,173.5770059128243</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>-34.94490482884311,173.5778469994843</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr"/>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>-34.9439460785268,173.57387103843317</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>-34.94436311511373,173.57453488421046</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>-34.944602654446065,173.57535753566</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>-34.944760213917085,173.57619507067767</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>-34.94487914216806,173.57700808853338</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>-34.9448803237054,173.5778442425948</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>-34.943543934479905,173.57320528914767</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>-34.94399383449585,173.5738209132318</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>-34.944368002386135,173.57453181906166</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>-34.94460964278389,173.5753542819916</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>-34.94472253515566,173.5762063960779</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>-34.944781853415556,173.57701337059402</t>
+        </is>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>-34.94494537835327,173.57785156140977</t>
+        </is>
+      </c>
+      <c r="I473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0034/nzd0034.xlsx
+++ b/data/nzd0034/nzd0034.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I473"/>
+  <dimension ref="A1:I477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15284,6 +15284,132 @@
         <v>382.1323076923077</v>
       </c>
       <c r="I473" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="n">
+        <v>398.6266666666667</v>
+      </c>
+      <c r="D474" t="n">
+        <v>383.2966666666666</v>
+      </c>
+      <c r="E474" t="n">
+        <v>387.5685714285714</v>
+      </c>
+      <c r="F474" t="n">
+        <v>401.4315384615385</v>
+      </c>
+      <c r="G474" t="n">
+        <v>407.5285714285715</v>
+      </c>
+      <c r="H474" t="n">
+        <v>384.4515384615385</v>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>365.8076923076923</v>
+      </c>
+      <c r="C475" t="n">
+        <v>386.7433333333333</v>
+      </c>
+      <c r="D475" t="n">
+        <v>380.2733333333333</v>
+      </c>
+      <c r="E475" t="n">
+        <v>382.9614285714285</v>
+      </c>
+      <c r="F475" t="n">
+        <v>385.5476923076923</v>
+      </c>
+      <c r="G475" t="n">
+        <v>394.5014285714286</v>
+      </c>
+      <c r="H475" t="n">
+        <v>387.0476923076923</v>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="n">
+        <v>371.7533333333334</v>
+      </c>
+      <c r="E476" t="n">
+        <v>366.2271428571429</v>
+      </c>
+      <c r="F476" t="n">
+        <v>366.4707692307693</v>
+      </c>
+      <c r="G476" t="n">
+        <v>382.2471428571428</v>
+      </c>
+      <c r="H476" t="n">
+        <v>363.2307692307692</v>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>373.2223076923077</v>
+      </c>
+      <c r="C477" t="n">
+        <v>383.4733333333334</v>
+      </c>
+      <c r="D477" t="n">
+        <v>387.9633333333334</v>
+      </c>
+      <c r="E477" t="n">
+        <v>380.2428571428572</v>
+      </c>
+      <c r="F477" t="n">
+        <v>387.8923076923077</v>
+      </c>
+      <c r="G477" t="n">
+        <v>386.8628571428572</v>
+      </c>
+      <c r="H477" t="n">
+        <v>386.4023076923077</v>
+      </c>
+      <c r="I477" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15300,7 +15426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B536"/>
+  <dimension ref="A1:B540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20668,6 +20794,46 @@
       </c>
       <c r="B536" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -20841,28 +21007,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2163593458363275</v>
+        <v>0.1847040256972736</v>
       </c>
       <c r="J2" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K2" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004378085854014113</v>
+        <v>0.003202584021651078</v>
       </c>
       <c r="M2" t="n">
-        <v>20.74302746986731</v>
+        <v>20.77738638284714</v>
       </c>
       <c r="N2" t="n">
-        <v>600.0869748510974</v>
+        <v>602.0967235669157</v>
       </c>
       <c r="O2" t="n">
-        <v>24.4966727302117</v>
+        <v>24.53765929274664</v>
       </c>
       <c r="P2" t="n">
-        <v>395.3026510065853</v>
+        <v>395.6144033765117</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -20919,28 +21085,28 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1155172259417865</v>
+        <v>0.1120973807419735</v>
       </c>
       <c r="J3" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K3" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00624656483217001</v>
+        <v>0.005953490979532239</v>
       </c>
       <c r="M3" t="n">
-        <v>8.62792014891571</v>
+        <v>8.613178842424887</v>
       </c>
       <c r="N3" t="n">
-        <v>118.8377580239524</v>
+        <v>118.3196671586794</v>
       </c>
       <c r="O3" t="n">
-        <v>10.90127322948803</v>
+        <v>10.87748441316647</v>
       </c>
       <c r="P3" t="n">
-        <v>389.0820509791567</v>
+        <v>389.1165327121702</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -20997,28 +21163,28 @@
         <v>0.0819</v>
       </c>
       <c r="I4" t="n">
-        <v>0.202104825770715</v>
+        <v>0.1874466577771381</v>
       </c>
       <c r="J4" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K4" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02265078713202151</v>
+        <v>0.01972006764122625</v>
       </c>
       <c r="M4" t="n">
-        <v>7.787607652840571</v>
+        <v>7.792507890362577</v>
       </c>
       <c r="N4" t="n">
-        <v>101.9062425924443</v>
+        <v>101.9567035872634</v>
       </c>
       <c r="O4" t="n">
-        <v>10.09486218788767</v>
+        <v>10.09736121901477</v>
       </c>
       <c r="P4" t="n">
-        <v>384.2109076682152</v>
+        <v>384.3536098638055</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21075,28 +21241,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2519665961097263</v>
+        <v>0.23051484797611</v>
       </c>
       <c r="J5" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K5" t="n">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03084546822045253</v>
+        <v>0.02599573719610915</v>
       </c>
       <c r="M5" t="n">
-        <v>8.279894079981608</v>
+        <v>8.308974841796683</v>
       </c>
       <c r="N5" t="n">
-        <v>114.9443877585691</v>
+        <v>115.8566583102553</v>
       </c>
       <c r="O5" t="n">
-        <v>10.7212120470854</v>
+        <v>10.76367308637044</v>
       </c>
       <c r="P5" t="n">
-        <v>385.1516974648319</v>
+        <v>385.3605426206219</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21153,28 +21319,28 @@
         <v>0.0703</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2464896106597181</v>
+        <v>0.2264956191316568</v>
       </c>
       <c r="J6" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K6" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02989953365323139</v>
+        <v>0.02526729014243889</v>
       </c>
       <c r="M6" t="n">
-        <v>7.925513582888991</v>
+        <v>7.988133393113801</v>
       </c>
       <c r="N6" t="n">
-        <v>112.1314894674938</v>
+        <v>113.7047414857424</v>
       </c>
       <c r="O6" t="n">
-        <v>10.58921571541036</v>
+        <v>10.66324254088513</v>
       </c>
       <c r="P6" t="n">
-        <v>390.3320786044613</v>
+        <v>390.528485819873</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21231,28 +21397,28 @@
         <v>0.0769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2106252188609655</v>
+        <v>0.196489459664933</v>
       </c>
       <c r="J7" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K7" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02260636087424794</v>
+        <v>0.01983324951486309</v>
       </c>
       <c r="M7" t="n">
-        <v>8.04152639196281</v>
+        <v>8.071727998451772</v>
       </c>
       <c r="N7" t="n">
-        <v>109.9547987693246</v>
+        <v>110.4030448453433</v>
       </c>
       <c r="O7" t="n">
-        <v>10.48593337616278</v>
+        <v>10.5072853223534</v>
       </c>
       <c r="P7" t="n">
-        <v>395.630555907502</v>
+        <v>395.7698724721511</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21309,28 +21475,28 @@
         <v>0.0727</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1124780508131465</v>
+        <v>0.09000524039017302</v>
       </c>
       <c r="J8" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K8" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007618604426972042</v>
+        <v>0.004860965173571374</v>
       </c>
       <c r="M8" t="n">
-        <v>7.267753939208369</v>
+        <v>7.323628376129402</v>
       </c>
       <c r="N8" t="n">
-        <v>93.10043800417822</v>
+        <v>94.61169355741089</v>
       </c>
       <c r="O8" t="n">
-        <v>9.648856823695656</v>
+        <v>9.726854247772549</v>
       </c>
       <c r="P8" t="n">
-        <v>389.8748354658913</v>
+        <v>390.0987826563567</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21368,7 +21534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I473"/>
+  <dimension ref="A1:I477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42067,6 +42233,182 @@
         </is>
       </c>
     </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr"/>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>-34.94390230220385,173.57391698648345</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>-34.94435480942112,173.57454009328762</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>-34.9446166792341,173.5753510059221</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>-34.944710550131234,173.57620999850832</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>-34.94477965283661,173.57701349006908</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>-34.94492455451189,173.57784921867278</t>
+        </is>
+      </c>
+      <c r="I474" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>-34.943574463580504,173.5731578982586</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>-34.94398337366629,173.57383189304278</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-34.94437903213175,173.57452490153875</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-34.94465546991953,173.5753329455292</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-34.94484958314038,173.57616820822878</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-34.94489700417693,173.57700711875705</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>-34.94490124424152,173.5778465962075</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:11:13+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-34.944447293696264,173.57448208990323</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-34.94479636728825,173.57526734556083</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-34.94501656547299,173.5761180168056</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>-34.945007393449586,173.5770011254194</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>-34.945115090929164,173.57787065456895</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-34.94353326660003,173.57322184908043</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-34.94400568252119,173.57380847739907</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-34.9443174204484,173.57456354249678</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-34.94467835942967,173.57532228848947</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-34.94482906047146,173.57617437690286</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-34.94496581409101,173.57700338287893</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>-34.94490703900208,173.5778472481328</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0034/nzd0034.xlsx
+++ b/data/nzd0034/nzd0034.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I477"/>
+  <dimension ref="A1:I483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15410,6 +15410,188 @@
         <v>386.4023076923077</v>
       </c>
       <c r="I477" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr"/>
+      <c r="C478" t="n">
+        <v>387.81</v>
+      </c>
+      <c r="D478" t="n">
+        <v>392.74</v>
+      </c>
+      <c r="E478" t="n">
+        <v>385.2671428571429</v>
+      </c>
+      <c r="F478" t="n">
+        <v>386.4530769230769</v>
+      </c>
+      <c r="G478" t="n">
+        <v>396.6271428571428</v>
+      </c>
+      <c r="H478" t="n">
+        <v>390.1330769230769</v>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>358.2846153846153</v>
+      </c>
+      <c r="C479" t="n">
+        <v>381.81</v>
+      </c>
+      <c r="D479" t="n">
+        <v>372.15</v>
+      </c>
+      <c r="E479" t="n">
+        <v>371.0957142857143</v>
+      </c>
+      <c r="F479" t="n">
+        <v>371.6346153846154</v>
+      </c>
+      <c r="G479" t="n">
+        <v>381.0757142857143</v>
+      </c>
+      <c r="H479" t="n">
+        <v>379.9546153846154</v>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr"/>
+      <c r="C480" t="n">
+        <v>383.4233333333333</v>
+      </c>
+      <c r="D480" t="n">
+        <v>383.0033333333333</v>
+      </c>
+      <c r="E480" t="n">
+        <v>374.1142857142857</v>
+      </c>
+      <c r="F480" t="n">
+        <v>380.0315384615385</v>
+      </c>
+      <c r="G480" t="n">
+        <v>386.5242857142857</v>
+      </c>
+      <c r="H480" t="n">
+        <v>390.3315384615385</v>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>368.89</v>
+      </c>
+      <c r="C481" t="n">
+        <v>381.2466666666666</v>
+      </c>
+      <c r="D481" t="n">
+        <v>371.2766666666666</v>
+      </c>
+      <c r="E481" t="n">
+        <v>368.0228571428572</v>
+      </c>
+      <c r="F481" t="n">
+        <v>377.22</v>
+      </c>
+      <c r="G481" t="n">
+        <v>382.0128571428572</v>
+      </c>
+      <c r="H481" t="n">
+        <v>382.1</v>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>371.43</v>
+      </c>
+      <c r="C482" t="n">
+        <v>385.0566666666666</v>
+      </c>
+      <c r="D482" t="n">
+        <v>373.4966666666666</v>
+      </c>
+      <c r="E482" t="n">
+        <v>382.7342857142857</v>
+      </c>
+      <c r="F482" t="n">
+        <v>382.29</v>
+      </c>
+      <c r="G482" t="n">
+        <v>388.6742857142857</v>
+      </c>
+      <c r="H482" t="n">
+        <v>378.94</v>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr"/>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="n">
+        <v>374.9353846153846</v>
+      </c>
+      <c r="I483" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15426,7 +15608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B540"/>
+  <dimension ref="A1:B546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20834,6 +21016,66 @@
       </c>
       <c r="B540" t="n">
         <v>-0.41</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>-0.61</v>
       </c>
     </row>
   </sheetData>
@@ -21007,28 +21249,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1847040256972736</v>
+        <v>0.1338699044886913</v>
       </c>
       <c r="J2" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K2" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003202584021651078</v>
+        <v>0.001687003344563953</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77738638284714</v>
+        <v>20.84440379841593</v>
       </c>
       <c r="N2" t="n">
-        <v>602.0967235669157</v>
+        <v>606.5639979672145</v>
       </c>
       <c r="O2" t="n">
-        <v>24.53765929274664</v>
+        <v>24.6285200117103</v>
       </c>
       <c r="P2" t="n">
-        <v>395.6144033765117</v>
+        <v>396.1167716101942</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21085,28 +21327,28 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1120973807419735</v>
+        <v>0.09388397945241832</v>
       </c>
       <c r="J3" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K3" t="n">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005953490979532239</v>
+        <v>0.004254048672130417</v>
       </c>
       <c r="M3" t="n">
-        <v>8.613178842424887</v>
+        <v>8.596234633692292</v>
       </c>
       <c r="N3" t="n">
-        <v>118.3196671586794</v>
+        <v>117.7339918453904</v>
       </c>
       <c r="O3" t="n">
-        <v>10.87748441316647</v>
+        <v>10.85052956520512</v>
       </c>
       <c r="P3" t="n">
-        <v>389.1165327121702</v>
+        <v>389.3002007795371</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21163,28 +21405,28 @@
         <v>0.0819</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1874466577771381</v>
+        <v>0.1653428447696716</v>
       </c>
       <c r="J4" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K4" t="n">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01972006764122625</v>
+        <v>0.01545478074854334</v>
       </c>
       <c r="M4" t="n">
-        <v>7.792507890362577</v>
+        <v>7.841207754659989</v>
       </c>
       <c r="N4" t="n">
-        <v>101.9567035872634</v>
+        <v>102.825605631019</v>
       </c>
       <c r="O4" t="n">
-        <v>10.09736121901477</v>
+        <v>10.14029613132768</v>
       </c>
       <c r="P4" t="n">
-        <v>384.3536098638055</v>
+        <v>384.5696812227089</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21241,28 +21483,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.23051484797611</v>
+        <v>0.1988803888823449</v>
       </c>
       <c r="J5" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K5" t="n">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02599573719610915</v>
+        <v>0.01942542406935688</v>
       </c>
       <c r="M5" t="n">
-        <v>8.308974841796683</v>
+        <v>8.370160268091093</v>
       </c>
       <c r="N5" t="n">
-        <v>115.8566583102553</v>
+        <v>117.5560936828459</v>
       </c>
       <c r="O5" t="n">
-        <v>10.76367308637044</v>
+        <v>10.8423287942603</v>
       </c>
       <c r="P5" t="n">
-        <v>385.3605426206219</v>
+        <v>385.6694337392634</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21319,28 +21561,28 @@
         <v>0.0703</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2264956191316568</v>
+        <v>0.1905447855028607</v>
       </c>
       <c r="J6" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K6" t="n">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02526729014243889</v>
+        <v>0.01789760264168039</v>
       </c>
       <c r="M6" t="n">
-        <v>7.988133393113801</v>
+        <v>8.111807230663624</v>
       </c>
       <c r="N6" t="n">
-        <v>113.7047414857424</v>
+        <v>115.8455481730182</v>
       </c>
       <c r="O6" t="n">
-        <v>10.66324254088513</v>
+        <v>10.76315697985578</v>
       </c>
       <c r="P6" t="n">
-        <v>390.528485819873</v>
+        <v>390.8825025117696</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21397,28 +21639,28 @@
         <v>0.0769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.196489459664933</v>
+        <v>0.1678200508000766</v>
       </c>
       <c r="J7" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K7" t="n">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01983324951486309</v>
+        <v>0.01454807481557585</v>
       </c>
       <c r="M7" t="n">
-        <v>8.071727998451772</v>
+        <v>8.133332163908552</v>
       </c>
       <c r="N7" t="n">
-        <v>110.4030448453433</v>
+        <v>111.6195307721641</v>
       </c>
       <c r="O7" t="n">
-        <v>10.5072853223534</v>
+        <v>10.56501447098697</v>
       </c>
       <c r="P7" t="n">
-        <v>395.7698724721511</v>
+        <v>396.0529869718071</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21475,28 +21717,28 @@
         <v>0.0727</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09000524039017302</v>
+        <v>0.06475082144664351</v>
       </c>
       <c r="J8" t="n">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K8" t="n">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004860965173571374</v>
+        <v>0.002545926940464294</v>
       </c>
       <c r="M8" t="n">
-        <v>7.323628376129402</v>
+        <v>7.366491899297611</v>
       </c>
       <c r="N8" t="n">
-        <v>94.61169355741089</v>
+        <v>95.01613005035418</v>
       </c>
       <c r="O8" t="n">
-        <v>9.726854247772549</v>
+        <v>9.747621763812656</v>
       </c>
       <c r="P8" t="n">
-        <v>390.0987826563567</v>
+        <v>390.3514397214684</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21534,7 +21776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I477"/>
+  <dimension ref="A1:I483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42409,6 +42651,256 @@
         </is>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr"/>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-34.94397609656688,173.57383953117053</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-34.944279150159474,173.5745875444154</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-34.94463605653498,173.57534198412793</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-34.94484165821218,173.57617059029258</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-34.944877855279806,173.57700815840198</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>-34.944873541279996,173.57784347955527</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-31 22:17:29+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>-34.94361626315937,173.5730930118939</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-34.944017030244844,173.5737965666845</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-34.94444411563472,173.57448408309128</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>-34.94475537546747,173.57528643083998</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-34.94497136578178,173.5761316029149</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-34.945017945932975,173.5770005524953</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>-34.944964931353155,173.5778537611749</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr"/>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-34.94400602363514,173.5738081193616</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-34.944357159584975,173.57453861933664</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-34.94472996005593,173.5752982639276</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-34.94489786662292,173.57615369523728</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-34.94496886401612,173.57700321729004</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>-34.944871759339314,173.57784327908257</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:17:36+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-34.943557337710416,173.57318448307217</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-34.944020873461604,173.57379253279447</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-34.94445111271136,173.57447969472747</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-34.944781247946246,173.57527438493975</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-34.944922476317956,173.57614629807793</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-34.94500950394625,173.57700101083458</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>-34.944945668436645,173.57785159404494</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-34.943543224997576,173.57320639048947</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-34.94399488057874,173.57381981525057</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-34.944433326249055,173.57449084987974</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-34.94465738239046,173.57533205510939</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-34.9448780980686,173.57615963724783</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-34.94494949634823,173.57700426881425</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>-34.944974041352,173.57785478607468</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr"/>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr"/>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-34.94500999787487,173.57785883128423</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0034/nzd0034.xlsx
+++ b/data/nzd0034/nzd0034.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I483"/>
+  <dimension ref="A1:I486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15592,6 +15592,95 @@
         <v>374.9353846153846</v>
       </c>
       <c r="I483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:27+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="n">
+        <v>352.67</v>
+      </c>
+      <c r="F484" t="n">
+        <v>361.4961538461538</v>
+      </c>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr"/>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>372.54</v>
+      </c>
+      <c r="C485" t="n">
+        <v>378.7333333333333</v>
+      </c>
+      <c r="D485" t="n">
+        <v>380.5333333333333</v>
+      </c>
+      <c r="E485" t="n">
+        <v>377.3042857142857</v>
+      </c>
+      <c r="F485" t="n">
+        <v>370.16</v>
+      </c>
+      <c r="G485" t="n">
+        <v>385.2142857142857</v>
+      </c>
+      <c r="H485" t="n">
+        <v>388.53</v>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>369.9938461538461</v>
+      </c>
+      <c r="C486" t="n">
+        <v>376.9633333333334</v>
+      </c>
+      <c r="D486" t="n">
+        <v>372.0733333333334</v>
+      </c>
+      <c r="E486" t="n">
+        <v>369.7457142857143</v>
+      </c>
+      <c r="F486" t="n">
+        <v>364.7338461538461</v>
+      </c>
+      <c r="G486" t="n">
+        <v>383.0957142857143</v>
+      </c>
+      <c r="H486" t="n">
+        <v>374.2238461538461</v>
+      </c>
+      <c r="I486" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15608,7 +15697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B546"/>
+  <dimension ref="A1:B549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21076,6 +21165,36 @@
       </c>
       <c r="B546" t="n">
         <v>-0.61</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>
@@ -21249,28 +21368,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1338699044886913</v>
+        <v>0.1059111599304859</v>
       </c>
       <c r="J2" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K2" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001687003344563953</v>
+        <v>0.001061007812116821</v>
       </c>
       <c r="M2" t="n">
-        <v>20.84440379841593</v>
+        <v>20.86363868537458</v>
       </c>
       <c r="N2" t="n">
-        <v>606.5639979672145</v>
+        <v>607.5254742264502</v>
       </c>
       <c r="O2" t="n">
-        <v>24.6285200117103</v>
+        <v>24.64803185299894</v>
       </c>
       <c r="P2" t="n">
-        <v>396.1167716101942</v>
+        <v>396.3948083869051</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21327,28 +21446,28 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09388397945241832</v>
+        <v>0.08149246856478139</v>
       </c>
       <c r="J3" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K3" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004254048672130417</v>
+        <v>0.003213968544680812</v>
       </c>
       <c r="M3" t="n">
-        <v>8.596234633692292</v>
+        <v>8.614778183086685</v>
       </c>
       <c r="N3" t="n">
-        <v>117.7339918453904</v>
+        <v>118.0892919660883</v>
       </c>
       <c r="O3" t="n">
-        <v>10.85052956520512</v>
+        <v>10.86688970985204</v>
       </c>
       <c r="P3" t="n">
-        <v>389.3002007795371</v>
+        <v>389.4260167319218</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21405,28 +21524,28 @@
         <v>0.0819</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1653428447696716</v>
+        <v>0.154951968921965</v>
       </c>
       <c r="J4" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K4" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01545478074854334</v>
+        <v>0.01361769970531002</v>
       </c>
       <c r="M4" t="n">
-        <v>7.841207754659989</v>
+        <v>7.863275342720687</v>
       </c>
       <c r="N4" t="n">
-        <v>102.825605631019</v>
+        <v>103.1476893190837</v>
       </c>
       <c r="O4" t="n">
-        <v>10.14029613132768</v>
+        <v>10.15616508919994</v>
       </c>
       <c r="P4" t="n">
-        <v>384.5696812227089</v>
+        <v>384.6719370448562</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21483,28 +21602,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1988803888823449</v>
+        <v>0.1687202898910111</v>
       </c>
       <c r="J5" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K5" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01942542406935688</v>
+        <v>0.01371024663080789</v>
       </c>
       <c r="M5" t="n">
-        <v>8.370160268091093</v>
+        <v>8.4744334621129</v>
       </c>
       <c r="N5" t="n">
-        <v>117.5560936828459</v>
+        <v>121.4027559435727</v>
       </c>
       <c r="O5" t="n">
-        <v>10.8423287942603</v>
+        <v>11.01829187957792</v>
       </c>
       <c r="P5" t="n">
-        <v>385.6694337392634</v>
+        <v>385.9653768082583</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21561,28 +21680,28 @@
         <v>0.0703</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1905447855028607</v>
+        <v>0.1521506144629901</v>
       </c>
       <c r="J6" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K6" t="n">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01789760264168039</v>
+        <v>0.01104924288327325</v>
       </c>
       <c r="M6" t="n">
-        <v>8.111807230663624</v>
+        <v>8.299684617738368</v>
       </c>
       <c r="N6" t="n">
-        <v>115.8455481730182</v>
+        <v>121.3266826165578</v>
       </c>
       <c r="O6" t="n">
-        <v>10.76315697985578</v>
+        <v>11.01483920066733</v>
       </c>
       <c r="P6" t="n">
-        <v>390.8825025117696</v>
+        <v>391.2626401535439</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -21639,28 +21758,28 @@
         <v>0.0769</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1678200508000766</v>
+        <v>0.1543944265000665</v>
       </c>
       <c r="J7" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K7" t="n">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01454807481557585</v>
+        <v>0.01232086832993318</v>
       </c>
       <c r="M7" t="n">
-        <v>8.133332163908552</v>
+        <v>8.169072241248282</v>
       </c>
       <c r="N7" t="n">
-        <v>111.6195307721641</v>
+        <v>112.3009351116603</v>
       </c>
       <c r="O7" t="n">
-        <v>10.56501447098697</v>
+        <v>10.59721355412168</v>
       </c>
       <c r="P7" t="n">
-        <v>396.0529869718071</v>
+        <v>396.1864851314016</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -21717,28 +21836,28 @@
         <v>0.0727</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06475082144664351</v>
+        <v>0.05551976462478436</v>
       </c>
       <c r="J8" t="n">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K8" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002545926940464294</v>
+        <v>0.001875156533840294</v>
       </c>
       <c r="M8" t="n">
-        <v>7.366491899297611</v>
+        <v>7.385193051415111</v>
       </c>
       <c r="N8" t="n">
-        <v>95.01613005035418</v>
+        <v>95.33949042344743</v>
       </c>
       <c r="O8" t="n">
-        <v>9.747621763812656</v>
+        <v>9.764194304879815</v>
       </c>
       <c r="P8" t="n">
-        <v>390.3514397214684</v>
+        <v>390.4443942850877</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -21776,7 +21895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I483"/>
+  <dimension ref="A1:I486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42901,6 +43020,127 @@
         </is>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:27+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr"/>
+      <c r="D484" t="inlineStr"/>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-34.94491051409681,173.57521420012782</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-34.94506010880563,173.57610492854977</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr"/>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-34.94353705762972,173.57321596420095</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-34.94403802011943,173.5737745354343</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-34.94437694903212,173.57452620799597</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-34.94470310126903,173.5753107690238</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-34.9449842732463,173.57612772319473</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-34.94498066478118,173.5770025765937</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-34.944887934940425,173.57784509887767</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-25 22:17:52+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-34.94355120453619,173.57319400371023</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-34.944050095549265,173.57376186089633</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-34.94444472988191,173.57448369785325</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-34.944766742037814,173.575281138709</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-34.94503176894388,173.5761134469476</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-34.94499974933354,173.57700154043997</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>-34.945016386615436,173.5778595500358</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0034/nzd0034.xlsx
+++ b/data/nzd0034/nzd0034.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I486"/>
+  <dimension ref="A1:I488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15681,6 +15681,58 @@
         <v>374.2238461538461</v>
       </c>
       <c r="I486" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>427.6915384615385</v>
+      </c>
+      <c r="C487" t="n">
+        <v>378.0833333333334</v>
+      </c>
+      <c r="D487" t="n">
+        <v>371.6033333333334</v>
+      </c>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr"/>
+      <c r="H487" t="inlineStr"/>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>441.5446153846154</v>
+      </c>
+      <c r="C488" t="n">
+        <v>392.16</v>
+      </c>
+      <c r="D488" t="n">
+        <v>382.63</v>
+      </c>
+      <c r="E488" t="n">
+        <v>379.7185714285715</v>
+      </c>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15697,7 +15749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B549"/>
+  <dimension ref="A1:B551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21195,6 +21247,26 @@
       </c>
       <c r="B549" t="n">
         <v>0.79</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
@@ -21895,7 +21967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I486"/>
+  <dimension ref="A1:I488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43141,6 +43213,72 @@
         </is>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-34.94323062441366,173.57369164249616</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-34.94404245459947,173.5737698809434</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-34.94444849548424,173.5744813361766</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr"/>
+      <c r="H487" t="inlineStr"/>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:17:57+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-34.94315365359815,173.5738111237914</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-34.943946419640945,173.57387068039623</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-34.944360150702565,173.5745367433989</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-34.94468277374917,173.57532023324256</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0034/nzd0034.xlsx
+++ b/data/nzd0034/nzd0034.xlsx
@@ -21440,28 +21440,28 @@
         <v>0.07489999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1059111599304859</v>
+        <v>0.1404559076208877</v>
       </c>
       <c r="J2" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K2" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001061007812116821</v>
+        <v>0.001864378588337656</v>
       </c>
       <c r="M2" t="n">
-        <v>20.86363868537458</v>
+        <v>20.960086796673</v>
       </c>
       <c r="N2" t="n">
-        <v>607.5254742264502</v>
+        <v>611.0066990627654</v>
       </c>
       <c r="O2" t="n">
-        <v>24.64803185299894</v>
+        <v>24.7185496957804</v>
       </c>
       <c r="P2" t="n">
-        <v>396.3948083869051</v>
+        <v>396.0505331788639</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -21518,28 +21518,28 @@
         <v>0.08450000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08149246856478139</v>
+        <v>0.07581845565232287</v>
       </c>
       <c r="J3" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K3" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003213968544680812</v>
+        <v>0.00279919675389273</v>
       </c>
       <c r="M3" t="n">
-        <v>8.614778183086685</v>
+        <v>8.60449119890049</v>
       </c>
       <c r="N3" t="n">
-        <v>118.0892919660883</v>
+        <v>117.9565555513042</v>
       </c>
       <c r="O3" t="n">
-        <v>10.86688970985204</v>
+        <v>10.86078061427005</v>
       </c>
       <c r="P3" t="n">
-        <v>389.4260167319218</v>
+        <v>389.4837212744922</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -21596,28 +21596,28 @@
         <v>0.0819</v>
       </c>
       <c r="I4" t="n">
-        <v>0.154951968921965</v>
+        <v>0.145463272844767</v>
       </c>
       <c r="J4" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K4" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01361769970531002</v>
+        <v>0.01204224012594424</v>
       </c>
       <c r="M4" t="n">
-        <v>7.863275342720687</v>
+        <v>7.88040979939863</v>
       </c>
       <c r="N4" t="n">
-        <v>103.1476893190837</v>
+        <v>103.4183589162019</v>
       </c>
       <c r="O4" t="n">
-        <v>10.15616508919994</v>
+        <v>10.16948174275375</v>
       </c>
       <c r="P4" t="n">
-        <v>384.6719370448562</v>
+        <v>384.7654855252778</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -21674,28 +21674,28 @@
         <v>0.07729999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1687202898910111</v>
+        <v>0.1642977186821811</v>
       </c>
       <c r="J5" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K5" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01371024663080789</v>
+        <v>0.01304147962424596</v>
       </c>
       <c r="M5" t="n">
-        <v>8.4744334621129</v>
+        <v>8.479643098073691</v>
       </c>
       <c r="N5" t="n">
-        <v>121.4027559435727</v>
+        <v>121.3839521618599</v>
       </c>
       <c r="O5" t="n">
-        <v>11.01829187957792</v>
+        <v>11.01743854813177</v>
       </c>
       <c r="P5" t="n">
-        <v>385.9653768082583</v>
+        <v>386.008975939026</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -21755,7 +21755,7 @@
         <v>0.1521506144629901</v>
       </c>
       <c r="J6" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K6" t="n">
         <v>439</v>
@@ -21833,7 +21833,7 @@
         <v>0.1543944265000665</v>
       </c>
       <c r="J7" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K7" t="n">
         <v>444</v>
@@ -21911,7 +21911,7 @@
         <v>0.05551976462478436</v>
       </c>
       <c r="J8" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K8" t="n">
         <v>423</v>

--- a/data/nzd0034/nzd0034.xlsx
+++ b/data/nzd0034/nzd0034.xlsx
@@ -21431,13 +21431,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.065</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0602</v>
+        <v>0.0674</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07489999999999999</v>
+        <v>0.1972</v>
       </c>
       <c r="I2" t="n">
         <v>0.1404662222757917</v>
@@ -21509,13 +21509,13 @@
         <v>0.1609948111187989</v>
       </c>
       <c r="F3" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0663</v>
+        <v>0.0828</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08450000000000001</v>
+        <v>0.1167</v>
       </c>
       <c r="I3" t="n">
         <v>0.07580027731481462</v>
@@ -21587,13 +21587,13 @@
         <v>0.3294864300591229</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06809999999999999</v>
+        <v>0.0809</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0819</v>
+        <v>0.1157</v>
       </c>
       <c r="I4" t="n">
         <v>0.1454490735178536</v>
@@ -21665,13 +21665,13 @@
         <v>0.4979242290759562</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0631</v>
+        <v>0.0704</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07729999999999999</v>
+        <v>0.0877</v>
       </c>
       <c r="I5" t="n">
         <v>0.1642821678793639</v>
@@ -21743,13 +21743,13 @@
         <v>0.6661091163985372</v>
       </c>
       <c r="F6" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0615</v>
+        <v>0.055</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0703</v>
+        <v>0.0668</v>
       </c>
       <c r="I6" t="n">
         <v>0.1521490739707834</v>
@@ -21821,13 +21821,13 @@
         <v>0.8344470033258927</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0602</v>
+        <v>0.0709</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0769</v>
+        <v>0.0862</v>
       </c>
       <c r="I7" t="n">
         <v>0.1543851529373773</v>
@@ -21899,13 +21899,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.065</v>
+        <v>0.08</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06</v>
+        <v>0.0709</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0727</v>
+        <v>0.0866</v>
       </c>
       <c r="I8" t="n">
         <v>0.05552720147935509</v>

--- a/data/nzd0034/nzd0034.xlsx
+++ b/data/nzd0034/nzd0034.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I489"/>
+  <dimension ref="A1:I490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
         <v>422.94</v>
       </c>
       <c r="C3" t="n">
-        <v>390.48</v>
+        <v>390.39</v>
       </c>
       <c r="D3" t="n">
         <v>377.59</v>
@@ -555,7 +555,7 @@
         <v>403.44</v>
       </c>
       <c r="C4" t="n">
-        <v>388.13</v>
+        <v>387.82</v>
       </c>
       <c r="D4" t="n">
         <v>376.51</v>
@@ -588,7 +588,7 @@
         <v>410.39</v>
       </c>
       <c r="C5" t="n">
-        <v>384.32</v>
+        <v>384.07</v>
       </c>
       <c r="D5" t="n">
         <v>374.99</v>
@@ -621,7 +621,7 @@
         <v>404.53</v>
       </c>
       <c r="C6" t="n">
-        <v>386.36</v>
+        <v>386.05</v>
       </c>
       <c r="D6" t="n">
         <v>377.95</v>
@@ -654,7 +654,7 @@
         <v>399.67</v>
       </c>
       <c r="C7" t="n">
-        <v>387.54</v>
+        <v>387.45</v>
       </c>
       <c r="D7" t="n">
         <v>379.05</v>
@@ -687,7 +687,7 @@
         <v>397.58</v>
       </c>
       <c r="C8" t="n">
-        <v>389.07</v>
+        <v>389.08</v>
       </c>
       <c r="D8" t="n">
         <v>382.01</v>
@@ -720,7 +720,7 @@
         <v>386.61</v>
       </c>
       <c r="C9" t="n">
-        <v>391.62</v>
+        <v>391.65</v>
       </c>
       <c r="D9" t="n">
         <v>385.69</v>
@@ -753,7 +753,7 @@
         <v>386.61</v>
       </c>
       <c r="C10" t="n">
-        <v>387.46</v>
+        <v>387.38</v>
       </c>
       <c r="D10" t="n">
         <v>384.94</v>
@@ -786,7 +786,7 @@
         <v>386.5</v>
       </c>
       <c r="C11" t="n">
-        <v>383.6</v>
+        <v>383.66</v>
       </c>
       <c r="D11" t="n">
         <v>382.43</v>
@@ -819,7 +819,7 @@
         <v>379.46</v>
       </c>
       <c r="C12" t="n">
-        <v>379.93</v>
+        <v>379.96</v>
       </c>
       <c r="D12" t="n">
         <v>379.64</v>
@@ -852,7 +852,7 @@
         <v>372.06</v>
       </c>
       <c r="C13" t="n">
-        <v>375.19</v>
+        <v>374.98</v>
       </c>
       <c r="D13" t="n">
         <v>376</v>
@@ -885,7 +885,7 @@
         <v>385.76</v>
       </c>
       <c r="C14" t="n">
-        <v>395.21</v>
+        <v>394.75</v>
       </c>
       <c r="D14" t="n">
         <v>379.92</v>
@@ -918,7 +918,7 @@
         <v>379.26</v>
       </c>
       <c r="C15" t="n">
-        <v>388.93</v>
+        <v>388.57</v>
       </c>
       <c r="D15" t="n">
         <v>380.2</v>
@@ -951,7 +951,7 @@
         <v>377.03</v>
       </c>
       <c r="C16" t="n">
-        <v>388.93</v>
+        <v>388.57</v>
       </c>
       <c r="D16" t="n">
         <v>380.11</v>
@@ -984,7 +984,7 @@
         <v>376.28</v>
       </c>
       <c r="C17" t="n">
-        <v>388.93</v>
+        <v>388.57</v>
       </c>
       <c r="D17" t="n">
         <v>378.71</v>
@@ -1017,7 +1017,7 @@
         <v>385.67</v>
       </c>
       <c r="C18" t="n">
-        <v>386.24</v>
+        <v>386.09</v>
       </c>
       <c r="D18" t="n">
         <v>378.71</v>
@@ -1050,7 +1050,7 @@
         <v>392.93</v>
       </c>
       <c r="C19" t="n">
-        <v>379.38</v>
+        <v>379.54</v>
       </c>
       <c r="D19" t="n">
         <v>376.22</v>
@@ -1083,7 +1083,7 @@
         <v>398.68</v>
       </c>
       <c r="C20" t="n">
-        <v>377.08</v>
+        <v>377.23</v>
       </c>
       <c r="D20" t="n">
         <v>374.48</v>
@@ -1116,7 +1116,7 @@
         <v>411.62</v>
       </c>
       <c r="C21" t="n">
-        <v>377.87</v>
+        <v>377.95</v>
       </c>
       <c r="D21" t="n">
         <v>374.64</v>
@@ -1149,7 +1149,7 @@
         <v>408.28</v>
       </c>
       <c r="C22" t="n">
-        <v>375.27</v>
+        <v>375.37</v>
       </c>
       <c r="D22" t="n">
         <v>371.27</v>
@@ -1182,7 +1182,7 @@
         <v>402.82</v>
       </c>
       <c r="C23" t="n">
-        <v>374.39</v>
+        <v>374.45</v>
       </c>
       <c r="D23" t="n">
         <v>370.77</v>
@@ -1215,7 +1215,7 @@
         <v>401.2</v>
       </c>
       <c r="C24" t="n">
-        <v>377.69</v>
+        <v>377.77</v>
       </c>
       <c r="D24" t="n">
         <v>373.95</v>
@@ -1248,7 +1248,7 @@
         <v>392.83</v>
       </c>
       <c r="C25" t="n">
-        <v>379.43</v>
+        <v>379.35</v>
       </c>
       <c r="D25" t="n">
         <v>374.52</v>
@@ -1281,7 +1281,7 @@
         <v>383.75</v>
       </c>
       <c r="C26" t="n">
-        <v>379.92</v>
+        <v>379.81</v>
       </c>
       <c r="D26" t="n">
         <v>376.21</v>
@@ -1314,7 +1314,7 @@
         <v>381.79</v>
       </c>
       <c r="C27" t="n">
-        <v>379</v>
+        <v>378.87</v>
       </c>
       <c r="D27" t="n">
         <v>376.24</v>
@@ -1347,7 +1347,7 @@
         <v>372.06</v>
       </c>
       <c r="C28" t="n">
-        <v>380.46</v>
+        <v>380.35</v>
       </c>
       <c r="D28" t="n">
         <v>378.52</v>
@@ -1380,7 +1380,7 @@
         <v>375.49</v>
       </c>
       <c r="C29" t="n">
-        <v>380.46</v>
+        <v>380.35</v>
       </c>
       <c r="D29" t="n">
         <v>379.35</v>
@@ -1413,7 +1413,7 @@
         <v>386.15</v>
       </c>
       <c r="C30" t="n">
-        <v>379.37</v>
+        <v>379.11</v>
       </c>
       <c r="D30" t="n">
         <v>379.13</v>
@@ -1446,7 +1446,7 @@
         <v>393.92</v>
       </c>
       <c r="C31" t="n">
-        <v>382.24</v>
+        <v>382.2</v>
       </c>
       <c r="D31" t="n">
         <v>379.06</v>
@@ -1479,7 +1479,7 @@
         <v>401.19</v>
       </c>
       <c r="C32" t="n">
-        <v>392.49</v>
+        <v>392.53</v>
       </c>
       <c r="D32" t="n">
         <v>381.52</v>
@@ -1512,7 +1512,7 @@
         <v>403.08</v>
       </c>
       <c r="C33" t="n">
-        <v>391.31</v>
+        <v>391.4</v>
       </c>
       <c r="D33" t="n">
         <v>382.77</v>
@@ -1545,7 +1545,7 @@
         <v>400.5</v>
       </c>
       <c r="C34" t="n">
-        <v>392.05</v>
+        <v>392.04</v>
       </c>
       <c r="D34" t="n">
         <v>384.57</v>
@@ -1578,7 +1578,7 @@
         <v>405.31</v>
       </c>
       <c r="C35" t="n">
-        <v>391.65</v>
+        <v>391.63</v>
       </c>
       <c r="D35" t="n">
         <v>386.08</v>
@@ -1611,7 +1611,7 @@
         <v>384.42</v>
       </c>
       <c r="C36" t="n">
-        <v>390.78</v>
+        <v>390.67</v>
       </c>
       <c r="D36" t="n">
         <v>388.2</v>
@@ -1644,7 +1644,7 @@
         <v>381.1</v>
       </c>
       <c r="C37" t="n">
-        <v>390.78</v>
+        <v>390.67</v>
       </c>
       <c r="D37" t="n">
         <v>384.8</v>
@@ -1677,7 +1677,7 @@
         <v>378.11</v>
       </c>
       <c r="C38" t="n">
-        <v>389.7</v>
+        <v>389.57</v>
       </c>
       <c r="D38" t="n">
         <v>382.36</v>
@@ -1710,7 +1710,7 @@
         <v>367.77</v>
       </c>
       <c r="C39" t="n">
-        <v>388</v>
+        <v>387.82</v>
       </c>
       <c r="D39" t="n">
         <v>375.98</v>
@@ -1743,7 +1743,7 @@
         <v>361.32</v>
       </c>
       <c r="C40" t="n">
-        <v>385.34</v>
+        <v>384.95</v>
       </c>
       <c r="D40" t="n">
         <v>375.16</v>
@@ -1776,7 +1776,7 @@
         <v>361.32</v>
       </c>
       <c r="C41" t="n">
-        <v>387.2</v>
+        <v>386.82</v>
       </c>
       <c r="D41" t="n">
         <v>378.18</v>
@@ -1809,7 +1809,7 @@
         <v>388.59</v>
       </c>
       <c r="C42" t="n">
-        <v>389.81</v>
+        <v>389.64</v>
       </c>
       <c r="D42" t="n">
         <v>388.59</v>
@@ -1842,7 +1842,7 @@
         <v>392.64</v>
       </c>
       <c r="C43" t="n">
-        <v>393.32</v>
+        <v>393.28</v>
       </c>
       <c r="D43" t="n">
         <v>390.37</v>
@@ -1875,7 +1875,7 @@
         <v>393.34</v>
       </c>
       <c r="C44" t="n">
-        <v>393.9</v>
+        <v>393.91</v>
       </c>
       <c r="D44" t="n">
         <v>390.64</v>
@@ -1908,7 +1908,7 @@
         <v>393.34</v>
       </c>
       <c r="C45" t="n">
-        <v>396.3</v>
+        <v>396.42</v>
       </c>
       <c r="D45" t="n">
         <v>392.19</v>
@@ -1941,7 +1941,7 @@
         <v>391.88</v>
       </c>
       <c r="C46" t="n">
-        <v>395.71</v>
+        <v>395.72</v>
       </c>
       <c r="D46" t="n">
         <v>390.96</v>
@@ -1974,7 +1974,7 @@
         <v>391.88</v>
       </c>
       <c r="C47" t="n">
-        <v>396.91</v>
+        <v>397</v>
       </c>
       <c r="D47" t="n">
         <v>391.06</v>
@@ -2007,7 +2007,7 @@
         <v>389.96</v>
       </c>
       <c r="C48" t="n">
-        <v>394.55</v>
+        <v>394.66</v>
       </c>
       <c r="D48" t="n">
         <v>390.32</v>
@@ -2040,7 +2040,7 @@
         <v>388.5</v>
       </c>
       <c r="C49" t="n">
-        <v>392.77</v>
+        <v>392.87</v>
       </c>
       <c r="D49" t="n">
         <v>389.31</v>
@@ -2073,7 +2073,7 @@
         <v>387.89</v>
       </c>
       <c r="C50" t="n">
-        <v>392.77</v>
+        <v>392.87</v>
       </c>
       <c r="D50" t="n">
         <v>389.29</v>
@@ -2106,7 +2106,7 @@
         <v>391.94</v>
       </c>
       <c r="C51" t="n">
-        <v>393.34</v>
+        <v>393.48</v>
       </c>
       <c r="D51" t="n">
         <v>389.47</v>
@@ -2139,7 +2139,7 @@
         <v>396.37</v>
       </c>
       <c r="C52" t="n">
-        <v>389.74</v>
+        <v>389.7</v>
       </c>
       <c r="D52" t="n">
         <v>387.69</v>
@@ -2172,7 +2172,7 @@
         <v>398.64</v>
       </c>
       <c r="C53" t="n">
-        <v>389.93</v>
+        <v>389.95</v>
       </c>
       <c r="D53" t="n">
         <v>387.35</v>
@@ -2205,7 +2205,7 @@
         <v>402.42</v>
       </c>
       <c r="C54" t="n">
-        <v>390.66</v>
+        <v>390.7</v>
       </c>
       <c r="D54" t="n">
         <v>387.29</v>
@@ -2238,7 +2238,7 @@
         <v>406.01</v>
       </c>
       <c r="C55" t="n">
-        <v>393.11</v>
+        <v>393.15</v>
       </c>
       <c r="D55" t="n">
         <v>387.29</v>
@@ -2271,7 +2271,7 @@
         <v>409.59</v>
       </c>
       <c r="C56" t="n">
-        <v>392.78</v>
+        <v>392.8</v>
       </c>
       <c r="D56" t="n">
         <v>386.56</v>
@@ -2304,7 +2304,7 @@
         <v>412.17</v>
       </c>
       <c r="C57" t="n">
-        <v>393.21</v>
+        <v>393.2</v>
       </c>
       <c r="D57" t="n">
         <v>387.37</v>
@@ -2337,7 +2337,7 @@
         <v>422.86</v>
       </c>
       <c r="C58" t="n">
-        <v>395.17</v>
+        <v>395.12</v>
       </c>
       <c r="D58" t="n">
         <v>387.04</v>
@@ -2370,7 +2370,7 @@
         <v>422.86</v>
       </c>
       <c r="C59" t="n">
-        <v>394.27</v>
+        <v>394.21</v>
       </c>
       <c r="D59" t="n">
         <v>387.21</v>
@@ -2403,7 +2403,7 @@
         <v>424.68</v>
       </c>
       <c r="C60" t="n">
-        <v>395.23</v>
+        <v>395.2</v>
       </c>
       <c r="D60" t="n">
         <v>388.09</v>
@@ -2436,7 +2436,7 @@
         <v>431.09</v>
       </c>
       <c r="C61" t="n">
-        <v>394.65</v>
+        <v>394.52</v>
       </c>
       <c r="D61" t="n">
         <v>387.15</v>
@@ -2469,7 +2469,7 @@
         <v>430.65</v>
       </c>
       <c r="C62" t="n">
-        <v>395.22</v>
+        <v>395.05</v>
       </c>
       <c r="D62" t="n">
         <v>387.35</v>
@@ -2502,7 +2502,7 @@
         <v>426.31</v>
       </c>
       <c r="C63" t="n">
-        <v>395.45</v>
+        <v>395.25</v>
       </c>
       <c r="D63" t="n">
         <v>387.47</v>
@@ -2535,7 +2535,7 @@
         <v>422.98</v>
       </c>
       <c r="C64" t="n">
-        <v>396.27</v>
+        <v>396.11</v>
       </c>
       <c r="D64" t="n">
         <v>388.12</v>
@@ -2568,7 +2568,7 @@
         <v>409.29</v>
       </c>
       <c r="C65" t="n">
-        <v>393.59</v>
+        <v>393.32</v>
       </c>
       <c r="D65" t="n">
         <v>387.85</v>
@@ -2601,7 +2601,7 @@
         <v>400.82</v>
       </c>
       <c r="C66" t="n">
-        <v>393.17</v>
+        <v>392.89</v>
       </c>
       <c r="D66" t="n">
         <v>388.13</v>
@@ -2634,7 +2634,7 @@
         <v>403.21</v>
       </c>
       <c r="C67" t="n">
-        <v>395.3</v>
+        <v>395.08</v>
       </c>
       <c r="D67" t="n">
         <v>390.5</v>
@@ -2667,7 +2667,7 @@
         <v>401.37</v>
       </c>
       <c r="C68" t="n">
-        <v>394.94</v>
+        <v>394.7</v>
       </c>
       <c r="D68" t="n">
         <v>390.61</v>
@@ -2700,7 +2700,7 @@
         <v>400.93</v>
       </c>
       <c r="C69" t="n">
-        <v>395.43</v>
+        <v>395.26</v>
       </c>
       <c r="D69" t="n">
         <v>391.23</v>
@@ -2733,7 +2733,7 @@
         <v>400.4</v>
       </c>
       <c r="C70" t="n">
-        <v>395.75</v>
+        <v>395.57</v>
       </c>
       <c r="D70" t="n">
         <v>391.99</v>
@@ -2766,7 +2766,7 @@
         <v>395.86</v>
       </c>
       <c r="C71" t="n">
-        <v>395.77</v>
+        <v>395.57</v>
       </c>
       <c r="D71" t="n">
         <v>391.87</v>
@@ -2799,7 +2799,7 @@
         <v>396.26</v>
       </c>
       <c r="C72" t="n">
-        <v>397.44</v>
+        <v>397.25</v>
       </c>
       <c r="D72" t="n">
         <v>392.97</v>
@@ -2832,7 +2832,7 @@
         <v>394.54</v>
       </c>
       <c r="C73" t="n">
-        <v>398.03</v>
+        <v>397.88</v>
       </c>
       <c r="D73" t="n">
         <v>392.07</v>
@@ -2865,7 +2865,7 @@
         <v>392.09</v>
       </c>
       <c r="C74" t="n">
-        <v>395.88</v>
+        <v>395.72</v>
       </c>
       <c r="D74" t="n">
         <v>390.82</v>
@@ -2898,7 +2898,7 @@
         <v>388.91</v>
       </c>
       <c r="C75" t="n">
-        <v>395.67</v>
+        <v>395.63</v>
       </c>
       <c r="D75" t="n">
         <v>390.89</v>
@@ -2931,7 +2931,7 @@
         <v>387.79</v>
       </c>
       <c r="C76" t="n">
-        <v>395.42</v>
+        <v>395.32</v>
       </c>
       <c r="D76" t="n">
         <v>391.25</v>
@@ -2964,7 +2964,7 @@
         <v>387.79</v>
       </c>
       <c r="C77" t="n">
-        <v>395.71</v>
+        <v>395.58</v>
       </c>
       <c r="D77" t="n">
         <v>391.32</v>
@@ -2997,7 +2997,7 @@
         <v>387.16</v>
       </c>
       <c r="C78" t="n">
-        <v>394.48</v>
+        <v>394.35</v>
       </c>
       <c r="D78" t="n">
         <v>390.29</v>
@@ -3030,7 +3030,7 @@
         <v>391.46</v>
       </c>
       <c r="C79" t="n">
-        <v>394.65</v>
+        <v>394.52</v>
       </c>
       <c r="D79" t="n">
         <v>390.57</v>
@@ -3063,7 +3063,7 @@
         <v>391.46</v>
       </c>
       <c r="C80" t="n">
-        <v>393.46</v>
+        <v>393.34</v>
       </c>
       <c r="D80" t="n">
         <v>390.57</v>
@@ -3096,7 +3096,7 @@
         <v>395.31</v>
       </c>
       <c r="C81" t="n">
-        <v>392.7</v>
+        <v>392.58</v>
       </c>
       <c r="D81" t="n">
         <v>390.29</v>
@@ -3129,7 +3129,7 @@
         <v>398.11</v>
       </c>
       <c r="C82" t="n">
-        <v>392.7</v>
+        <v>392.58</v>
       </c>
       <c r="D82" t="n">
         <v>390.29</v>
@@ -3162,7 +3162,7 @@
         <v>401.62</v>
       </c>
       <c r="C83" t="n">
-        <v>392.86</v>
+        <v>392.71</v>
       </c>
       <c r="D83" t="n">
         <v>390.39</v>
@@ -3195,7 +3195,7 @@
         <v>402.66</v>
       </c>
       <c r="C84" t="n">
-        <v>392.11</v>
+        <v>392.02</v>
       </c>
       <c r="D84" t="n">
         <v>389.27</v>
@@ -3228,7 +3228,7 @@
         <v>401.52</v>
       </c>
       <c r="C85" t="n">
-        <v>390.62</v>
+        <v>390.5</v>
       </c>
       <c r="D85" t="n">
         <v>387.77</v>
@@ -3261,7 +3261,7 @@
         <v>404.93</v>
       </c>
       <c r="C86" t="n">
-        <v>388.75</v>
+        <v>388.62</v>
       </c>
       <c r="D86" t="n">
         <v>387.43</v>
@@ -3294,7 +3294,7 @@
         <v>412.09</v>
       </c>
       <c r="C87" t="n">
-        <v>387.3</v>
+        <v>387.14</v>
       </c>
       <c r="D87" t="n">
         <v>387.55</v>
@@ -3327,7 +3327,7 @@
         <v>410.58</v>
       </c>
       <c r="C88" t="n">
-        <v>388.79</v>
+        <v>388.6</v>
       </c>
       <c r="D88" t="n">
         <v>388.65</v>
@@ -3360,7 +3360,7 @@
         <v>414.85</v>
       </c>
       <c r="C89" t="n">
-        <v>391.71</v>
+        <v>391.56</v>
       </c>
       <c r="D89" t="n">
         <v>390.47</v>
@@ -3393,7 +3393,7 @@
         <v>413.48</v>
       </c>
       <c r="C90" t="n">
-        <v>392.03</v>
+        <v>391.81</v>
       </c>
       <c r="D90" t="n">
         <v>390.87</v>
@@ -3426,7 +3426,7 @@
         <v>421.76</v>
       </c>
       <c r="C91" t="n">
-        <v>393.17</v>
+        <v>393.03</v>
       </c>
       <c r="D91" t="n">
         <v>391.73</v>
@@ -3459,7 +3459,7 @@
         <v>422.67</v>
       </c>
       <c r="C92" t="n">
-        <v>393.41</v>
+        <v>393.28</v>
       </c>
       <c r="D92" t="n">
         <v>391.9</v>
@@ -3492,7 +3492,7 @@
         <v>420.62</v>
       </c>
       <c r="C93" t="n">
-        <v>399.29</v>
+        <v>399.14</v>
       </c>
       <c r="D93" t="n">
         <v>394.43</v>
@@ -3525,7 +3525,7 @@
         <v>415.49</v>
       </c>
       <c r="C94" t="n">
-        <v>397.13</v>
+        <v>396.97</v>
       </c>
       <c r="D94" t="n">
         <v>392.88</v>
@@ -3558,7 +3558,7 @@
         <v>404.13</v>
       </c>
       <c r="C95" t="n">
-        <v>396.73</v>
+        <v>396.62</v>
       </c>
       <c r="D95" t="n">
         <v>392.14</v>
@@ -3591,7 +3591,7 @@
         <v>403.47</v>
       </c>
       <c r="C96" t="n">
-        <v>398.39</v>
+        <v>398.27</v>
       </c>
       <c r="D96" t="n">
         <v>392.96</v>
@@ -3624,7 +3624,7 @@
         <v>399.56</v>
       </c>
       <c r="C97" t="n">
-        <v>398.39</v>
+        <v>398.27</v>
       </c>
       <c r="D97" t="n">
         <v>392.96</v>
@@ -3657,7 +3657,7 @@
         <v>399.56</v>
       </c>
       <c r="C98" t="n">
-        <v>397.21</v>
+        <v>397.11</v>
       </c>
       <c r="D98" t="n">
         <v>391.92</v>
@@ -3690,7 +3690,7 @@
         <v>397.25</v>
       </c>
       <c r="C99" t="n">
-        <v>397.21</v>
+        <v>397.11</v>
       </c>
       <c r="D99" t="n">
         <v>391.06</v>
@@ -3723,7 +3723,7 @@
         <v>397.25</v>
       </c>
       <c r="C100" t="n">
-        <v>397.08</v>
+        <v>396.97</v>
       </c>
       <c r="D100" t="n">
         <v>391.19</v>
@@ -3756,7 +3756,7 @@
         <v>391.84</v>
       </c>
       <c r="C101" t="n">
-        <v>395.99</v>
+        <v>395.91</v>
       </c>
       <c r="D101" t="n">
         <v>389.53</v>
@@ -3789,7 +3789,7 @@
         <v>390.24</v>
       </c>
       <c r="C102" t="n">
-        <v>395.66</v>
+        <v>395.57</v>
       </c>
       <c r="D102" t="n">
         <v>389.1</v>
@@ -3822,7 +3822,7 @@
         <v>388.82</v>
       </c>
       <c r="C103" t="n">
-        <v>394.38</v>
+        <v>394.29</v>
       </c>
       <c r="D103" t="n">
         <v>388.6</v>
@@ -3855,7 +3855,7 @@
         <v>387.08</v>
       </c>
       <c r="C104" t="n">
-        <v>392.75</v>
+        <v>392.7</v>
       </c>
       <c r="D104" t="n">
         <v>387.09</v>
@@ -3888,7 +3888,7 @@
         <v>385.8</v>
       </c>
       <c r="C105" t="n">
-        <v>391.63</v>
+        <v>391.56</v>
       </c>
       <c r="D105" t="n">
         <v>385.79</v>
@@ -3921,7 +3921,7 @@
         <v>384.42</v>
       </c>
       <c r="C106" t="n">
-        <v>390.86</v>
+        <v>390.8</v>
       </c>
       <c r="D106" t="n">
         <v>385.35</v>
@@ -3954,7 +3954,7 @@
         <v>383.71</v>
       </c>
       <c r="C107" t="n">
-        <v>390.05</v>
+        <v>389.95</v>
       </c>
       <c r="D107" t="n">
         <v>384.64</v>
@@ -3987,7 +3987,7 @@
         <v>388.14</v>
       </c>
       <c r="C108" t="n">
-        <v>390.93</v>
+        <v>390.84</v>
       </c>
       <c r="D108" t="n">
         <v>384.79</v>
@@ -4020,7 +4020,7 @@
         <v>391.27</v>
       </c>
       <c r="C109" t="n">
-        <v>391.46</v>
+        <v>391.4</v>
       </c>
       <c r="D109" t="n">
         <v>385.19</v>
@@ -4053,7 +4053,7 @@
         <v>391.3</v>
       </c>
       <c r="C110" t="n">
-        <v>391.3</v>
+        <v>391.23</v>
       </c>
       <c r="D110" t="n">
         <v>385.6</v>
@@ -4086,7 +4086,7 @@
         <v>391.62</v>
       </c>
       <c r="C111" t="n">
-        <v>391.99</v>
+        <v>391.94</v>
       </c>
       <c r="D111" t="n">
         <v>386.08</v>
@@ -4119,7 +4119,7 @@
         <v>393.72</v>
       </c>
       <c r="C112" t="n">
-        <v>392.04</v>
+        <v>392.01</v>
       </c>
       <c r="D112" t="n">
         <v>386.67</v>
@@ -4152,7 +4152,7 @@
         <v>394.55</v>
       </c>
       <c r="C113" t="n">
-        <v>393.69</v>
+        <v>393.64</v>
       </c>
       <c r="D113" t="n">
         <v>387.66</v>
@@ -4185,7 +4185,7 @@
         <v>389.97</v>
       </c>
       <c r="C114" t="n">
-        <v>391.82</v>
+        <v>391.77</v>
       </c>
       <c r="D114" t="n">
         <v>386.86</v>
@@ -4218,7 +4218,7 @@
         <v>392.86</v>
       </c>
       <c r="C115" t="n">
-        <v>395.35</v>
+        <v>395.28</v>
       </c>
       <c r="D115" t="n">
         <v>388.41</v>
@@ -4251,7 +4251,7 @@
         <v>391.98</v>
       </c>
       <c r="C116" t="n">
-        <v>394.22</v>
+        <v>394.2</v>
       </c>
       <c r="D116" t="n">
         <v>389.33</v>
@@ -4317,7 +4317,7 @@
         <v>379.66</v>
       </c>
       <c r="C118" t="n">
-        <v>393.87</v>
+        <v>393.93</v>
       </c>
       <c r="D118" t="n">
         <v>390.05</v>
@@ -4350,7 +4350,7 @@
         <v>382.98</v>
       </c>
       <c r="C119" t="n">
-        <v>394.9</v>
+        <v>394.96</v>
       </c>
       <c r="D119" t="n">
         <v>391.04</v>
@@ -4383,7 +4383,7 @@
         <v>381.24</v>
       </c>
       <c r="C120" t="n">
-        <v>393.47</v>
+        <v>393.49</v>
       </c>
       <c r="D120" t="n">
         <v>390.43</v>
@@ -4416,7 +4416,7 @@
         <v>381.24</v>
       </c>
       <c r="C121" t="n">
-        <v>393.47</v>
+        <v>393.49</v>
       </c>
       <c r="D121" t="n">
         <v>390.52</v>
@@ -4449,7 +4449,7 @@
         <v>382.91</v>
       </c>
       <c r="C122" t="n">
-        <v>395.17</v>
+        <v>395.22</v>
       </c>
       <c r="D122" t="n">
         <v>391.85</v>
@@ -4482,7 +4482,7 @@
         <v>388.88</v>
       </c>
       <c r="C123" t="n">
-        <v>398.69</v>
+        <v>398.79</v>
       </c>
       <c r="D123" t="n">
         <v>394.48</v>
@@ -4515,7 +4515,7 @@
         <v>396.05</v>
       </c>
       <c r="C124" t="n">
-        <v>398.75</v>
+        <v>398.91</v>
       </c>
       <c r="D124" t="n">
         <v>395.66</v>
@@ -4548,7 +4548,7 @@
         <v>393.95</v>
       </c>
       <c r="C125" t="n">
-        <v>398.75</v>
+        <v>398.91</v>
       </c>
       <c r="D125" t="n">
         <v>396.43</v>
@@ -4581,7 +4581,7 @@
         <v>399.17</v>
       </c>
       <c r="C126" t="n">
-        <v>400.63</v>
+        <v>400.76</v>
       </c>
       <c r="D126" t="n">
         <v>397.28</v>
@@ -4614,7 +4614,7 @@
         <v>394.88</v>
       </c>
       <c r="C127" t="n">
-        <v>400.53</v>
+        <v>400.65</v>
       </c>
       <c r="D127" t="n">
         <v>395.06</v>
@@ -4647,7 +4647,7 @@
         <v>388.25</v>
       </c>
       <c r="C128" t="n">
-        <v>393.96</v>
+        <v>393.87</v>
       </c>
       <c r="D128" t="n">
         <v>390.71</v>
@@ -4680,7 +4680,7 @@
         <v>383.24</v>
       </c>
       <c r="C129" t="n">
-        <v>387.69</v>
+        <v>387.56</v>
       </c>
       <c r="D129" t="n">
         <v>385.81</v>
@@ -4713,7 +4713,7 @@
         <v>381.55</v>
       </c>
       <c r="C130" t="n">
-        <v>386.04</v>
+        <v>385.88</v>
       </c>
       <c r="D130" t="n">
         <v>383.75</v>
@@ -4746,7 +4746,7 @@
         <v>373.06</v>
       </c>
       <c r="C131" t="n">
-        <v>383.87</v>
+        <v>383.65</v>
       </c>
       <c r="D131" t="n">
         <v>382.69</v>
@@ -4779,7 +4779,7 @@
         <v>368.33</v>
       </c>
       <c r="C132" t="n">
-        <v>382.48</v>
+        <v>382.22</v>
       </c>
       <c r="D132" t="n">
         <v>378.94</v>
@@ -4812,7 +4812,7 @@
         <v>365.35</v>
       </c>
       <c r="C133" t="n">
-        <v>380.98</v>
+        <v>380.7</v>
       </c>
       <c r="D133" t="n">
         <v>378.62</v>
@@ -4845,7 +4845,7 @@
         <v>367.07</v>
       </c>
       <c r="C134" t="n">
-        <v>377.11</v>
+        <v>376.8</v>
       </c>
       <c r="D134" t="n">
         <v>376.63</v>
@@ -4878,7 +4878,7 @@
         <v>362.46</v>
       </c>
       <c r="C135" t="n">
-        <v>376.98</v>
+        <v>376.67</v>
       </c>
       <c r="D135" t="n">
         <v>376.19</v>
@@ -4911,7 +4911,7 @@
         <v>369.97</v>
       </c>
       <c r="C136" t="n">
-        <v>376.98</v>
+        <v>376.67</v>
       </c>
       <c r="D136" t="n">
         <v>377.35</v>
@@ -4944,7 +4944,7 @@
         <v>384.1</v>
       </c>
       <c r="C137" t="n">
-        <v>381.63</v>
+        <v>381.51</v>
       </c>
       <c r="D137" t="n">
         <v>379.9</v>
@@ -4977,7 +4977,7 @@
         <v>381.4</v>
       </c>
       <c r="C138" t="n">
-        <v>379.79</v>
+        <v>379.81</v>
       </c>
       <c r="D138" t="n">
         <v>378.9</v>
@@ -5010,7 +5010,7 @@
         <v>377.93</v>
       </c>
       <c r="C139" t="n">
-        <v>376.63</v>
+        <v>376.54</v>
       </c>
       <c r="D139" t="n">
         <v>376.93</v>
@@ -5043,7 +5043,7 @@
         <v>376.37</v>
       </c>
       <c r="C140" t="n">
-        <v>376.22</v>
+        <v>376.23</v>
       </c>
       <c r="D140" t="n">
         <v>377.1</v>
@@ -5076,7 +5076,7 @@
         <v>376.37</v>
       </c>
       <c r="C141" t="n">
-        <v>376.22</v>
+        <v>376.23</v>
       </c>
       <c r="D141" t="n">
         <v>377.38</v>
@@ -5109,7 +5109,7 @@
         <v>379.95</v>
       </c>
       <c r="C142" t="n">
-        <v>380.44</v>
+        <v>380.38</v>
       </c>
       <c r="D142" t="n">
         <v>379.5</v>
@@ -5142,7 +5142,7 @@
         <v>379.93</v>
       </c>
       <c r="C143" t="n">
-        <v>381.52</v>
+        <v>381.46</v>
       </c>
       <c r="D143" t="n">
         <v>379.44</v>
@@ -5175,7 +5175,7 @@
         <v>385.27</v>
       </c>
       <c r="C144" t="n">
-        <v>383.03</v>
+        <v>382.97</v>
       </c>
       <c r="D144" t="n">
         <v>380.36</v>
@@ -5208,7 +5208,7 @@
         <v>385.27</v>
       </c>
       <c r="C145" t="n">
-        <v>383.03</v>
+        <v>382.97</v>
       </c>
       <c r="D145" t="n">
         <v>380.36</v>
@@ -5274,7 +5274,7 @@
         <v>382.44</v>
       </c>
       <c r="C147" t="n">
-        <v>381.98</v>
+        <v>381.94</v>
       </c>
       <c r="D147" t="n">
         <v>383.3</v>
@@ -5307,7 +5307,7 @@
         <v>388.03</v>
       </c>
       <c r="C148" t="n">
-        <v>384.77</v>
+        <v>384.79</v>
       </c>
       <c r="D148" t="n">
         <v>386.01</v>
@@ -5340,7 +5340,7 @@
         <v>384.49</v>
       </c>
       <c r="C149" t="n">
-        <v>382.98</v>
+        <v>383.1</v>
       </c>
       <c r="D149" t="n">
         <v>383.38</v>
@@ -5373,7 +5373,7 @@
         <v>381.85</v>
       </c>
       <c r="C150" t="n">
-        <v>382.19</v>
+        <v>382.34</v>
       </c>
       <c r="D150" t="n">
         <v>380.63</v>
@@ -5406,7 +5406,7 @@
         <v>381.71</v>
       </c>
       <c r="C151" t="n">
-        <v>378.68</v>
+        <v>378.93</v>
       </c>
       <c r="D151" t="n">
         <v>379.01</v>
@@ -5439,7 +5439,7 @@
         <v>399.5</v>
       </c>
       <c r="C152" t="n">
-        <v>386.04</v>
+        <v>386.31</v>
       </c>
       <c r="D152" t="n">
         <v>377.04</v>
@@ -5472,7 +5472,7 @@
         <v>428.24</v>
       </c>
       <c r="C153" t="n">
-        <v>389.22</v>
+        <v>389.25</v>
       </c>
       <c r="D153" t="n">
         <v>388.87</v>
@@ -5538,7 +5538,7 @@
         <v>423.18</v>
       </c>
       <c r="C155" t="n">
-        <v>389.89</v>
+        <v>389.92</v>
       </c>
       <c r="D155" t="n">
         <v>384.33</v>
@@ -5571,7 +5571,7 @@
         <v>416.1</v>
       </c>
       <c r="C156" t="n">
-        <v>389.89</v>
+        <v>389.9</v>
       </c>
       <c r="D156" t="n">
         <v>385.08</v>
@@ -5604,7 +5604,7 @@
         <v>403.62</v>
       </c>
       <c r="C157" t="n">
-        <v>389.63</v>
+        <v>389.61</v>
       </c>
       <c r="D157" t="n">
         <v>381.24</v>
@@ -5637,7 +5637,7 @@
         <v>398.17</v>
       </c>
       <c r="C158" t="n">
-        <v>387.14</v>
+        <v>387.02</v>
       </c>
       <c r="D158" t="n">
         <v>380.78</v>
@@ -5670,7 +5670,7 @@
         <v>398.17</v>
       </c>
       <c r="C159" t="n">
-        <v>387.14</v>
+        <v>387.02</v>
       </c>
       <c r="D159" t="n">
         <v>380.78</v>
@@ -5703,7 +5703,7 @@
         <v>403.67</v>
       </c>
       <c r="C160" t="n">
-        <v>387.14</v>
+        <v>387.02</v>
       </c>
       <c r="D160" t="n">
         <v>381.18</v>
@@ -5736,7 +5736,7 @@
         <v>409.08</v>
       </c>
       <c r="C161" t="n">
-        <v>389.22</v>
+        <v>389.16</v>
       </c>
       <c r="D161" t="n">
         <v>381.18</v>
@@ -5769,7 +5769,7 @@
         <v>399.87</v>
       </c>
       <c r="C162" t="n">
-        <v>388.63</v>
+        <v>388.57</v>
       </c>
       <c r="D162" t="n">
         <v>378.99</v>
@@ -5802,7 +5802,7 @@
         <v>408.26</v>
       </c>
       <c r="C163" t="n">
-        <v>390.08</v>
+        <v>390.06</v>
       </c>
       <c r="D163" t="n">
         <v>379.85</v>
@@ -5835,7 +5835,7 @@
         <v>405.81</v>
       </c>
       <c r="C164" t="n">
-        <v>390.19</v>
+        <v>390.08</v>
       </c>
       <c r="D164" t="n">
         <v>381.16</v>
@@ -5868,7 +5868,7 @@
         <v>413.12</v>
       </c>
       <c r="C165" t="n">
-        <v>392.3</v>
+        <v>392.17</v>
       </c>
       <c r="D165" t="n">
         <v>382.54</v>
@@ -5901,7 +5901,7 @@
         <v>421.57</v>
       </c>
       <c r="C166" t="n">
-        <v>393.99</v>
+        <v>394</v>
       </c>
       <c r="D166" t="n">
         <v>383.35</v>
@@ -5934,7 +5934,7 @@
         <v>396.16</v>
       </c>
       <c r="C167" t="n">
-        <v>389.81</v>
+        <v>389.72</v>
       </c>
       <c r="D167" t="n">
         <v>380.81</v>
@@ -5967,7 +5967,7 @@
         <v>393.23</v>
       </c>
       <c r="C168" t="n">
-        <v>389.69</v>
+        <v>389.61</v>
       </c>
       <c r="D168" t="n">
         <v>384.1</v>
@@ -6000,7 +6000,7 @@
         <v>390.58</v>
       </c>
       <c r="C169" t="n">
-        <v>389.06</v>
+        <v>389.02</v>
       </c>
       <c r="D169" t="n">
         <v>382.74</v>
@@ -6066,7 +6066,7 @@
         <v>383.17</v>
       </c>
       <c r="C171" t="n">
-        <v>388.91</v>
+        <v>388.9</v>
       </c>
       <c r="D171" t="n">
         <v>381.97</v>
@@ -6099,7 +6099,7 @@
         <v>382.64</v>
       </c>
       <c r="C172" t="n">
-        <v>389.21</v>
+        <v>389.15</v>
       </c>
       <c r="D172" t="n">
         <v>382.55</v>
@@ -6132,7 +6132,7 @@
         <v>377.61</v>
       </c>
       <c r="C173" t="n">
-        <v>387.39</v>
+        <v>387.41</v>
       </c>
       <c r="D173" t="n">
         <v>380.69</v>
@@ -6165,7 +6165,7 @@
         <v>377.61</v>
       </c>
       <c r="C174" t="n">
-        <v>387.97</v>
+        <v>387.9</v>
       </c>
       <c r="D174" t="n">
         <v>381.24</v>
@@ -6198,7 +6198,7 @@
         <v>377.61</v>
       </c>
       <c r="C175" t="n">
-        <v>386.6</v>
+        <v>386.59</v>
       </c>
       <c r="D175" t="n">
         <v>381.24</v>
@@ -6231,7 +6231,7 @@
         <v>377.61</v>
       </c>
       <c r="C176" t="n">
-        <v>385.17</v>
+        <v>385.18</v>
       </c>
       <c r="D176" t="n">
         <v>382.94</v>
@@ -6264,7 +6264,7 @@
         <v>376.23</v>
       </c>
       <c r="C177" t="n">
-        <v>383.8</v>
+        <v>383.78</v>
       </c>
       <c r="D177" t="n">
         <v>382.2</v>
@@ -6297,7 +6297,7 @@
         <v>376.23</v>
       </c>
       <c r="C178" t="n">
-        <v>383.82</v>
+        <v>383.78</v>
       </c>
       <c r="D178" t="n">
         <v>382.91</v>
@@ -6363,7 +6363,7 @@
         <v>376.97</v>
       </c>
       <c r="C180" t="n">
-        <v>382.91</v>
+        <v>382.89</v>
       </c>
       <c r="D180" t="n">
         <v>382.53</v>
@@ -6396,7 +6396,7 @@
         <v>377.73</v>
       </c>
       <c r="C181" t="n">
-        <v>382.8</v>
+        <v>382.77</v>
       </c>
       <c r="D181" t="n">
         <v>382.72</v>
@@ -6429,7 +6429,7 @@
         <v>374.73</v>
       </c>
       <c r="C182" t="n">
-        <v>379.16</v>
+        <v>379.13</v>
       </c>
       <c r="D182" t="n">
         <v>383.31</v>
@@ -6462,7 +6462,7 @@
         <v>375.58</v>
       </c>
       <c r="C183" t="n">
-        <v>377.84</v>
+        <v>377.86</v>
       </c>
       <c r="D183" t="n">
         <v>383.34</v>
@@ -6495,7 +6495,7 @@
         <v>375.58</v>
       </c>
       <c r="C184" t="n">
-        <v>377.96</v>
+        <v>377.93</v>
       </c>
       <c r="D184" t="n">
         <v>383.34</v>
@@ -6528,7 +6528,7 @@
         <v>374.12</v>
       </c>
       <c r="C185" t="n">
-        <v>378.99</v>
+        <v>378.84</v>
       </c>
       <c r="D185" t="n">
         <v>380.37</v>
@@ -6561,7 +6561,7 @@
         <v>372.89</v>
       </c>
       <c r="C186" t="n">
-        <v>383.69</v>
+        <v>383.57</v>
       </c>
       <c r="D186" t="n">
         <v>380.52</v>
@@ -6594,7 +6594,7 @@
         <v>370.72</v>
       </c>
       <c r="C187" t="n">
-        <v>381.12</v>
+        <v>381.2</v>
       </c>
       <c r="D187" t="n">
         <v>377.02</v>
@@ -6627,7 +6627,7 @@
         <v>381.43</v>
       </c>
       <c r="C188" t="n">
-        <v>380.88</v>
+        <v>380.79</v>
       </c>
       <c r="D188" t="n">
         <v>376.86</v>
@@ -6660,7 +6660,7 @@
         <v>371.56</v>
       </c>
       <c r="C189" t="n">
-        <v>376.25</v>
+        <v>376.05</v>
       </c>
       <c r="D189" t="n">
         <v>372.28</v>
@@ -6693,7 +6693,7 @@
         <v>371.56</v>
       </c>
       <c r="C190" t="n">
-        <v>379.29</v>
+        <v>379.26</v>
       </c>
       <c r="D190" t="n">
         <v>377.67</v>
@@ -6726,7 +6726,7 @@
         <v>374.52</v>
       </c>
       <c r="C191" t="n">
-        <v>380.67</v>
+        <v>380.59</v>
       </c>
       <c r="D191" t="n">
         <v>379.75</v>
@@ -6759,7 +6759,7 @@
         <v>390.98</v>
       </c>
       <c r="C192" t="n">
-        <v>382.24</v>
+        <v>382.16</v>
       </c>
       <c r="D192" t="n">
         <v>382.1</v>
@@ -6858,7 +6858,7 @@
         <v>407.61</v>
       </c>
       <c r="C195" t="n">
-        <v>384.76</v>
+        <v>384.78</v>
       </c>
       <c r="D195" t="n">
         <v>384.98</v>
@@ -6891,7 +6891,7 @@
         <v>410.09</v>
       </c>
       <c r="C196" t="n">
-        <v>385.77</v>
+        <v>385.84</v>
       </c>
       <c r="D196" t="n">
         <v>385.88</v>
@@ -6924,7 +6924,7 @@
         <v>405.03</v>
       </c>
       <c r="C197" t="n">
-        <v>386.01</v>
+        <v>386.04</v>
       </c>
       <c r="D197" t="n">
         <v>385.46</v>
@@ -6957,7 +6957,7 @@
         <v>401.89</v>
       </c>
       <c r="C198" t="n">
-        <v>386.01</v>
+        <v>386.04</v>
       </c>
       <c r="D198" t="n">
         <v>384.55</v>
@@ -6990,7 +6990,7 @@
         <v>398.71</v>
       </c>
       <c r="C199" t="n">
-        <v>386.01</v>
+        <v>386.04</v>
       </c>
       <c r="D199" t="n">
         <v>384.93</v>
@@ -7023,7 +7023,7 @@
         <v>396.64</v>
       </c>
       <c r="C200" t="n">
-        <v>386.91</v>
+        <v>386.93</v>
       </c>
       <c r="D200" t="n">
         <v>385.79</v>
@@ -7122,7 +7122,7 @@
         <v>398.98</v>
       </c>
       <c r="C203" t="n">
-        <v>388.48</v>
+        <v>388.52</v>
       </c>
       <c r="D203" t="n">
         <v>387.03</v>
@@ -7155,7 +7155,7 @@
         <v>398.98</v>
       </c>
       <c r="C204" t="n">
-        <v>387.93</v>
+        <v>387.92</v>
       </c>
       <c r="D204" t="n">
         <v>387.03</v>
@@ -7188,7 +7188,7 @@
         <v>398.98</v>
       </c>
       <c r="C205" t="n">
-        <v>386.87</v>
+        <v>386.84</v>
       </c>
       <c r="D205" t="n">
         <v>387.37</v>
@@ -7221,7 +7221,7 @@
         <v>400.83</v>
       </c>
       <c r="C206" t="n">
-        <v>387.73</v>
+        <v>387.7</v>
       </c>
       <c r="D206" t="n">
         <v>387.51</v>
@@ -7254,7 +7254,7 @@
         <v>394.36</v>
       </c>
       <c r="C207" t="n">
-        <v>387.39</v>
+        <v>387.36</v>
       </c>
       <c r="D207" t="n">
         <v>386</v>
@@ -7287,7 +7287,7 @@
         <v>397.02</v>
       </c>
       <c r="C208" t="n">
-        <v>387.54</v>
+        <v>387.55</v>
       </c>
       <c r="D208" t="n">
         <v>386.24</v>
@@ -7320,7 +7320,7 @@
         <v>396.18</v>
       </c>
       <c r="C209" t="n">
-        <v>386.74</v>
+        <v>386.73</v>
       </c>
       <c r="D209" t="n">
         <v>385.73</v>
@@ -7353,7 +7353,7 @@
         <v>391</v>
       </c>
       <c r="C210" t="n">
-        <v>387.56</v>
+        <v>387.49</v>
       </c>
       <c r="D210" t="n">
         <v>386.21</v>
@@ -7386,7 +7386,7 @@
         <v>397.81</v>
       </c>
       <c r="C211" t="n">
-        <v>387.11</v>
+        <v>387.02</v>
       </c>
       <c r="D211" t="n">
         <v>385.72</v>
@@ -7419,7 +7419,7 @@
         <v>401.94</v>
       </c>
       <c r="C212" t="n">
-        <v>388.93</v>
+        <v>388.84</v>
       </c>
       <c r="D212" t="n">
         <v>387.54</v>
@@ -7452,7 +7452,7 @@
         <v>399.06</v>
       </c>
       <c r="C213" t="n">
-        <v>388.99</v>
+        <v>388.86</v>
       </c>
       <c r="D213" t="n">
         <v>387.87</v>
@@ -7485,7 +7485,7 @@
         <v>402.55</v>
       </c>
       <c r="C214" t="n">
-        <v>388.92</v>
+        <v>388.82</v>
       </c>
       <c r="D214" t="n">
         <v>388.18</v>
@@ -7518,7 +7518,7 @@
         <v>404</v>
       </c>
       <c r="C215" t="n">
-        <v>388.85</v>
+        <v>388.78</v>
       </c>
       <c r="D215" t="n">
         <v>388.48</v>
@@ -7551,7 +7551,7 @@
         <v>405.41</v>
       </c>
       <c r="C216" t="n">
-        <v>391.53</v>
+        <v>391.51</v>
       </c>
       <c r="D216" t="n">
         <v>388.73</v>
@@ -7584,7 +7584,7 @@
         <v>405.41</v>
       </c>
       <c r="C217" t="n">
-        <v>390.69</v>
+        <v>390.65</v>
       </c>
       <c r="D217" t="n">
         <v>387.67</v>
@@ -7617,7 +7617,7 @@
         <v>407.56</v>
       </c>
       <c r="C218" t="n">
-        <v>390.65</v>
+        <v>390.63</v>
       </c>
       <c r="D218" t="n">
         <v>387.39</v>
@@ -7716,7 +7716,7 @@
         <v>407.53</v>
       </c>
       <c r="C221" t="n">
-        <v>391.96</v>
+        <v>391.93</v>
       </c>
       <c r="D221" t="n">
         <v>389.78</v>
@@ -7749,7 +7749,7 @@
         <v>406.13</v>
       </c>
       <c r="C222" t="n">
-        <v>392.39</v>
+        <v>392.34</v>
       </c>
       <c r="D222" t="n">
         <v>390.32</v>
@@ -7782,7 +7782,7 @@
         <v>403.99</v>
       </c>
       <c r="C223" t="n">
-        <v>392.33</v>
+        <v>392.26</v>
       </c>
       <c r="D223" t="n">
         <v>389.76</v>
@@ -7815,7 +7815,7 @@
         <v>400.98</v>
       </c>
       <c r="C224" t="n">
-        <v>392.9</v>
+        <v>392.82</v>
       </c>
       <c r="D224" t="n">
         <v>389.81</v>
@@ -7848,7 +7848,7 @@
         <v>400.09</v>
       </c>
       <c r="C225" t="n">
-        <v>390.68</v>
+        <v>390.61</v>
       </c>
       <c r="D225" t="n">
         <v>388.91</v>
@@ -7881,7 +7881,7 @@
         <v>400.09</v>
       </c>
       <c r="C226" t="n">
-        <v>390.11</v>
+        <v>390.04</v>
       </c>
       <c r="D226" t="n">
         <v>388.97</v>
@@ -7914,7 +7914,7 @@
         <v>393</v>
       </c>
       <c r="C227" t="n">
-        <v>389.97</v>
+        <v>389.89</v>
       </c>
       <c r="D227" t="n">
         <v>389.16</v>
@@ -7947,7 +7947,7 @@
         <v>390.88</v>
       </c>
       <c r="C228" t="n">
-        <v>389.56</v>
+        <v>389.44</v>
       </c>
       <c r="D228" t="n">
         <v>390.08</v>
@@ -7980,7 +7980,7 @@
         <v>392.12</v>
       </c>
       <c r="C229" t="n">
-        <v>389.13</v>
+        <v>388.99</v>
       </c>
       <c r="D229" t="n">
         <v>389.66</v>
@@ -8013,7 +8013,7 @@
         <v>409.69</v>
       </c>
       <c r="C230" t="n">
-        <v>386.42</v>
+        <v>386.35</v>
       </c>
       <c r="D230" t="n">
         <v>387.81</v>
@@ -8046,7 +8046,7 @@
         <v>414.22</v>
       </c>
       <c r="C231" t="n">
-        <v>387.2</v>
+        <v>387.17</v>
       </c>
       <c r="D231" t="n">
         <v>387.96</v>
@@ -8079,7 +8079,7 @@
         <v>414.22</v>
       </c>
       <c r="C232" t="n">
-        <v>383.89</v>
+        <v>383.92</v>
       </c>
       <c r="D232" t="n">
         <v>382.98</v>
@@ -8112,7 +8112,7 @@
         <v>417.93</v>
       </c>
       <c r="C233" t="n">
-        <v>385.97</v>
+        <v>386.03</v>
       </c>
       <c r="D233" t="n">
         <v>383.62</v>
@@ -8145,7 +8145,7 @@
         <v>422.74</v>
       </c>
       <c r="C234" t="n">
-        <v>387.03</v>
+        <v>387.12</v>
       </c>
       <c r="D234" t="n">
         <v>384.82</v>
@@ -8178,7 +8178,7 @@
         <v>436.14</v>
       </c>
       <c r="C235" t="n">
-        <v>388.67</v>
+        <v>388.73</v>
       </c>
       <c r="D235" t="n">
         <v>383.93</v>
@@ -8211,7 +8211,7 @@
         <v>433.78</v>
       </c>
       <c r="C236" t="n">
-        <v>387.19</v>
+        <v>387.27</v>
       </c>
       <c r="D236" t="n">
         <v>381.39</v>
@@ -8244,7 +8244,7 @@
         <v>424.08</v>
       </c>
       <c r="C237" t="n">
-        <v>387.91</v>
+        <v>387.96</v>
       </c>
       <c r="D237" t="n">
         <v>382.36</v>
@@ -8277,7 +8277,7 @@
         <v>416.31</v>
       </c>
       <c r="C238" t="n">
-        <v>387.48</v>
+        <v>387.52</v>
       </c>
       <c r="D238" t="n">
         <v>381.94</v>
@@ -8310,7 +8310,7 @@
         <v>411.03</v>
       </c>
       <c r="C239" t="n">
-        <v>387.39</v>
+        <v>387.4</v>
       </c>
       <c r="D239" t="n">
         <v>381.9</v>
@@ -8343,7 +8343,7 @@
         <v>409.92</v>
       </c>
       <c r="C240" t="n">
-        <v>389.46</v>
+        <v>389.51</v>
       </c>
       <c r="D240" t="n">
         <v>383.5</v>
@@ -8376,7 +8376,7 @@
         <v>407.69</v>
       </c>
       <c r="C241" t="n">
-        <v>389.75</v>
+        <v>389.77</v>
       </c>
       <c r="D241" t="n">
         <v>383.59</v>
@@ -8409,7 +8409,7 @@
         <v>406.7</v>
       </c>
       <c r="C242" t="n">
-        <v>390.83</v>
+        <v>390.9</v>
       </c>
       <c r="D242" t="n">
         <v>384.24</v>
@@ -8442,7 +8442,7 @@
         <v>404.92</v>
       </c>
       <c r="C243" t="n">
-        <v>390.98</v>
+        <v>391.05</v>
       </c>
       <c r="D243" t="n">
         <v>384.41</v>
@@ -8475,7 +8475,7 @@
         <v>394.15</v>
       </c>
       <c r="C244" t="n">
-        <v>394.03</v>
+        <v>394.09</v>
       </c>
       <c r="D244" t="n">
         <v>386.74</v>
@@ -8508,7 +8508,7 @@
         <v>393.33</v>
       </c>
       <c r="C245" t="n">
-        <v>398.96</v>
+        <v>399.02</v>
       </c>
       <c r="D245" t="n">
         <v>391.15</v>
@@ -8541,7 +8541,7 @@
         <v>396.85</v>
       </c>
       <c r="C246" t="n">
-        <v>401.19</v>
+        <v>401.21</v>
       </c>
       <c r="D246" t="n">
         <v>393.49</v>
@@ -8574,7 +8574,7 @@
         <v>401.61</v>
       </c>
       <c r="C247" t="n">
-        <v>401.58</v>
+        <v>401.65</v>
       </c>
       <c r="D247" t="n">
         <v>393.54</v>
@@ -8640,7 +8640,7 @@
         <v>401.07</v>
       </c>
       <c r="C249" t="n">
-        <v>399.62</v>
+        <v>399.64</v>
       </c>
       <c r="D249" t="n">
         <v>391.69</v>
@@ -8673,7 +8673,7 @@
         <v>404.85</v>
       </c>
       <c r="C250" t="n">
-        <v>398.51</v>
+        <v>398.47</v>
       </c>
       <c r="D250" t="n">
         <v>391.08</v>
@@ -8706,7 +8706,7 @@
         <v>412.34</v>
       </c>
       <c r="C251" t="n">
-        <v>398.03</v>
+        <v>397.96</v>
       </c>
       <c r="D251" t="n">
         <v>391.16</v>
@@ -8739,7 +8739,7 @@
         <v>412.34</v>
       </c>
       <c r="C252" t="n">
-        <v>398.03</v>
+        <v>397.96</v>
       </c>
       <c r="D252" t="n">
         <v>391.16</v>
@@ -8772,7 +8772,7 @@
         <v>412.2</v>
       </c>
       <c r="C253" t="n">
-        <v>396.59</v>
+        <v>396.56</v>
       </c>
       <c r="D253" t="n">
         <v>390.54</v>
@@ -8805,7 +8805,7 @@
         <v>415.92</v>
       </c>
       <c r="C254" t="n">
-        <v>395.73</v>
+        <v>395.61</v>
       </c>
       <c r="D254" t="n">
         <v>390.03</v>
@@ -8838,7 +8838,7 @@
         <v>415.92</v>
       </c>
       <c r="C255" t="n">
-        <v>395.73</v>
+        <v>395.61</v>
       </c>
       <c r="D255" t="n">
         <v>390.03</v>
@@ -8871,7 +8871,7 @@
         <v>416.37</v>
       </c>
       <c r="C256" t="n">
-        <v>391.46</v>
+        <v>391.35</v>
       </c>
       <c r="D256" t="n">
         <v>387</v>
@@ -8904,7 +8904,7 @@
         <v>420.5</v>
       </c>
       <c r="C257" t="n">
-        <v>391.37</v>
+        <v>391.32</v>
       </c>
       <c r="D257" t="n">
         <v>388.2</v>
@@ -8937,7 +8937,7 @@
         <v>424.15</v>
       </c>
       <c r="C258" t="n">
-        <v>388.67</v>
+        <v>388.74</v>
       </c>
       <c r="D258" t="n">
         <v>388.83</v>
@@ -8970,7 +8970,7 @@
         <v>424.15</v>
       </c>
       <c r="C259" t="n">
-        <v>388.67</v>
+        <v>388.74</v>
       </c>
       <c r="D259" t="n">
         <v>388.83</v>
@@ -9003,7 +9003,7 @@
         <v>424.2</v>
       </c>
       <c r="C260" t="n">
-        <v>389.01</v>
+        <v>389.1</v>
       </c>
       <c r="D260" t="n">
         <v>388.7</v>
@@ -9036,7 +9036,7 @@
         <v>424.39</v>
       </c>
       <c r="C261" t="n">
-        <v>389.62</v>
+        <v>389.79</v>
       </c>
       <c r="D261" t="n">
         <v>389.84</v>
@@ -9069,7 +9069,7 @@
         <v>425.75</v>
       </c>
       <c r="C262" t="n">
-        <v>390.62</v>
+        <v>390.79</v>
       </c>
       <c r="D262" t="n">
         <v>390.3</v>
@@ -9102,7 +9102,7 @@
         <v>425.75</v>
       </c>
       <c r="C263" t="n">
-        <v>390.62</v>
+        <v>390.79</v>
       </c>
       <c r="D263" t="n">
         <v>390.25</v>
@@ -9135,7 +9135,7 @@
         <v>421.32</v>
       </c>
       <c r="C264" t="n">
-        <v>391.62</v>
+        <v>391.76</v>
       </c>
       <c r="D264" t="n">
         <v>390.84</v>
@@ -9168,7 +9168,7 @@
         <v>422.96</v>
       </c>
       <c r="C265" t="n">
-        <v>392.39</v>
+        <v>392.5</v>
       </c>
       <c r="D265" t="n">
         <v>391.1</v>
@@ -9201,7 +9201,7 @@
         <v>418.33</v>
       </c>
       <c r="C266" t="n">
-        <v>394.3</v>
+        <v>394.4</v>
       </c>
       <c r="D266" t="n">
         <v>391.93</v>
@@ -9234,7 +9234,7 @@
         <v>416.85</v>
       </c>
       <c r="C267" t="n">
-        <v>393.7</v>
+        <v>393.79</v>
       </c>
       <c r="D267" t="n">
         <v>390.66</v>
@@ -9267,7 +9267,7 @@
         <v>416.85</v>
       </c>
       <c r="C268" t="n">
-        <v>395.11</v>
+        <v>395.09</v>
       </c>
       <c r="D268" t="n">
         <v>391.23</v>
@@ -9300,7 +9300,7 @@
         <v>413.66</v>
       </c>
       <c r="C269" t="n">
-        <v>395.84</v>
+        <v>395.75</v>
       </c>
       <c r="D269" t="n">
         <v>391.96</v>
@@ -9333,7 +9333,7 @@
         <v>410.46</v>
       </c>
       <c r="C270" t="n">
-        <v>397.17</v>
+        <v>397.03</v>
       </c>
       <c r="D270" t="n">
         <v>392.63</v>
@@ -9366,7 +9366,7 @@
         <v>408.26</v>
       </c>
       <c r="C271" t="n">
-        <v>397.1</v>
+        <v>396.94</v>
       </c>
       <c r="D271" t="n">
         <v>392.26</v>
@@ -9399,7 +9399,7 @@
         <v>403.65</v>
       </c>
       <c r="C272" t="n">
-        <v>397.38</v>
+        <v>397.15</v>
       </c>
       <c r="D272" t="n">
         <v>392.38</v>
@@ -9432,7 +9432,7 @@
         <v>396.29</v>
       </c>
       <c r="C273" t="n">
-        <v>396.09</v>
+        <v>395.8</v>
       </c>
       <c r="D273" t="n">
         <v>392.94</v>
@@ -9465,7 +9465,7 @@
         <v>398.03</v>
       </c>
       <c r="C274" t="n">
-        <v>396.01</v>
+        <v>395.77</v>
       </c>
       <c r="D274" t="n">
         <v>393.21</v>
@@ -9498,7 +9498,7 @@
         <v>401.46</v>
       </c>
       <c r="C275" t="n">
-        <v>395.82</v>
+        <v>395.65</v>
       </c>
       <c r="D275" t="n">
         <v>393.21</v>
@@ -9531,7 +9531,7 @@
         <v>402.26</v>
       </c>
       <c r="C276" t="n">
-        <v>395.56</v>
+        <v>395.4</v>
       </c>
       <c r="D276" t="n">
         <v>393.96</v>
@@ -9564,7 +9564,7 @@
         <v>400.53</v>
       </c>
       <c r="C277" t="n">
-        <v>395.57</v>
+        <v>395.37</v>
       </c>
       <c r="D277" t="n">
         <v>393.48</v>
@@ -9597,7 +9597,7 @@
         <v>402.94</v>
       </c>
       <c r="C278" t="n">
-        <v>395.19</v>
+        <v>395.1</v>
       </c>
       <c r="D278" t="n">
         <v>392.8</v>
@@ -9630,7 +9630,7 @@
         <v>402.94</v>
       </c>
       <c r="C279" t="n">
-        <v>394.22</v>
+        <v>394.09</v>
       </c>
       <c r="D279" t="n">
         <v>392.13</v>
@@ -9663,7 +9663,7 @@
         <v>410.33</v>
       </c>
       <c r="C280" t="n">
-        <v>391.34</v>
+        <v>391.33</v>
       </c>
       <c r="D280" t="n">
         <v>391.24</v>
@@ -9696,7 +9696,7 @@
         <v>414.45</v>
       </c>
       <c r="C281" t="n">
-        <v>391.75</v>
+        <v>391.7</v>
       </c>
       <c r="D281" t="n">
         <v>391.51</v>
@@ -9729,7 +9729,7 @@
         <v>415.93</v>
       </c>
       <c r="C282" t="n">
-        <v>391.35</v>
+        <v>391.3</v>
       </c>
       <c r="D282" t="n">
         <v>391.05</v>
@@ -9762,7 +9762,7 @@
         <v>429.53</v>
       </c>
       <c r="C283" t="n">
-        <v>390.11</v>
+        <v>390.04</v>
       </c>
       <c r="D283" t="n">
         <v>388.07</v>
@@ -9795,7 +9795,7 @@
         <v>419.27</v>
       </c>
       <c r="C284" t="n">
-        <v>386.38</v>
+        <v>386.18</v>
       </c>
       <c r="D284" t="n">
         <v>385.79</v>
@@ -9828,7 +9828,7 @@
         <v>394.82</v>
       </c>
       <c r="C285" t="n">
-        <v>382.39</v>
+        <v>382.15</v>
       </c>
       <c r="D285" t="n">
         <v>382.87</v>
@@ -9861,7 +9861,7 @@
         <v>391.52</v>
       </c>
       <c r="C286" t="n">
-        <v>385.85</v>
+        <v>385.71</v>
       </c>
       <c r="D286" t="n">
         <v>387.38</v>
@@ -9894,7 +9894,7 @@
         <v>397.14</v>
       </c>
       <c r="C287" t="n">
-        <v>388.29</v>
+        <v>388.25</v>
       </c>
       <c r="D287" t="n">
         <v>391.44</v>
@@ -9927,7 +9927,7 @@
         <v>394.23</v>
       </c>
       <c r="C288" t="n">
-        <v>388.49</v>
+        <v>388.38</v>
       </c>
       <c r="D288" t="n">
         <v>391.59</v>
@@ -9960,7 +9960,7 @@
         <v>397.16</v>
       </c>
       <c r="C289" t="n">
-        <v>390.07</v>
+        <v>390.02</v>
       </c>
       <c r="D289" t="n">
         <v>392.44</v>
@@ -9993,7 +9993,7 @@
         <v>395.92</v>
       </c>
       <c r="C290" t="n">
-        <v>390.33</v>
+        <v>390.23</v>
       </c>
       <c r="D290" t="n">
         <v>392.48</v>
@@ -10026,7 +10026,7 @@
         <v>396.93</v>
       </c>
       <c r="C291" t="n">
-        <v>393.11</v>
+        <v>393.06</v>
       </c>
       <c r="D291" t="n">
         <v>393.83</v>
@@ -10059,7 +10059,7 @@
         <v>392.04</v>
       </c>
       <c r="C292" t="n">
-        <v>392.64</v>
+        <v>392.62</v>
       </c>
       <c r="D292" t="n">
         <v>394.4</v>
@@ -10092,7 +10092,7 @@
         <v>388.46</v>
       </c>
       <c r="C293" t="n">
-        <v>392.64</v>
+        <v>392.62</v>
       </c>
       <c r="D293" t="n">
         <v>391.85</v>
@@ -10125,7 +10125,7 @@
         <v>392.9</v>
       </c>
       <c r="C294" t="n">
-        <v>392.31</v>
+        <v>392.26</v>
       </c>
       <c r="D294" t="n">
         <v>392</v>
@@ -10158,7 +10158,7 @@
         <v>397.44</v>
       </c>
       <c r="C295" t="n">
-        <v>393.97</v>
+        <v>394.02</v>
       </c>
       <c r="D295" t="n">
         <v>393.33</v>
@@ -10191,7 +10191,7 @@
         <v>399.3</v>
       </c>
       <c r="C296" t="n">
-        <v>393.77</v>
+        <v>393.84</v>
       </c>
       <c r="D296" t="n">
         <v>392.61</v>
@@ -10224,7 +10224,7 @@
         <v>403.29</v>
       </c>
       <c r="C297" t="n">
-        <v>394.21</v>
+        <v>394.26</v>
       </c>
       <c r="D297" t="n">
         <v>392.67</v>
@@ -10257,7 +10257,7 @@
         <v>406.26</v>
       </c>
       <c r="C298" t="n">
-        <v>395.36</v>
+        <v>395.44</v>
       </c>
       <c r="D298" t="n">
         <v>391</v>
@@ -10290,7 +10290,7 @@
         <v>407.58</v>
       </c>
       <c r="C299" t="n">
-        <v>395.21</v>
+        <v>395.35</v>
       </c>
       <c r="D299" t="n">
         <v>389.96</v>
@@ -10323,7 +10323,7 @@
         <v>405.86</v>
       </c>
       <c r="C300" t="n">
-        <v>393.03</v>
+        <v>393.07</v>
       </c>
       <c r="D300" t="n">
         <v>389.65</v>
@@ -10356,7 +10356,7 @@
         <v>419.76</v>
       </c>
       <c r="C301" t="n">
-        <v>395.06</v>
+        <v>395.05</v>
       </c>
       <c r="D301" t="n">
         <v>393.74</v>
@@ -10422,7 +10422,7 @@
         <v>417.37</v>
       </c>
       <c r="C303" t="n">
-        <v>394.69</v>
+        <v>394.66</v>
       </c>
       <c r="D303" t="n">
         <v>393.13</v>
@@ -10455,7 +10455,7 @@
         <v>415.02</v>
       </c>
       <c r="C304" t="n">
-        <v>395.75</v>
+        <v>395.74</v>
       </c>
       <c r="D304" t="n">
         <v>393.32</v>
@@ -10488,7 +10488,7 @@
         <v>415.25</v>
       </c>
       <c r="C305" t="n">
-        <v>395.96</v>
+        <v>395.97</v>
       </c>
       <c r="D305" t="n">
         <v>393.1</v>
@@ -10554,7 +10554,7 @@
         <v>411.02</v>
       </c>
       <c r="C307" t="n">
-        <v>398.47</v>
+        <v>398.5</v>
       </c>
       <c r="D307" t="n">
         <v>396.09</v>
@@ -10587,7 +10587,7 @@
         <v>410.81</v>
       </c>
       <c r="C308" t="n">
-        <v>398.89</v>
+        <v>398.91</v>
       </c>
       <c r="D308" t="n">
         <v>396.72</v>
@@ -10620,7 +10620,7 @@
         <v>409.28</v>
       </c>
       <c r="C309" t="n">
-        <v>399.43</v>
+        <v>399.41</v>
       </c>
       <c r="D309" t="n">
         <v>397.82</v>
@@ -10653,7 +10653,7 @@
         <v>408.8</v>
       </c>
       <c r="C310" t="n">
-        <v>400.67</v>
+        <v>400.68</v>
       </c>
       <c r="D310" t="n">
         <v>398.3</v>
@@ -10686,7 +10686,7 @@
         <v>407.41</v>
       </c>
       <c r="C311" t="n">
-        <v>401.12</v>
+        <v>401.09</v>
       </c>
       <c r="D311" t="n">
         <v>398.22</v>
@@ -10752,7 +10752,7 @@
         <v>403.82</v>
       </c>
       <c r="C313" t="n">
-        <v>401.94</v>
+        <v>401.99</v>
       </c>
       <c r="D313" t="n">
         <v>398.49</v>
@@ -10785,7 +10785,7 @@
         <v>403.82</v>
       </c>
       <c r="C314" t="n">
-        <v>400.37</v>
+        <v>400.4</v>
       </c>
       <c r="D314" t="n">
         <v>397.58</v>
@@ -10818,7 +10818,7 @@
         <v>401.95</v>
       </c>
       <c r="C315" t="n">
-        <v>399.41</v>
+        <v>399.45</v>
       </c>
       <c r="D315" t="n">
         <v>397.28</v>
@@ -10851,7 +10851,7 @@
         <v>399.46</v>
       </c>
       <c r="C316" t="n">
-        <v>398.18</v>
+        <v>398.22</v>
       </c>
       <c r="D316" t="n">
         <v>396.42</v>
@@ -10884,7 +10884,7 @@
         <v>397.26</v>
       </c>
       <c r="C317" t="n">
-        <v>398.56</v>
+        <v>398.59</v>
       </c>
       <c r="D317" t="n">
         <v>397.04</v>
@@ -10917,7 +10917,7 @@
         <v>398.32</v>
       </c>
       <c r="C318" t="n">
-        <v>398.15</v>
+        <v>398.17</v>
       </c>
       <c r="D318" t="n">
         <v>396.29</v>
@@ -10950,7 +10950,7 @@
         <v>402.34</v>
       </c>
       <c r="C319" t="n">
-        <v>397.02</v>
+        <v>397.08</v>
       </c>
       <c r="D319" t="n">
         <v>394.59</v>
@@ -10983,7 +10983,7 @@
         <v>402.16</v>
       </c>
       <c r="C320" t="n">
-        <v>398.18</v>
+        <v>398.28</v>
       </c>
       <c r="D320" t="n">
         <v>394.97</v>
@@ -11016,7 +11016,7 @@
         <v>404.38</v>
       </c>
       <c r="C321" t="n">
-        <v>396.1</v>
+        <v>396.27</v>
       </c>
       <c r="D321" t="n">
         <v>392.82</v>
@@ -11049,7 +11049,7 @@
         <v>402.38</v>
       </c>
       <c r="C322" t="n">
-        <v>396.69</v>
+        <v>396.86</v>
       </c>
       <c r="D322" t="n">
         <v>392.96</v>
@@ -11082,7 +11082,7 @@
         <v>401.85</v>
       </c>
       <c r="C323" t="n">
-        <v>397.43</v>
+        <v>397.55</v>
       </c>
       <c r="D323" t="n">
         <v>393.7</v>
@@ -11115,7 +11115,7 @@
         <v>408.19</v>
       </c>
       <c r="C324" t="n">
-        <v>403.9</v>
+        <v>404.05</v>
       </c>
       <c r="D324" t="n">
         <v>398.5</v>
@@ -11148,7 +11148,7 @@
         <v>407.72</v>
       </c>
       <c r="C325" t="n">
-        <v>404.6</v>
+        <v>404.72</v>
       </c>
       <c r="D325" t="n">
         <v>399.5</v>
@@ -11181,7 +11181,7 @@
         <v>407.98</v>
       </c>
       <c r="C326" t="n">
-        <v>405.54</v>
+        <v>405.67</v>
       </c>
       <c r="D326" t="n">
         <v>400.24</v>
@@ -11214,7 +11214,7 @@
         <v>407.11</v>
       </c>
       <c r="C327" t="n">
-        <v>405.73</v>
+        <v>405.82</v>
       </c>
       <c r="D327" t="n">
         <v>400.62</v>
@@ -11247,7 +11247,7 @@
         <v>403.11</v>
       </c>
       <c r="C328" t="n">
-        <v>406.82</v>
+        <v>406.88</v>
       </c>
       <c r="D328" t="n">
         <v>401.39</v>
@@ -11280,7 +11280,7 @@
         <v>402.87</v>
       </c>
       <c r="C329" t="n">
-        <v>406.79</v>
+        <v>406.87</v>
       </c>
       <c r="D329" t="n">
         <v>402.01</v>
@@ -11313,7 +11313,7 @@
         <v>404.84</v>
       </c>
       <c r="C330" t="n">
-        <v>408.52</v>
+        <v>408.59</v>
       </c>
       <c r="D330" t="n">
         <v>403.94</v>
@@ -11346,7 +11346,7 @@
         <v>402.83</v>
       </c>
       <c r="C331" t="n">
-        <v>409.17</v>
+        <v>409.24</v>
       </c>
       <c r="D331" t="n">
         <v>404.72</v>
@@ -11379,7 +11379,7 @@
         <v>404.54</v>
       </c>
       <c r="C332" t="n">
-        <v>409.17</v>
+        <v>409.24</v>
       </c>
       <c r="D332" t="n">
         <v>403.47</v>
@@ -11412,7 +11412,7 @@
         <v>402.09</v>
       </c>
       <c r="C333" t="n">
-        <v>408.77</v>
+        <v>408.75</v>
       </c>
       <c r="D333" t="n">
         <v>404.17</v>
@@ -11445,7 +11445,7 @@
         <v>405.42</v>
       </c>
       <c r="C334" t="n">
-        <v>411.96</v>
+        <v>411.97</v>
       </c>
       <c r="D334" t="n">
         <v>407.24</v>
@@ -11478,7 +11478,7 @@
         <v>409.53</v>
       </c>
       <c r="C335" t="n">
-        <v>411.96</v>
+        <v>411.97</v>
       </c>
       <c r="D335" t="n">
         <v>407.24</v>
@@ -11511,7 +11511,7 @@
         <v>411.68</v>
       </c>
       <c r="C336" t="n">
-        <v>411.35</v>
+        <v>411.34</v>
       </c>
       <c r="D336" t="n">
         <v>406.98</v>
@@ -11544,7 +11544,7 @@
         <v>412.77</v>
       </c>
       <c r="C337" t="n">
-        <v>412.87</v>
+        <v>412.89</v>
       </c>
       <c r="D337" t="n">
         <v>406.08</v>
@@ -11577,7 +11577,7 @@
         <v>411.04</v>
       </c>
       <c r="C338" t="n">
-        <v>412.84</v>
+        <v>412.85</v>
       </c>
       <c r="D338" t="n">
         <v>405.86</v>
@@ -11610,7 +11610,7 @@
         <v>407.61</v>
       </c>
       <c r="C339" t="n">
-        <v>409.97</v>
+        <v>409.99</v>
       </c>
       <c r="D339" t="n">
         <v>402.71</v>
@@ -11643,7 +11643,7 @@
         <v>407.61</v>
       </c>
       <c r="C340" t="n">
-        <v>409.97</v>
+        <v>409.99</v>
       </c>
       <c r="D340" t="n">
         <v>402.71</v>
@@ -11676,7 +11676,7 @@
         <v>408.63</v>
       </c>
       <c r="C341" t="n">
-        <v>407.06</v>
+        <v>407.08</v>
       </c>
       <c r="D341" t="n">
         <v>400.26</v>
@@ -11709,7 +11709,7 @@
         <v>412.77</v>
       </c>
       <c r="C342" t="n">
-        <v>407.69</v>
+        <v>407.74</v>
       </c>
       <c r="D342" t="n">
         <v>400.59</v>
@@ -11775,7 +11775,7 @@
         <v>409.12</v>
       </c>
       <c r="C344" t="n">
-        <v>405.31</v>
+        <v>405.28</v>
       </c>
       <c r="D344" t="n">
         <v>396.49</v>
@@ -11808,7 +11808,7 @@
         <v>402.95</v>
       </c>
       <c r="C345" t="n">
-        <v>402.95</v>
+        <v>402.89</v>
       </c>
       <c r="D345" t="n">
         <v>394.9</v>
@@ -11841,7 +11841,7 @@
         <v>400.64</v>
       </c>
       <c r="C346" t="n">
-        <v>402.26</v>
+        <v>402.19</v>
       </c>
       <c r="D346" t="n">
         <v>394.02</v>
@@ -11874,7 +11874,7 @@
         <v>400.58</v>
       </c>
       <c r="C347" t="n">
-        <v>402.03</v>
+        <v>401.86</v>
       </c>
       <c r="D347" t="n">
         <v>393.57</v>
@@ -11907,7 +11907,7 @@
         <v>397.07</v>
       </c>
       <c r="C348" t="n">
-        <v>397.66</v>
+        <v>397.46</v>
       </c>
       <c r="D348" t="n">
         <v>391.57</v>
@@ -11940,7 +11940,7 @@
         <v>402.64</v>
       </c>
       <c r="C349" t="n">
-        <v>400.48</v>
+        <v>400.23</v>
       </c>
       <c r="D349" t="n">
         <v>394.05</v>
@@ -11973,7 +11973,7 @@
         <v>403.06</v>
       </c>
       <c r="C350" t="n">
-        <v>401.97</v>
+        <v>401.76</v>
       </c>
       <c r="D350" t="n">
         <v>395.14</v>
@@ -12006,7 +12006,7 @@
         <v>401.15</v>
       </c>
       <c r="C351" t="n">
-        <v>401.3</v>
+        <v>401.09</v>
       </c>
       <c r="D351" t="n">
         <v>394.75</v>
@@ -12039,7 +12039,7 @@
         <v>401.15</v>
       </c>
       <c r="C352" t="n">
-        <v>403.03</v>
+        <v>402.83</v>
       </c>
       <c r="D352" t="n">
         <v>395.4</v>
@@ -12072,7 +12072,7 @@
         <v>403.02</v>
       </c>
       <c r="C353" t="n">
-        <v>403.05</v>
+        <v>402.78</v>
       </c>
       <c r="D353" t="n">
         <v>393.95</v>
@@ -12105,7 +12105,7 @@
         <v>402.03</v>
       </c>
       <c r="C354" t="n">
-        <v>402.6</v>
+        <v>402.33</v>
       </c>
       <c r="D354" t="n">
         <v>396.89</v>
@@ -12138,7 +12138,7 @@
         <v>402.57</v>
       </c>
       <c r="C355" t="n">
-        <v>404.09</v>
+        <v>403.88</v>
       </c>
       <c r="D355" t="n">
         <v>397.59</v>
@@ -12171,7 +12171,7 @@
         <v>402.25</v>
       </c>
       <c r="C356" t="n">
-        <v>404.75</v>
+        <v>404.53</v>
       </c>
       <c r="D356" t="n">
         <v>398.43</v>
@@ -12204,7 +12204,7 @@
         <v>401.54</v>
       </c>
       <c r="C357" t="n">
-        <v>404.41</v>
+        <v>404.2</v>
       </c>
       <c r="D357" t="n">
         <v>397.74</v>
@@ -12237,7 +12237,7 @@
         <v>401.54</v>
       </c>
       <c r="C358" t="n">
-        <v>404.41</v>
+        <v>404.2</v>
       </c>
       <c r="D358" t="n">
         <v>396.86</v>
@@ -12270,7 +12270,7 @@
         <v>397.82</v>
       </c>
       <c r="C359" t="n">
-        <v>401.65</v>
+        <v>401.45</v>
       </c>
       <c r="D359" t="n">
         <v>394.57</v>
@@ -12303,7 +12303,7 @@
         <v>396.84</v>
       </c>
       <c r="C360" t="n">
-        <v>400.25</v>
+        <v>400.1</v>
       </c>
       <c r="D360" t="n">
         <v>393.51</v>
@@ -12336,7 +12336,7 @@
         <v>392.81</v>
       </c>
       <c r="C361" t="n">
-        <v>399.12</v>
+        <v>399.02</v>
       </c>
       <c r="D361" t="n">
         <v>392.53</v>
@@ -12369,7 +12369,7 @@
         <v>388.1</v>
       </c>
       <c r="C362" t="n">
-        <v>396.87</v>
+        <v>396.85</v>
       </c>
       <c r="D362" t="n">
         <v>390.98</v>
@@ -12402,7 +12402,7 @@
         <v>386.32</v>
       </c>
       <c r="C363" t="n">
-        <v>396.3</v>
+        <v>396.23</v>
       </c>
       <c r="D363" t="n">
         <v>389.79</v>
@@ -12435,7 +12435,7 @@
         <v>379.57</v>
       </c>
       <c r="C364" t="n">
-        <v>391.85</v>
+        <v>391.74</v>
       </c>
       <c r="D364" t="n">
         <v>387.01</v>
@@ -12468,7 +12468,7 @@
         <v>377.77</v>
       </c>
       <c r="C365" t="n">
-        <v>392.33</v>
+        <v>392.29</v>
       </c>
       <c r="D365" t="n">
         <v>388.57</v>
@@ -12501,7 +12501,7 @@
         <v>376.23</v>
       </c>
       <c r="C366" t="n">
-        <v>393.52</v>
+        <v>393.37</v>
       </c>
       <c r="D366" t="n">
         <v>388.36</v>
@@ -12534,7 +12534,7 @@
         <v>371.56</v>
       </c>
       <c r="C367" t="n">
-        <v>390.59</v>
+        <v>390.49</v>
       </c>
       <c r="D367" t="n">
         <v>385.34</v>
@@ -12567,7 +12567,7 @@
         <v>389.98</v>
       </c>
       <c r="C368" t="n">
-        <v>390.01</v>
+        <v>389.85</v>
       </c>
       <c r="D368" t="n">
         <v>384.09</v>
@@ -12600,7 +12600,7 @@
         <v>398.44</v>
       </c>
       <c r="C369" t="n">
-        <v>389.67</v>
+        <v>389.57</v>
       </c>
       <c r="D369" t="n">
         <v>384.84</v>
@@ -12633,7 +12633,7 @@
         <v>419.26</v>
       </c>
       <c r="C370" t="n">
-        <v>388.31</v>
+        <v>388.28</v>
       </c>
       <c r="D370" t="n">
         <v>386.05</v>
@@ -12666,7 +12666,7 @@
         <v>419.26</v>
       </c>
       <c r="C371" t="n">
-        <v>386.63</v>
+        <v>386.55</v>
       </c>
       <c r="D371" t="n">
         <v>385.3</v>
@@ -12699,7 +12699,7 @@
         <v>419.26</v>
       </c>
       <c r="C372" t="n">
-        <v>385.73</v>
+        <v>385.62</v>
       </c>
       <c r="D372" t="n">
         <v>384.74</v>
@@ -12732,7 +12732,7 @@
         <v>417.92</v>
       </c>
       <c r="C373" t="n">
-        <v>385.07</v>
+        <v>385.01</v>
       </c>
       <c r="D373" t="n">
         <v>386.04</v>
@@ -12765,7 +12765,7 @@
         <v>411.51</v>
       </c>
       <c r="C374" t="n">
-        <v>382.71</v>
+        <v>382.63</v>
       </c>
       <c r="D374" t="n">
         <v>384.56</v>
@@ -12798,7 +12798,7 @@
         <v>406.19</v>
       </c>
       <c r="C375" t="n">
-        <v>382.97</v>
+        <v>382.91</v>
       </c>
       <c r="D375" t="n">
         <v>385.19</v>
@@ -12831,7 +12831,7 @@
         <v>403.14</v>
       </c>
       <c r="C376" t="n">
-        <v>382.28</v>
+        <v>382.27</v>
       </c>
       <c r="D376" t="n">
         <v>385.58</v>
@@ -12864,7 +12864,7 @@
         <v>399.24</v>
       </c>
       <c r="C377" t="n">
-        <v>381.84</v>
+        <v>381.85</v>
       </c>
       <c r="D377" t="n">
         <v>385.32</v>
@@ -12897,7 +12897,7 @@
         <v>396.1</v>
       </c>
       <c r="C378" t="n">
-        <v>381.92</v>
+        <v>381.9</v>
       </c>
       <c r="D378" t="n">
         <v>384.93</v>
@@ -12930,7 +12930,7 @@
         <v>394.88</v>
       </c>
       <c r="C379" t="n">
-        <v>382.66</v>
+        <v>382.61</v>
       </c>
       <c r="D379" t="n">
         <v>385.55</v>
@@ -12963,7 +12963,7 @@
         <v>394.88</v>
       </c>
       <c r="C380" t="n">
-        <v>382.66</v>
+        <v>382.61</v>
       </c>
       <c r="D380" t="n">
         <v>386.94</v>
@@ -12996,7 +12996,7 @@
         <v>398.23</v>
       </c>
       <c r="C381" t="n">
-        <v>383.22</v>
+        <v>383.14</v>
       </c>
       <c r="D381" t="n">
         <v>387.36</v>
@@ -13029,7 +13029,7 @@
         <v>400.24</v>
       </c>
       <c r="C382" t="n">
-        <v>383.31</v>
+        <v>383.26</v>
       </c>
       <c r="D382" t="n">
         <v>387.45</v>
@@ -13062,7 +13062,7 @@
         <v>404.52</v>
       </c>
       <c r="C383" t="n">
-        <v>383.33</v>
+        <v>383.31</v>
       </c>
       <c r="D383" t="n">
         <v>387.49</v>
@@ -13128,7 +13128,7 @@
         <v>403.08</v>
       </c>
       <c r="C385" t="n">
-        <v>383.15</v>
+        <v>383.17</v>
       </c>
       <c r="D385" t="n">
         <v>387.85</v>
@@ -13161,7 +13161,7 @@
         <v>404.82</v>
       </c>
       <c r="C386" t="n">
-        <v>382.85</v>
+        <v>382.87</v>
       </c>
       <c r="D386" t="n">
         <v>386.78</v>
@@ -13194,7 +13194,7 @@
         <v>404.82</v>
       </c>
       <c r="C387" t="n">
-        <v>382.85</v>
+        <v>382.87</v>
       </c>
       <c r="D387" t="n">
         <v>384.85</v>
@@ -13227,7 +13227,7 @@
         <v>404.44</v>
       </c>
       <c r="C388" t="n">
-        <v>382.94</v>
+        <v>383.03</v>
       </c>
       <c r="D388" t="n">
         <v>383.95</v>
@@ -13260,7 +13260,7 @@
         <v>401.45</v>
       </c>
       <c r="C389" t="n">
-        <v>381.48</v>
+        <v>381.58</v>
       </c>
       <c r="D389" t="n">
         <v>382.56</v>
@@ -13293,7 +13293,7 @@
         <v>398.56</v>
       </c>
       <c r="C390" t="n">
-        <v>381.31</v>
+        <v>381.36</v>
       </c>
       <c r="D390" t="n">
         <v>380.85</v>
@@ -13326,7 +13326,7 @@
         <v>404.16</v>
       </c>
       <c r="C391" t="n">
-        <v>380.05</v>
+        <v>380.07</v>
       </c>
       <c r="D391" t="n">
         <v>378.11</v>
@@ -13359,7 +13359,7 @@
         <v>404.16</v>
       </c>
       <c r="C392" t="n">
-        <v>380.05</v>
+        <v>380.07</v>
       </c>
       <c r="D392" t="n">
         <v>378.11</v>
@@ -13392,7 +13392,7 @@
         <v>400.95</v>
       </c>
       <c r="C393" t="n">
-        <v>376.49</v>
+        <v>376.56</v>
       </c>
       <c r="D393" t="n">
         <v>370.79</v>
@@ -13425,7 +13425,7 @@
         <v>398.24</v>
       </c>
       <c r="C394" t="n">
-        <v>377.36</v>
+        <v>377.37</v>
       </c>
       <c r="D394" t="n">
         <v>371.69</v>
@@ -13458,7 +13458,7 @@
         <v>398.24</v>
       </c>
       <c r="C395" t="n">
-        <v>377.31</v>
+        <v>377.36</v>
       </c>
       <c r="D395" t="n">
         <v>371.91</v>
@@ -13491,7 +13491,7 @@
         <v>398.24</v>
       </c>
       <c r="C396" t="n">
-        <v>377.14</v>
+        <v>377.2</v>
       </c>
       <c r="D396" t="n">
         <v>372.81</v>
@@ -13524,7 +13524,7 @@
         <v>395.08</v>
       </c>
       <c r="C397" t="n">
-        <v>376.59</v>
+        <v>376.65</v>
       </c>
       <c r="D397" t="n">
         <v>372.69</v>
@@ -13557,7 +13557,7 @@
         <v>392.63</v>
       </c>
       <c r="C398" t="n">
-        <v>376.21</v>
+        <v>376.27</v>
       </c>
       <c r="D398" t="n">
         <v>371.99</v>
@@ -13590,7 +13590,7 @@
         <v>369.35</v>
       </c>
       <c r="C399" t="n">
-        <v>376.11</v>
+        <v>376.13</v>
       </c>
       <c r="D399" t="n">
         <v>375.1</v>
@@ -13623,7 +13623,7 @@
         <v>381.88</v>
       </c>
       <c r="C400" t="n">
-        <v>376.72</v>
+        <v>376.7</v>
       </c>
       <c r="D400" t="n">
         <v>376.24</v>
@@ -13656,7 +13656,7 @@
         <v>390.35</v>
       </c>
       <c r="C401" t="n">
-        <v>378.02</v>
+        <v>377.98</v>
       </c>
       <c r="D401" t="n">
         <v>377.75</v>
@@ -13689,7 +13689,7 @@
         <v>390.35</v>
       </c>
       <c r="C402" t="n">
-        <v>378.02</v>
+        <v>377.98</v>
       </c>
       <c r="D402" t="n">
         <v>377.78</v>
@@ -13722,7 +13722,7 @@
         <v>394.48</v>
       </c>
       <c r="C403" t="n">
-        <v>378.84</v>
+        <v>378.79</v>
       </c>
       <c r="D403" t="n">
         <v>378.71</v>
@@ -13755,7 +13755,7 @@
         <v>394.48</v>
       </c>
       <c r="C404" t="n">
-        <v>378.75</v>
+        <v>378.72</v>
       </c>
       <c r="D404" t="n">
         <v>378.99</v>
@@ -13788,7 +13788,7 @@
         <v>399.51</v>
       </c>
       <c r="C405" t="n">
-        <v>379.09</v>
+        <v>379.06</v>
       </c>
       <c r="D405" t="n">
         <v>379.84</v>
@@ -13821,7 +13821,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="n">
-        <v>380</v>
+        <v>379.97</v>
       </c>
       <c r="D406" t="n">
         <v>380.73</v>
@@ -13854,7 +13854,7 @@
         <v>407</v>
       </c>
       <c r="C407" t="n">
-        <v>380.55</v>
+        <v>380.53</v>
       </c>
       <c r="D407" t="n">
         <v>381.3</v>
@@ -13887,7 +13887,7 @@
         <v>410.25</v>
       </c>
       <c r="C408" t="n">
-        <v>381.43</v>
+        <v>381.41</v>
       </c>
       <c r="D408" t="n">
         <v>381.08</v>
@@ -13920,7 +13920,7 @@
         <v>410.25</v>
       </c>
       <c r="C409" t="n">
-        <v>382.82</v>
+        <v>382.77</v>
       </c>
       <c r="D409" t="n">
         <v>381.42</v>
@@ -13953,7 +13953,7 @@
         <v>413.55</v>
       </c>
       <c r="C410" t="n">
-        <v>383.74</v>
+        <v>383.66</v>
       </c>
       <c r="D410" t="n">
         <v>382.24</v>
@@ -14019,7 +14019,7 @@
         <v>437.12</v>
       </c>
       <c r="C412" t="n">
-        <v>388.01</v>
+        <v>387.93</v>
       </c>
       <c r="D412" t="n">
         <v>385.85</v>
@@ -14052,7 +14052,7 @@
         <v>432.57</v>
       </c>
       <c r="C413" t="n">
-        <v>388.67</v>
+        <v>388.57</v>
       </c>
       <c r="D413" t="n">
         <v>386.28</v>
@@ -14085,7 +14085,7 @@
         <v>432.57</v>
       </c>
       <c r="C414" t="n">
-        <v>388.67</v>
+        <v>388.57</v>
       </c>
       <c r="D414" t="n">
         <v>386.28</v>
@@ -14118,7 +14118,7 @@
         <v>432.57</v>
       </c>
       <c r="C415" t="n">
-        <v>388.5</v>
+        <v>388.41</v>
       </c>
       <c r="D415" t="n">
         <v>385.7</v>
@@ -14151,7 +14151,7 @@
         <v>425.93</v>
       </c>
       <c r="C416" t="n">
-        <v>387.06</v>
+        <v>386.95</v>
       </c>
       <c r="D416" t="n">
         <v>384.3</v>
@@ -14184,7 +14184,7 @@
         <v>421.82</v>
       </c>
       <c r="C417" t="n">
-        <v>386.73</v>
+        <v>386.64</v>
       </c>
       <c r="D417" t="n">
         <v>384.39</v>
@@ -14217,7 +14217,7 @@
         <v>417.13</v>
       </c>
       <c r="C418" t="n">
-        <v>385.87</v>
+        <v>385.73</v>
       </c>
       <c r="D418" t="n">
         <v>383.12</v>
@@ -14250,7 +14250,7 @@
         <v>413.94</v>
       </c>
       <c r="C419" t="n">
-        <v>385.5</v>
+        <v>385.41</v>
       </c>
       <c r="D419" t="n">
         <v>382.02</v>
@@ -14283,7 +14283,7 @@
         <v>408.68</v>
       </c>
       <c r="C420" t="n">
-        <v>386.8</v>
+        <v>386.66</v>
       </c>
       <c r="D420" t="n">
         <v>380.93</v>
@@ -14316,7 +14316,7 @@
         <v>407.3</v>
       </c>
       <c r="C421" t="n">
-        <v>387.16</v>
+        <v>387.01</v>
       </c>
       <c r="D421" t="n">
         <v>381.53</v>
@@ -14349,7 +14349,7 @@
         <v>401.97</v>
       </c>
       <c r="C422" t="n">
-        <v>387.15</v>
+        <v>386.99</v>
       </c>
       <c r="D422" t="n">
         <v>380.35</v>
@@ -14382,7 +14382,7 @@
         <v>398.56</v>
       </c>
       <c r="C423" t="n">
-        <v>386.39</v>
+        <v>386.26</v>
       </c>
       <c r="D423" t="n">
         <v>380.43</v>
@@ -14415,7 +14415,7 @@
         <v>388.27</v>
       </c>
       <c r="C424" t="n">
-        <v>384</v>
+        <v>383.85</v>
       </c>
       <c r="D424" t="n">
         <v>378.17</v>
@@ -14448,7 +14448,7 @@
         <v>388.27</v>
       </c>
       <c r="C425" t="n">
-        <v>384</v>
+        <v>383.85</v>
       </c>
       <c r="D425" t="n">
         <v>378.56</v>
@@ -14481,7 +14481,7 @@
         <v>390.35</v>
       </c>
       <c r="C426" t="n">
-        <v>384.54</v>
+        <v>384.36</v>
       </c>
       <c r="D426" t="n">
         <v>378.81</v>
@@ -14514,7 +14514,7 @@
         <v>393.6</v>
       </c>
       <c r="C427" t="n">
-        <v>384.82</v>
+        <v>384.63</v>
       </c>
       <c r="D427" t="n">
         <v>379.48</v>
@@ -14547,7 +14547,7 @@
         <v>390.68</v>
       </c>
       <c r="C428" t="n">
-        <v>384.14</v>
+        <v>383.95</v>
       </c>
       <c r="D428" t="n">
         <v>378.94</v>
@@ -14580,7 +14580,7 @@
         <v>390.75</v>
       </c>
       <c r="C429" t="n">
-        <v>385.68</v>
+        <v>385.48</v>
       </c>
       <c r="D429" t="n">
         <v>380.42</v>
@@ -14613,7 +14613,7 @@
         <v>393</v>
       </c>
       <c r="C430" t="n">
-        <v>386.11</v>
+        <v>385.93</v>
       </c>
       <c r="D430" t="n">
         <v>380.46</v>
@@ -14646,7 +14646,7 @@
         <v>393</v>
       </c>
       <c r="C431" t="n">
-        <v>386.11</v>
+        <v>385.93</v>
       </c>
       <c r="D431" t="n">
         <v>381.19</v>
@@ -14679,7 +14679,7 @@
         <v>395.85</v>
       </c>
       <c r="C432" t="n">
-        <v>386.64</v>
+        <v>386.45</v>
       </c>
       <c r="D432" t="n">
         <v>381.95</v>
@@ -14712,7 +14712,7 @@
         <v>397.53</v>
       </c>
       <c r="C433" t="n">
-        <v>388.03</v>
+        <v>387.88</v>
       </c>
       <c r="D433" t="n">
         <v>383</v>
@@ -14745,7 +14745,7 @@
         <v>399.21</v>
       </c>
       <c r="C434" t="n">
-        <v>388.37</v>
+        <v>388.24</v>
       </c>
       <c r="D434" t="n">
         <v>383.36</v>
@@ -14778,7 +14778,7 @@
         <v>399.38</v>
       </c>
       <c r="C435" t="n">
-        <v>388.85</v>
+        <v>388.69</v>
       </c>
       <c r="D435" t="n">
         <v>382.87</v>
@@ -14811,7 +14811,7 @@
         <v>398.86</v>
       </c>
       <c r="C436" t="n">
-        <v>388.96</v>
+        <v>388.78</v>
       </c>
       <c r="D436" t="n">
         <v>383.43</v>
@@ -14844,7 +14844,7 @@
         <v>399.72</v>
       </c>
       <c r="C437" t="n">
-        <v>392.73</v>
+        <v>392.58</v>
       </c>
       <c r="D437" t="n">
         <v>386.7</v>
@@ -14877,7 +14877,7 @@
         <v>399.44</v>
       </c>
       <c r="C438" t="n">
-        <v>392.84</v>
+        <v>392.7</v>
       </c>
       <c r="D438" t="n">
         <v>387.3</v>
@@ -14910,7 +14910,7 @@
         <v>399.01</v>
       </c>
       <c r="C439" t="n">
-        <v>393.45</v>
+        <v>393.31</v>
       </c>
       <c r="D439" t="n">
         <v>387.79</v>
@@ -14943,7 +14943,7 @@
         <v>399.5</v>
       </c>
       <c r="C440" t="n">
-        <v>394.46</v>
+        <v>394.32</v>
       </c>
       <c r="D440" t="n">
         <v>389.32</v>
@@ -14976,7 +14976,7 @@
         <v>398.21</v>
       </c>
       <c r="C441" t="n">
-        <v>395</v>
+        <v>394.87</v>
       </c>
       <c r="D441" t="n">
         <v>391.2</v>
@@ -15009,7 +15009,7 @@
         <v>399.25</v>
       </c>
       <c r="C442" t="n">
-        <v>395.61</v>
+        <v>395.52</v>
       </c>
       <c r="D442" t="n">
         <v>391.79</v>
@@ -15042,7 +15042,7 @@
         <v>401.1</v>
       </c>
       <c r="C443" t="n">
-        <v>395.55</v>
+        <v>395.44</v>
       </c>
       <c r="D443" t="n">
         <v>392.04</v>
@@ -15075,7 +15075,7 @@
         <v>399.79</v>
       </c>
       <c r="C444" t="n">
-        <v>395.49</v>
+        <v>395.36</v>
       </c>
       <c r="D444" t="n">
         <v>391.92</v>
@@ -15108,7 +15108,7 @@
         <v>397.06</v>
       </c>
       <c r="C445" t="n">
-        <v>395.7</v>
+        <v>395.64</v>
       </c>
       <c r="D445" t="n">
         <v>392.19</v>
@@ -15141,7 +15141,7 @@
         <v>397.3</v>
       </c>
       <c r="C446" t="n">
-        <v>396.36</v>
+        <v>396.33</v>
       </c>
       <c r="D446" t="n">
         <v>392.49</v>
@@ -15174,7 +15174,7 @@
         <v>396.73</v>
       </c>
       <c r="C447" t="n">
-        <v>396.27</v>
+        <v>396.23</v>
       </c>
       <c r="D447" t="n">
         <v>392.63</v>
@@ -15207,7 +15207,7 @@
         <v>391.9</v>
       </c>
       <c r="C448" t="n">
-        <v>396.47</v>
+        <v>396.4</v>
       </c>
       <c r="D448" t="n">
         <v>393.75</v>
@@ -15240,7 +15240,7 @@
         <v>390.73</v>
       </c>
       <c r="C449" t="n">
-        <v>395.7</v>
+        <v>395.62</v>
       </c>
       <c r="D449" t="n">
         <v>392.69</v>
@@ -15273,7 +15273,7 @@
         <v>389.59</v>
       </c>
       <c r="C450" t="n">
-        <v>395.13</v>
+        <v>395.07</v>
       </c>
       <c r="D450" t="n">
         <v>392.29</v>
@@ -15306,7 +15306,7 @@
         <v>389.56</v>
       </c>
       <c r="C451" t="n">
-        <v>395.45</v>
+        <v>395.41</v>
       </c>
       <c r="D451" t="n">
         <v>392.7</v>
@@ -15339,7 +15339,7 @@
         <v>387.22</v>
       </c>
       <c r="C452" t="n">
-        <v>393.12</v>
+        <v>393.02</v>
       </c>
       <c r="D452" t="n">
         <v>390.41</v>
@@ -15372,7 +15372,7 @@
         <v>386.55</v>
       </c>
       <c r="C453" t="n">
-        <v>392.71</v>
+        <v>392.58</v>
       </c>
       <c r="D453" t="n">
         <v>389.92</v>
@@ -15405,7 +15405,7 @@
         <v>385.94</v>
       </c>
       <c r="C454" t="n">
-        <v>392.32</v>
+        <v>392.18</v>
       </c>
       <c r="D454" t="n">
         <v>389.54</v>
@@ -15438,7 +15438,7 @@
         <v>386.22</v>
       </c>
       <c r="C455" t="n">
-        <v>392.15</v>
+        <v>392</v>
       </c>
       <c r="D455" t="n">
         <v>389.41</v>
@@ -15471,7 +15471,7 @@
         <v>386.03</v>
       </c>
       <c r="C456" t="n">
-        <v>391.19</v>
+        <v>391.06</v>
       </c>
       <c r="D456" t="n">
         <v>388.85</v>
@@ -15504,7 +15504,7 @@
         <v>386.03</v>
       </c>
       <c r="C457" t="n">
-        <v>391.37</v>
+        <v>391.26</v>
       </c>
       <c r="D457" t="n">
         <v>389.18</v>
@@ -15537,7 +15537,7 @@
         <v>386.9</v>
       </c>
       <c r="C458" t="n">
-        <v>391.5</v>
+        <v>391.38</v>
       </c>
       <c r="D458" t="n">
         <v>389.33</v>
@@ -15570,7 +15570,7 @@
         <v>386.95</v>
       </c>
       <c r="C459" t="n">
-        <v>391.43</v>
+        <v>391.29</v>
       </c>
       <c r="D459" t="n">
         <v>387.86</v>
@@ -15603,7 +15603,7 @@
         <v>388.14</v>
       </c>
       <c r="C460" t="n">
-        <v>391.92</v>
+        <v>391.8</v>
       </c>
       <c r="D460" t="n">
         <v>388.18</v>
@@ -15636,7 +15636,7 @@
         <v>384.82</v>
       </c>
       <c r="C461" t="n">
-        <v>390.83</v>
+        <v>390.75</v>
       </c>
       <c r="D461" t="n">
         <v>387.56</v>
@@ -15669,7 +15669,7 @@
         <v>383.98</v>
       </c>
       <c r="C462" t="n">
-        <v>390.25</v>
+        <v>390.15</v>
       </c>
       <c r="D462" t="n">
         <v>387.12</v>
@@ -15702,7 +15702,7 @@
         <v>383.98</v>
       </c>
       <c r="C463" t="n">
-        <v>390.25</v>
+        <v>390.15</v>
       </c>
       <c r="D463" t="n">
         <v>387.12</v>
@@ -15735,7 +15735,7 @@
         <v>382.71</v>
       </c>
       <c r="C464" t="n">
-        <v>389.13</v>
+        <v>389.02</v>
       </c>
       <c r="D464" t="n">
         <v>385.93</v>
@@ -15768,7 +15768,7 @@
         <v>383.11</v>
       </c>
       <c r="C465" t="n">
-        <v>388.95</v>
+        <v>388.87</v>
       </c>
       <c r="D465" t="n">
         <v>385.95</v>
@@ -15801,7 +15801,7 @@
         <v>382.05</v>
       </c>
       <c r="C466" t="n">
-        <v>388.17</v>
+        <v>388.09</v>
       </c>
       <c r="D466" t="n">
         <v>385.16</v>
@@ -15834,7 +15834,7 @@
         <v>381.4</v>
       </c>
       <c r="C467" t="n">
-        <v>387.95</v>
+        <v>387.86</v>
       </c>
       <c r="D467" t="n">
         <v>384.79</v>
@@ -15867,7 +15867,7 @@
         <v>382.1</v>
       </c>
       <c r="C468" t="n">
-        <v>388.34</v>
+        <v>388.29</v>
       </c>
       <c r="D468" t="n">
         <v>385.73</v>
@@ -15900,7 +15900,7 @@
         <v>384.58</v>
       </c>
       <c r="C469" t="n">
-        <v>388.13</v>
+        <v>388.1</v>
       </c>
       <c r="D469" t="n">
         <v>385.77</v>
@@ -15933,7 +15933,7 @@
         <v>385.44</v>
       </c>
       <c r="C470" t="n">
-        <v>387.53</v>
+        <v>387.55</v>
       </c>
       <c r="D470" t="n">
         <v>385.36</v>
@@ -15999,7 +15999,7 @@
         <v>385</v>
       </c>
       <c r="C472" t="n">
-        <v>387.73</v>
+        <v>387.81</v>
       </c>
       <c r="D472" t="n">
         <v>385</v>
@@ -16032,7 +16032,7 @@
         <v>385</v>
       </c>
       <c r="C473" t="n">
-        <v>388.51</v>
+        <v>388.62</v>
       </c>
       <c r="D473" t="n">
         <v>385.04</v>
@@ -16065,7 +16065,7 @@
         <v>383.42</v>
       </c>
       <c r="C474" t="n">
-        <v>387.94</v>
+        <v>388.02</v>
       </c>
       <c r="D474" t="n">
         <v>383.77</v>
@@ -16098,7 +16098,7 @@
         <v>382.25</v>
       </c>
       <c r="C475" t="n">
-        <v>386.85</v>
+        <v>386.93</v>
       </c>
       <c r="D475" t="n">
         <v>381.88</v>
@@ -16131,7 +16131,7 @@
         <v>381.77</v>
       </c>
       <c r="C476" t="n">
-        <v>386.71</v>
+        <v>386.8</v>
       </c>
       <c r="D476" t="n">
         <v>382.31</v>
@@ -16164,7 +16164,7 @@
         <v>381.77</v>
       </c>
       <c r="C477" t="n">
-        <v>386.77</v>
+        <v>386.85</v>
       </c>
       <c r="D477" t="n">
         <v>382.88</v>
@@ -16197,7 +16197,7 @@
         <v>380.12</v>
       </c>
       <c r="C478" t="n">
-        <v>386.31</v>
+        <v>386.4</v>
       </c>
       <c r="D478" t="n">
         <v>382.18</v>
@@ -16230,7 +16230,7 @@
         <v>380.12</v>
       </c>
       <c r="C479" t="n">
-        <v>386.19</v>
+        <v>386.28</v>
       </c>
       <c r="D479" t="n">
         <v>382.26</v>
@@ -16263,7 +16263,7 @@
         <v>377.52</v>
       </c>
       <c r="C480" t="n">
-        <v>385.13</v>
+        <v>385.21</v>
       </c>
       <c r="D480" t="n">
         <v>381.08</v>
@@ -16296,7 +16296,7 @@
         <v>377.02</v>
       </c>
       <c r="C481" t="n">
-        <v>385.09</v>
+        <v>385.16</v>
       </c>
       <c r="D481" t="n">
         <v>380.66</v>
@@ -16329,7 +16329,7 @@
         <v>377.02</v>
       </c>
       <c r="C482" t="n">
-        <v>385.09</v>
+        <v>385.16</v>
       </c>
       <c r="D482" t="n">
         <v>380.66</v>
@@ -16362,7 +16362,7 @@
         <v>376.98</v>
       </c>
       <c r="C483" t="n">
-        <v>385.09</v>
+        <v>385.16</v>
       </c>
       <c r="D483" t="n">
         <v>380.42</v>
@@ -16395,7 +16395,7 @@
         <v>376.91</v>
       </c>
       <c r="C484" t="n">
-        <v>384.85</v>
+        <v>384.93</v>
       </c>
       <c r="D484" t="n">
         <v>380.51</v>
@@ -16428,7 +16428,7 @@
         <v>375.11</v>
       </c>
       <c r="C485" t="n">
-        <v>383.6</v>
+        <v>383.64</v>
       </c>
       <c r="D485" t="n">
         <v>379.27</v>
@@ -16461,7 +16461,7 @@
         <v>378.6</v>
       </c>
       <c r="C486" t="n">
-        <v>383.41</v>
+        <v>383.46</v>
       </c>
       <c r="D486" t="n">
         <v>378.99</v>
@@ -16494,7 +16494,7 @@
         <v>382.03</v>
       </c>
       <c r="C487" t="n">
-        <v>383.71</v>
+        <v>383.74</v>
       </c>
       <c r="D487" t="n">
         <v>379.05</v>
@@ -16527,7 +16527,7 @@
         <v>385.98</v>
       </c>
       <c r="C488" t="n">
-        <v>384.3</v>
+        <v>384.34</v>
       </c>
       <c r="D488" t="n">
         <v>379.7</v>
@@ -16560,7 +16560,7 @@
         <v>388.56</v>
       </c>
       <c r="C489" t="n">
-        <v>384.24</v>
+        <v>384.28</v>
       </c>
       <c r="D489" t="n">
         <v>379.64</v>
@@ -16578,6 +16578,39 @@
         <v>384.04</v>
       </c>
       <c r="I489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>393.21</v>
+      </c>
+      <c r="C490" t="n">
+        <v>384.92</v>
+      </c>
+      <c r="D490" t="n">
+        <v>380.14</v>
+      </c>
+      <c r="E490" t="n">
+        <v>377.97</v>
+      </c>
+      <c r="F490" t="n">
+        <v>381.45</v>
+      </c>
+      <c r="G490" t="n">
+        <v>390.87</v>
+      </c>
+      <c r="H490" t="n">
+        <v>383.24</v>
+      </c>
+      <c r="I490" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -16594,7 +16627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B553"/>
+  <dimension ref="A1:B554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22132,6 +22165,16 @@
       </c>
       <c r="B553" t="n">
         <v>-0.23</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -22302,31 +22345,31 @@
         <v>0.0664</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1928</v>
+        <v>0.1907</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2094271960639142</v>
+        <v>0.2067179876628555</v>
       </c>
       <c r="J2" t="n">
+        <v>489</v>
+      </c>
+      <c r="K2" t="n">
         <v>488</v>
       </c>
-      <c r="K2" t="n">
-        <v>487</v>
-      </c>
       <c r="L2" t="n">
-        <v>0.01284143022098361</v>
+        <v>0.01256058956577144</v>
       </c>
       <c r="M2" t="n">
-        <v>11.04411364026472</v>
+        <v>11.03602581597689</v>
       </c>
       <c r="N2" t="n">
-        <v>196.821565080486</v>
+        <v>196.5210540562135</v>
       </c>
       <c r="O2" t="n">
-        <v>14.02931092678774</v>
+        <v>14.01859672207648</v>
       </c>
       <c r="P2" t="n">
-        <v>394.8081279261045</v>
+        <v>394.835344356642</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22374,37 +22417,37 @@
         <v>0.1609948111187989</v>
       </c>
       <c r="F3" t="n">
-        <v>0.095</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0832</v>
+        <v>0.0833</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1176</v>
+        <v>0.118</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07249687882738091</v>
+        <v>0.07198395427395175</v>
       </c>
       <c r="J3" t="n">
+        <v>489</v>
+      </c>
+      <c r="K3" t="n">
         <v>488</v>
       </c>
-      <c r="K3" t="n">
-        <v>487</v>
-      </c>
       <c r="L3" t="n">
-        <v>0.005708956466268345</v>
+        <v>0.005644160012943988</v>
       </c>
       <c r="M3" t="n">
-        <v>5.805800616485837</v>
+        <v>5.806195164184153</v>
       </c>
       <c r="N3" t="n">
-        <v>53.4353201472531</v>
+        <v>53.40304571541191</v>
       </c>
       <c r="O3" t="n">
-        <v>7.309946658304225</v>
+        <v>7.307738755279359</v>
       </c>
       <c r="P3" t="n">
-        <v>389.4279279761645</v>
+        <v>389.3724802825073</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -22455,34 +22498,34 @@
         <v>0.095</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08119999999999999</v>
+        <v>0.0814</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1159</v>
+        <v>0.1162</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1625635232203532</v>
+        <v>0.1592860893321353</v>
       </c>
       <c r="J4" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K4" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0352324327536564</v>
+        <v>0.03389292176396075</v>
       </c>
       <c r="M4" t="n">
-        <v>5.307654080505489</v>
+        <v>5.312583382225412</v>
       </c>
       <c r="N4" t="n">
-        <v>42.50773508566596</v>
+        <v>42.57258944358075</v>
       </c>
       <c r="O4" t="n">
-        <v>6.519795632200903</v>
+        <v>6.524767386166403</v>
       </c>
       <c r="P4" t="n">
-        <v>384.5080616157061</v>
+        <v>384.540824137675</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -22533,34 +22576,34 @@
         <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.0708</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.0878</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1816992491654105</v>
+        <v>0.1769326543485328</v>
       </c>
       <c r="J5" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K5" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03711219972402657</v>
+        <v>0.03518302810079066</v>
       </c>
       <c r="M5" t="n">
-        <v>5.923945588165529</v>
+        <v>5.937449996733357</v>
       </c>
       <c r="N5" t="n">
-        <v>50.31609731099307</v>
+        <v>50.53424910069587</v>
       </c>
       <c r="O5" t="n">
-        <v>7.09338405212865</v>
+        <v>7.108744551655789</v>
       </c>
       <c r="P5" t="n">
-        <v>385.7541771271959</v>
+        <v>385.8018258892247</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -22611,34 +22654,34 @@
         <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0555</v>
+        <v>0.0557</v>
       </c>
       <c r="H6" t="n">
         <v>0.06710000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1726957518125803</v>
+        <v>0.1673060518840783</v>
       </c>
       <c r="J6" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K6" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03458786928401503</v>
+        <v>0.0323992442824117</v>
       </c>
       <c r="M6" t="n">
-        <v>5.585513517619921</v>
+        <v>5.608144914923646</v>
       </c>
       <c r="N6" t="n">
-        <v>48.89832095515298</v>
+        <v>49.20879517703814</v>
       </c>
       <c r="O6" t="n">
-        <v>6.992733439446479</v>
+        <v>7.014898087430646</v>
       </c>
       <c r="P6" t="n">
-        <v>391.1182859039097</v>
+        <v>391.1721634704254</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -22689,34 +22732,34 @@
         <v>0.08</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07149999999999999</v>
+        <v>0.0718</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0863</v>
+        <v>0.08649999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1846715441507922</v>
+        <v>0.1809618910455318</v>
       </c>
       <c r="J7" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K7" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04745872996438427</v>
+        <v>0.04562787229445087</v>
       </c>
       <c r="M7" t="n">
-        <v>4.890967775727758</v>
+        <v>4.901704979970434</v>
       </c>
       <c r="N7" t="n">
-        <v>40.20771064388689</v>
+        <v>40.3199415409823</v>
       </c>
       <c r="O7" t="n">
-        <v>6.340955026168132</v>
+        <v>6.349798543338387</v>
       </c>
       <c r="P7" t="n">
-        <v>395.791169940562</v>
+        <v>395.8282530963184</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -22767,34 +22810,34 @@
         <v>0.08</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0713</v>
+        <v>0.0716</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0866</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09196236723841068</v>
+        <v>0.08855404998200808</v>
       </c>
       <c r="J8" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K8" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01381376103212772</v>
+        <v>0.01281574118140261</v>
       </c>
       <c r="M8" t="n">
-        <v>4.621812686086134</v>
+        <v>4.628045825783796</v>
       </c>
       <c r="N8" t="n">
-        <v>35.46573617392838</v>
+        <v>35.55735616629998</v>
       </c>
       <c r="O8" t="n">
-        <v>5.955311593353314</v>
+        <v>5.962998923888883</v>
       </c>
       <c r="P8" t="n">
-        <v>389.8079772399018</v>
+        <v>389.8420481236477</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -22832,7 +22875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I489"/>
+  <dimension ref="A1:I490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22939,7 +22982,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-34.94395788107534,173.5738586503531</t>
+          <t>-34.94395849508073,173.5738580058864</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -22986,7 +23029,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-34.94397391343696,173.57384182260859</t>
+          <t>-34.943976028344075,173.57383960277798</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -23033,7 +23076,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-34.94399990632472,173.57381454016632</t>
+          <t>-34.94400161189457,173.57381274997925</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -23080,7 +23123,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-34.94398598887376,173.5738291480903</t>
+          <t>-34.94398810378064,173.57382692825902</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -23127,7 +23170,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-34.94397793858272,173.57383759776957</t>
+          <t>-34.94397855258798,173.57383695330256</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -23174,7 +23217,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-34.943967500492604,173.57384855370717</t>
+          <t>-34.94396743226978,173.5738486253146</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -23221,7 +23264,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-34.94395010367356,173.57386681359702</t>
+          <t>-34.9439498990051,173.5738670284192</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -23268,7 +23311,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-34.94397848436517,173.57383702491</t>
+          <t>-34.94397903014763,173.57383645205044</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -23315,7 +23358,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-34.944004818365826,173.5738093844273</t>
+          <t>-34.94400440902907,173.57380981407223</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -23362,7 +23405,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-34.9440298561275,173.57378310447012</t>
+          <t>-34.94402965145918,173.57378331929272</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -23409,7 +23452,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-34.94406219371873,173.57374916248546</t>
+          <t>-34.9440636263966,173.57374765872603</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -23456,7 +23499,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-34.94392561167666,173.57389252064456</t>
+          <t>-34.94392874992726,173.57388922670617</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -23503,7 +23546,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-34.94396845561198,173.5738475512032</t>
+          <t>-34.94397091163326,173.57384497333572</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -23550,7 +23593,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-34.94396845561198,173.5738475512032</t>
+          <t>-34.94397091163326,173.57384497333572</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -23597,7 +23640,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-34.94396845561198,173.5738475512032</t>
+          <t>-34.94397091163326,173.57384497333572</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -23644,7 +23687,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-34.943986807547404,173.5738282888008</t>
+          <t>-34.94398783088944,173.5738272146889</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -23691,7 +23734,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-34.94403360838014,173.57377916605554</t>
+          <t>-34.94403251681575,173.57378031177618</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -23738,7 +23781,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-34.94404929961702,173.57376269631797</t>
+          <t>-34.94404827627556,173.57376377043147</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -23785,7 +23828,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-34.944043910018515,173.57376835331547</t>
+          <t>-34.944043364236364,173.57376892617594</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -23832,7 +23875,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-34.94406164793668,173.57374973534618</t>
+          <t>-34.944060965709106,173.57375045142206</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -23879,7 +23922,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-34.9440676515391,173.57374343387784</t>
+          <t>-34.944067242202586,173.57374386352342</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -23926,7 +23969,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-34.94404513802832,173.5737670643794</t>
+          <t>-34.94404459224619,173.5737676372399</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -23973,7 +24016,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-34.94403326726626,173.57377952409325</t>
+          <t>-34.94403381304845,173.5737789512329</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -24020,7 +24063,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-34.944029924350275,173.57378303286256</t>
+          <t>-34.94403067480082,173.57378224517967</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -24067,7 +24110,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-34.94403620084552,173.5737764449689</t>
+          <t>-34.944037087741556,173.5737755140708</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -24114,7 +24157,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-34.94402624032031,173.57378689966927</t>
+          <t>-34.94402699077088,173.57378611198646</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -24161,7 +24204,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-34.94402624032031,173.57378689966927</t>
+          <t>-34.94402699077088,173.57378611198646</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -24208,7 +24251,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-34.94403367660291,173.57377909444799</t>
+          <t>-34.94403545039502,173.57377723265188</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -24255,7 +24298,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-34.94401409666509,173.57379964580744</t>
+          <t>-34.94401436955624,173.57379935937738</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -24302,7 +24345,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-34.94394416828763,173.57387304344002</t>
+          <t>-34.94394389539631,173.57387332986957</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -24349,7 +24392,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-34.94395221858112,173.5738645937677</t>
+          <t>-34.94395160457571,173.57386523823428</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -24396,7 +24439,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-34.943947170092045,173.57386989271492</t>
+          <t>-34.94394723831487,173.57386982110754</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -24443,7 +24486,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-34.9439498990051,173.5738670284192</t>
+          <t>-34.943950035450726,173.5738668852044</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -24490,7 +24533,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-34.943955834390714,173.57386079857534</t>
+          <t>-34.94395658484176,173.57386001089384</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -24537,7 +24580,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-34.943955834390714,173.57386079857534</t>
+          <t>-34.94395658484176,173.57386001089384</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -24584,7 +24627,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-34.943963202455194,173.5738530649748</t>
+          <t>-34.94396408935183,173.57385213407832</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -24631,7 +24674,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-34.94397480033351,173.57384089171188</t>
+          <t>-34.943976028344075,173.57383960277798</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -24678,7 +24721,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-34.94399294759947,173.57382184412896</t>
+          <t>-34.943995608288596,173.5738190514375</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -24725,7 +24768,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-34.94398025815817,173.5738351631164</t>
+          <t>-34.94398285062479,173.57383244203328</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -24772,7 +24815,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-34.943962452004214,173.57385385265638</t>
+          <t>-34.9439636117921,173.57385263533027</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -24819,7 +24862,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-34.94393850579269,173.57387898685263</t>
+          <t>-34.94393877868403,173.57387870042314</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -24866,7 +24909,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-34.94393454886835,173.57388314008023</t>
+          <t>-34.94393448064552,173.5738832116876</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -24913,7 +24956,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-34.94391817538684,173.57390032584541</t>
+          <t>-34.943917356712696,173.57390118513348</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -24960,7 +25003,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-34.943922200534594,173.5738961010121</t>
+          <t>-34.943922132311755,173.57389617261944</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -25007,7 +25050,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-34.94391401379323,173.57390469389296</t>
+          <t>-34.94391339978762,173.57390533835894</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -25054,7 +25097,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-34.943930114384024,173.57388779455897</t>
+          <t>-34.943929363932796,173.57388858223993</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -25101,7 +25144,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-34.9439422580484,173.57387504844675</t>
+          <t>-34.9439415758201,173.57387576452058</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -25148,7 +25191,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-34.9439422580484,173.57387504844675</t>
+          <t>-34.9439415758201,173.57387576452058</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -25195,7 +25238,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-34.94393836934703,173.57387913006738</t>
+          <t>-34.94393741422736,173.57388013257062</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -25242,7 +25285,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-34.943962929563945,173.57385335140447</t>
+          <t>-34.943963202455194,173.5738530649748</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -25289,7 +25332,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-34.943961633330396,173.5738547119454</t>
+          <t>-34.94396149688477,173.57385485516022</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -25336,7 +25379,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-34.943956653064575,173.57385993928645</t>
+          <t>-34.94395638017329,173.57386022571606</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -25383,7 +25426,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-34.94393993847216,173.5738774830977</t>
+          <t>-34.94393966558083,173.57387776952723</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -25430,7 +25473,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-34.94394218982557,173.57387512005417</t>
+          <t>-34.9439420533799,173.57387526326892</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -25477,7 +25520,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-34.94393925624385,173.57387819917147</t>
+          <t>-34.94393932446667,173.57387812756411</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -25524,7 +25567,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-34.94392588456803,173.57389223421515</t>
+          <t>-34.943926225682226,173.57389187617838</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -25571,7 +25614,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-34.94393202462345,173.5738857895528</t>
+          <t>-34.94393243396047,173.57388535990862</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -25618,7 +25661,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-34.943925475230984,173.57389266385928</t>
+          <t>-34.9439256798995,173.5738924490372</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -25665,7 +25708,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-34.94392943215564,173.57388851063257</t>
+          <t>-34.943930319052534,173.5738875797369</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -25712,7 +25755,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-34.94392554345382,173.57389259225192</t>
+          <t>-34.943926703242084,173.5738913749269</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -25759,7 +25802,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-34.943923974328484,173.573894239221</t>
+          <t>-34.9439253387853,173.57389280707397</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -25806,7 +25849,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-34.943918380055365,173.57390011102336</t>
+          <t>-34.94391947162088,173.57389896530591</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -25853,7 +25896,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-34.943936663776206,173.57388092025172</t>
+          <t>-34.94393850579269,173.57387898685263</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -25900,7 +25943,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-34.94393952913516,173.57387791274198</t>
+          <t>-34.94394143937444,173.57387590773536</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -25947,7 +25990,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-34.9439249976711,173.57389316511075</t>
+          <t>-34.94392649857358,173.57389158974897</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -25994,7 +26037,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-34.94392745369332,173.57389058724596</t>
+          <t>-34.94392909104145,173.57388886866937</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -26041,7 +26084,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-34.94392411077416,173.5738940960063</t>
+          <t>-34.94392527056245,173.57389287868133</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -26088,7 +26131,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-34.94392192764324,173.5738963874415</t>
+          <t>-34.94392315565439,173.5738950985092</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -26135,7 +26178,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-34.94392179119755,173.57389653065619</t>
+          <t>-34.94392315565439,173.5738950985092</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -26182,7 +26225,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-34.943910397982286,173.57390848908145</t>
+          <t>-34.94391169421641,173.5739071285422</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -26229,7 +26272,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-34.943906372834086,173.57391271391356</t>
+          <t>-34.94390739617686,173.57391163980375</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -26276,7 +26319,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-34.943921040746275,173.573897318337</t>
+          <t>-34.943922132311755,173.57389617261944</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -26323,7 +26366,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-34.943922473425964,173.5738958145827</t>
+          <t>-34.94392274631734,173.57389552815332</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -26370,7 +26413,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-34.94392417899702,173.57389402439898</t>
+          <t>-34.94392486122541,173.57389330832547</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -26417,7 +26460,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-34.943922200534594,173.5738961010121</t>
+          <t>-34.94392308743155,173.57389517011657</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -26464,7 +26507,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-34.943930591943875,173.57388729330745</t>
+          <t>-34.94393147884076,173.5738863624117</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -26511,7 +26554,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-34.94392943215564,173.57388851063257</t>
+          <t>-34.943930319052534,173.5738875797369</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -26558,7 +26601,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-34.94393755067304,173.57387998935587</t>
+          <t>-34.94393836934703,173.57387913006738</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -26605,7 +26648,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-34.94394273560821,173.5738745471951</t>
+          <t>-34.94394355428216,173.57387368790648</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -26652,7 +26695,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-34.94394273560821,173.5738745471951</t>
+          <t>-34.94394355428216,173.57387368790648</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -26699,7 +26742,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-34.94394164404293,173.57387569291322</t>
+          <t>-34.94394266738538,173.57387461880248</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -26746,7 +26789,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-34.94394676075508,173.57387032235928</t>
+          <t>-34.943947374760526,173.57386967789276</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -26793,7 +26836,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-34.94395692595586,173.5738596528568</t>
+          <t>-34.94395774462971,173.57385879356792</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -26840,7 +26883,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-34.94396968362264,173.57384626226946</t>
+          <t>-34.943970570519205,173.57384533137287</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -26887,7 +26930,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-34.9439795759301,173.57383587919088</t>
+          <t>-34.943980667495,173.5738347334717</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -26934,7 +26977,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-34.94396941073137,173.57384654869918</t>
+          <t>-34.943970706964826,173.573845188158</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -26981,7 +27024,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-34.94394948966814,173.57386745806357</t>
+          <t>-34.943950513010506,173.57386638395263</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -27028,7 +27071,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-34.943947306537694,173.57386974950015</t>
+          <t>-34.94394880743989,173.57386817413752</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -27075,7 +27118,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-34.94393952913516,173.57387791274198</t>
+          <t>-34.94394048425481,173.57387691023868</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -27122,7 +27165,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-34.94393789178719,173.573879631319</t>
+          <t>-34.94393877868403,173.57387870042314</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -27169,7 +27212,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-34.943897776754426,173.57392173643495</t>
+          <t>-34.94389880009727,173.57392066232538</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -27216,7 +27259,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-34.94391251289059,173.57390626925425</t>
+          <t>-34.94391360445615,173.57390512353695</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -27263,7 +27306,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-34.94391524180449,173.57390340496093</t>
+          <t>-34.94391599225579,173.57390261728025</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -27310,7 +27353,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-34.9439039168114,173.57391529177698</t>
+          <t>-34.94390473548564,173.5739144324892</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -27357,7 +27400,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-34.9439039168114,173.57391529177698</t>
+          <t>-34.94390473548564,173.5739144324892</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -27404,7 +27447,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-34.94391196710781,173.5739068421129</t>
+          <t>-34.94391264933628,173.5739061260396</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -27451,7 +27494,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-34.94391196710781,173.5739068421129</t>
+          <t>-34.94391264933628,173.5739061260396</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -27498,7 +27541,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-34.943912854004836,173.5739059112176</t>
+          <t>-34.94391360445615,173.57390512353695</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -27545,7 +27588,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-34.94392029029499,173.57389810601777</t>
+          <t>-34.94392083607775,173.573897533159</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -27592,7 +27635,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-34.94392254164881,173.57389574297537</t>
+          <t>-34.94392315565439,173.5738950985092</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -27639,7 +27682,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-34.94393127417224,173.57388657723382</t>
+          <t>-34.943931888177765,173.57388593276755</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -27686,7 +27729,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-34.94394239449405,173.573874905232</t>
+          <t>-34.94394273560821,173.5738745471951</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -27733,7 +27776,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-34.943950035450726,173.5738668852044</t>
+          <t>-34.943950513010506,173.57386638395263</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -27780,7 +27823,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-34.943955288608144,173.5738613714346</t>
+          <t>-34.94395569794508,173.57386094179014</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -27827,7 +27870,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-34.943960814656585,173.5738555712344</t>
+          <t>-34.94396149688477,173.57385485516022</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -27874,7 +27917,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-34.94395481104839,173.57386187268642</t>
+          <t>-34.94395542505379,173.57386122821976</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -27921,7 +27964,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-34.94395119523875,173.57386566787866</t>
+          <t>-34.94395160457571,173.57386523823428</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -27968,7 +28011,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-34.94395228680394,173.57386452216028</t>
+          <t>-34.943952764363715,173.57386402090847</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -28015,7 +28058,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-34.94394757942901,173.5738694630706</t>
+          <t>-34.94394792054314,173.57386910503362</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -28062,7 +28105,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-34.94394723831487,173.57386982110754</t>
+          <t>-34.94394744298335,173.57386960628537</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -28109,7 +28152,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-34.94393598154787,173.57388163632547</t>
+          <t>-34.94393632266204,173.5738812782886</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -28156,7 +28199,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-34.943948739217056,173.5738682457449</t>
+          <t>-34.94394908033118,173.57386788770793</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -28203,7 +28246,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-34.943924656556895,173.5738935231475</t>
+          <t>-34.94392513411678,173.57389302189603</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -28250,7 +28293,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-34.94393236573763,173.573885431516</t>
+          <t>-34.9439325021833,173.57388528830126</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -28344,7 +28387,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-34.94393475353685,173.57388292525815</t>
+          <t>-34.94393434419985,173.57388335490234</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -28391,7 +28434,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-34.943927726584675,173.57389030081654</t>
+          <t>-34.943927317247656,173.5738907304607</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -28438,7 +28481,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-34.9439374824502,173.57388006096326</t>
+          <t>-34.94393734600454,173.573880204178</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -28485,7 +28528,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-34.9439374824502,173.57388006096326</t>
+          <t>-34.94393734600454,173.573880204178</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -28532,7 +28575,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-34.94392588456803,173.57389223421515</t>
+          <t>-34.94392554345382,173.57389259225192</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -28579,7 +28622,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-34.94390187012577,173.57391743999642</t>
+          <t>-34.94390118789723,173.57391815606954</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -28626,7 +28669,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-34.94390146078865,173.5739178696403</t>
+          <t>-34.94390036922296,173.57391901535726</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -28673,7 +28716,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-34.94390146078865,173.5739178696403</t>
+          <t>-34.94390036922296,173.57391901535726</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -28720,7 +28763,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-34.94388863489119,173.5739313318128</t>
+          <t>-34.94388774799397,173.57393226270756</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -28767,7 +28810,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-34.94388931711982,173.57393061573987</t>
+          <t>-34.94388849844545,173.57393147502736</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -28814,7 +28857,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-34.94393413953135,173.57388356972444</t>
+          <t>-34.94393475353685,173.57388292525815</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -28861,7 +28904,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-34.94397691524059,173.57383867188122</t>
+          <t>-34.9439778021371,173.57383774098446</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -28908,7 +28951,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-34.94398817200344,173.57382685665158</t>
+          <t>-34.94398926356826,173.57382571093217</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -28955,7 +28998,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-34.94400297635045,173.57381131782952</t>
+          <t>-34.944004477251866,173.57380974246476</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -29002,7 +29045,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-34.94401245931823,173.57380136438755</t>
+          <t>-34.94401423311066,173.5737995025924</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -29049,7 +29092,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-34.94402269273578,173.57379062326058</t>
+          <t>-34.944024602973606,173.57378861824992</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -29096,7 +29139,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-34.94404909494873,173.57376291114068</t>
+          <t>-34.94405120985441,173.57376069130603</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -29143,7 +29186,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-34.944049981844664,173.57376198024227</t>
+          <t>-34.944052096750326,173.57375976040757</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -29190,7 +29233,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-34.944049981844664,173.57376198024227</t>
+          <t>-34.944052096750326,173.57375976040757</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -29237,7 +29280,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-34.94401825825495,173.57379527774924</t>
+          <t>-34.94401907692834,173.57379441845907</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -29284,7 +29327,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-34.94403081124638,173.5737821019646</t>
+          <t>-34.94403067480082,173.57378224517967</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -29331,7 +29374,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-34.944052369641376,173.57375947397728</t>
+          <t>-34.94405298364624,173.5737588295091</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -29378,7 +29421,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-34.9440551667746,173.57375653806665</t>
+          <t>-34.94405509855184,173.57375660967426</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -29425,7 +29468,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-34.9440551667746,173.57375653806665</t>
+          <t>-34.94405509855184,173.57375660967426</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -29472,7 +29515,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-34.94402637676587,173.5737867564542</t>
+          <t>-34.94402678610253,173.57378632680906</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -29519,7 +29562,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-34.94401900870556,173.57379449006658</t>
+          <t>-34.94401941804226,173.5737940604215</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -29566,7 +29609,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-34.94400870706488,173.5738053028001</t>
+          <t>-34.94400911640161,173.57380487315513</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -29613,7 +29656,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-34.94400870706488,173.5738053028001</t>
+          <t>-34.94400911640161,173.57380487315513</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -29707,7 +29750,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-34.944015870457505,173.57379778401219</t>
+          <t>-34.94401614334865,173.57379749758215</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -29754,7 +29797,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-34.94399683629893,173.57381776250296</t>
+          <t>-34.94399669985335,173.57381790571787</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -29801,7 +29844,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-34.94400904817882,173.57380494476263</t>
+          <t>-34.94400822950536,173.5738058040526</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -29848,7 +29891,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-34.944014437779025,173.57379928776987</t>
+          <t>-34.94401341443722,173.57380036188246</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -29895,7 +29938,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-34.944038383974195,173.57377415352735</t>
+          <t>-34.94403667840491,173.57377594371607</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -29942,7 +29985,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-34.94398817200344,173.57382685665158</t>
+          <t>-34.94398632998778,173.573828790053</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -29989,7 +30032,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-34.943966477150376,173.57384962781853</t>
+          <t>-34.94396627248193,173.57384984264084</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -30083,7 +30126,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-34.94396190622167,173.57385442551572</t>
+          <t>-34.94396170155322,173.57385464033797</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -30130,7 +30173,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-34.94396190622167,173.57385442551572</t>
+          <t>-34.94396183799885,173.57385449712314</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -30177,7 +30220,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-34.943963680014924,173.57385256372285</t>
+          <t>-34.94396381646055,173.57385242050802</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -30224,7 +30267,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-34.943980667495,173.5738347334717</t>
+          <t>-34.943981486168674,173.5738338741823</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -30271,7 +30314,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-34.943980667495,173.5738347334717</t>
+          <t>-34.943981486168674,173.5738338741823</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -30318,7 +30361,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-34.943980667495,173.5738347334717</t>
+          <t>-34.943981486168674,173.5738338741823</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -30365,7 +30408,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-34.943966477150376,173.57384962781853</t>
+          <t>-34.94396688648727,173.573849198174</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -30412,7 +30455,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-34.943970502296395,173.5738454029803</t>
+          <t>-34.94397091163326,173.57384497333572</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -30459,7 +30502,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-34.943960609988146,173.57385578605664</t>
+          <t>-34.94396074643377,173.5738556428418</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -30506,7 +30549,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-34.943959859537124,173.57385657373817</t>
+          <t>-34.943960609988146,173.57385578605664</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -30553,7 +30596,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-34.94394546452137,173.57387168289966</t>
+          <t>-34.94394635141811,173.57387075200361</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -30600,7 +30643,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-34.94393393486285,173.57388378454655</t>
+          <t>-34.943933866640016,173.5738838561539</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -30647,7 +30690,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-34.943962452004214,173.57385385265638</t>
+          <t>-34.943963066009566,173.57385320818963</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -30694,7 +30737,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-34.94396327067801,173.57385299336735</t>
+          <t>-34.94396381646055,173.57385242050802</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -30741,7 +30784,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-34.943967568715415,173.57384848209975</t>
+          <t>-34.943967841606664,173.57384819567002</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -30835,7 +30878,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-34.94396859205762,173.57384740798832</t>
+          <t>-34.94396866028043,173.5738473363809</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -30882,7 +30925,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-34.943966545373186,173.57384955621112</t>
+          <t>-34.94396695471008,173.57384912656659</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -30929,7 +30972,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-34.94397896192483,173.5738365236579</t>
+          <t>-34.943978825479206,173.57383666687278</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -30976,7 +31019,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-34.943975005001924,173.57384067688957</t>
+          <t>-34.943975482561605,173.57384017563749</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -31023,7 +31066,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-34.943984351526474,173.57383086666925</t>
+          <t>-34.943984419749285,173.57383079506184</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -31070,7 +31113,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-34.94399410738704,173.57382062680193</t>
+          <t>-34.94399403916424,173.5738206984094</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -31117,7 +31160,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-34.94400345390999,173.57381081657707</t>
+          <t>-34.944003590355585,173.57381067336212</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -31164,7 +31207,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-34.94400331746441,173.57381095979207</t>
+          <t>-34.944003590355585,173.57381067336212</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -31258,7 +31301,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-34.94400952573835,173.57380444351014</t>
+          <t>-34.944009662183916,173.57380430029514</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -31305,7 +31348,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-34.94401027618901,173.57380365582762</t>
+          <t>-34.944010480857386,173.5738034410051</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -31352,7 +31395,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-34.94403510928115,173.57377759068962</t>
+          <t>-34.94403531394947,173.57377737586697</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -31399,7 +31442,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-34.94404411468682,173.5737681384928</t>
+          <t>-34.944043978241275,173.57376828170794</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -31446,7 +31489,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-34.9440432960136,173.57376899778353</t>
+          <t>-34.94404350068191,173.57376878296085</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -31493,7 +31536,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-34.944036269068285,173.57377637336137</t>
+          <t>-34.94403729240986,173.57377529924815</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -31540,7 +31583,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-34.944004204360695,173.57381002889468</t>
+          <t>-34.9440050230342,173.57380916960483</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -31587,7 +31630,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-34.94402173761684,173.5737916257659</t>
+          <t>-34.94402119183461,173.57379219862605</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -31634,7 +31677,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-34.94402337496358,173.57378990718536</t>
+          <t>-34.944023988968596,173.57378926271764</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -31681,7 +31724,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-34.944054962106314,173.5737567528894</t>
+          <t>-34.94405632656152,173.57375532073783</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -31728,7 +31771,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-34.944034222385085,173.57377852158766</t>
+          <t>-34.94403442705341,173.57377830676504</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -31775,7 +31818,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-34.94402480764196,173.57378840342733</t>
+          <t>-34.94402535342417,173.57378783056714</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -31822,7 +31865,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-34.94401409666509,173.57379964580744</t>
+          <t>-34.944014642447364,173.57379907294734</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -31963,7 +32006,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-34.943996904521725,173.57381769089545</t>
+          <t>-34.94399676807614,173.5738178341104</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -32010,7 +32053,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-34.94399001401908,173.57382492325007</t>
+          <t>-34.943989536459476,173.57382542450233</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -32057,7 +32100,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-34.943988376671854,173.57382664182919</t>
+          <t>-34.94398817200344,173.57382685665158</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -32104,7 +32147,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-34.943988376671854,173.57382664182919</t>
+          <t>-34.94398817200344,173.57382685665158</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -32151,7 +32194,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-34.943988376671854,173.57382664182919</t>
+          <t>-34.94398817200344,173.57382685665158</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -32198,7 +32241,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-34.94398223661955,173.57383308650034</t>
+          <t>-34.94398210017393,173.57383322971523</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -32339,7 +32382,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-34.943971525638574,173.57384432886883</t>
+          <t>-34.94397125274733,173.57384461529853</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -32386,7 +32429,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-34.94397527789317,173.57384039045982</t>
+          <t>-34.943975346115984,173.57384031885238</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -32433,7 +32476,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-34.94398250951076,173.5738328000705</t>
+          <t>-34.94398271417917,173.57383258524817</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -32480,7 +32523,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-34.94397664234935,173.573838958311</t>
+          <t>-34.94397684701778,173.57383874348866</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -32527,7 +32570,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-34.94397896192483,173.5738365236579</t>
+          <t>-34.94397916659325,173.57383630883555</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -32574,7 +32617,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-34.94397793858272,173.57383759776957</t>
+          <t>-34.94397787035991,173.573837669377</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -32621,7 +32664,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-34.94398339640722,173.57383186917363</t>
+          <t>-34.94398346463003,173.57383179756619</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -32668,7 +32711,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-34.9439778021371,173.57383774098446</t>
+          <t>-34.94397827969674,173.57383723973234</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -32715,7 +32758,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-34.943980872163415,173.57383451864936</t>
+          <t>-34.943981486168674,173.5738338741823</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -32762,7 +32805,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-34.94396845561198,173.5738475512032</t>
+          <t>-34.943969069617324,173.57384690673632</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -32809,7 +32852,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-34.9439680462751,173.57384798084777</t>
+          <t>-34.943968933171696,173.57384704995118</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -32856,7 +32899,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-34.94396852383482,173.57384747959574</t>
+          <t>-34.94396920606294,173.57384676352146</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -32903,7 +32946,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-34.94396900139451,173.57384697834377</t>
+          <t>-34.9439694789542,173.57384647709176</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -32950,7 +32993,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-34.94395071767898,173.57386616913044</t>
+          <t>-34.94395085412462,173.57386602591566</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -32997,7 +33040,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-34.943956448396115,173.57386015410867</t>
+          <t>-34.94395672128739,173.57385986767903</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -33044,7 +33087,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-34.94395672128739,173.57385986767903</t>
+          <t>-34.943956857733035,173.5738597244642</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -33185,7 +33228,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-34.94394778409749,173.5738692482484</t>
+          <t>-34.94394798876596,173.57386903342623</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -33232,7 +33275,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-34.94394485051591,173.57387232736616</t>
+          <t>-34.94394519163004,173.57387196932925</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -33279,7 +33322,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-34.94394525985288,173.57387189772186</t>
+          <t>-34.943945737412676,173.5738713964701</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -33326,7 +33369,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-34.9439413711516,173.57387597934272</t>
+          <t>-34.94394191693424,173.5738754064837</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -33373,7 +33416,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-34.94395651661894,173.57386008250126</t>
+          <t>-34.943956994178684,173.5738595812494</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -33420,7 +33463,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-34.943960405319665,173.57385600087886</t>
+          <t>-34.9439608828794,173.57385549962697</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -33467,7 +33510,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-34.94396136043913,173.57385499837505</t>
+          <t>-34.94396190622167,173.57385442551572</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -33514,7 +33557,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-34.94396415757464,173.5738520624709</t>
+          <t>-34.943964976248445,173.57385120318185</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -33561,7 +33604,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-34.94396709115571,173.57384898335172</t>
+          <t>-34.9439680462751,173.57384798084777</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -33608,7 +33651,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-34.94398557953694,173.57382957773504</t>
+          <t>-34.94398605709658,173.57382907648284</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -33655,7 +33698,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-34.94398025815817,173.5738351631164</t>
+          <t>-34.94398046282658,173.57383494829404</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -33702,7 +33745,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-34.94400283990485,173.57381146104447</t>
+          <t>-34.94400263523647,173.57381167586695</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -33749,7 +33792,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-34.94398864956307,173.57382635539935</t>
+          <t>-34.94398824022626,173.5738267850441</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -33796,7 +33839,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-34.94398141794587,173.57383394578974</t>
+          <t>-34.94398080394061,173.57383459025678</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -33843,7 +33886,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-34.94397022940514,173.57384568941</t>
+          <t>-34.943969820068254,173.57384611905462</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -33890,7 +33933,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-34.94398032638096,173.57383509150895</t>
+          <t>-34.94397978059852,173.57383566436852</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -33937,7 +33980,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-34.94397541433879,173.57384024724493</t>
+          <t>-34.94397507322474,173.57384060528213</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -33984,7 +34027,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-34.943978347919554,173.5738371681249</t>
+          <t>-34.943978075028326,173.57383745455468</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -34031,7 +34074,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-34.94397896192483,173.5738365236579</t>
+          <t>-34.943978893702024,173.57383659526533</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -34078,7 +34121,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-34.94396483980281,173.5738513463967</t>
+          <t>-34.94396449868872,173.57385170443382</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -34125,7 +34168,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-34.94396286134111,173.57385342301188</t>
+          <t>-34.94396272489549,173.57385356622672</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -34172,7 +34215,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-34.943955493276604,173.57386115661237</t>
+          <t>-34.94395501571685,173.5738616578642</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -34219,7 +34262,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-34.94395446993429,173.57386223072342</t>
+          <t>-34.94395399237452,173.57386273197525</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -34266,7 +34309,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-34.9439336619715,173.57388407097602</t>
+          <t>-34.943933252634494,173.57388450062024</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -34313,7 +34356,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-34.94390002810869,173.5739193733938</t>
+          <t>-34.94389961877155,173.57391980303765</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -34360,7 +34403,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-34.94388481441081,173.5739353418208</t>
+          <t>-34.94388467796508,173.57393548503538</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -34407,7 +34450,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-34.94388215371904,173.57393813450474</t>
+          <t>-34.94388167615897,173.5739386357557</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -34501,7 +34544,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-34.943895525400116,173.57392409947596</t>
+          <t>-34.943895388954395,173.57392424269057</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -34548,7 +34591,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-34.943903098137156,173.57391615106476</t>
+          <t>-34.94390337102856,173.57391586463552</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -34595,7 +34638,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-34.943906372834086,173.57391271391356</t>
+          <t>-34.94390685039405,173.57391221266232</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -34642,7 +34685,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-34.943906372834086,173.57391271391356</t>
+          <t>-34.94390685039405,173.57391221266232</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -34689,7 +34732,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-34.943916196924334,173.57390240245823</t>
+          <t>-34.943916401592865,173.5739021876362</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -34736,7 +34779,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>-34.943922064088916,173.57389624422677</t>
+          <t>-34.94392288276303,173.57389538493862</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -34783,7 +34826,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-34.943922064088916,173.57389624422677</t>
+          <t>-34.94392288276303,173.57389538493862</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -34830,7 +34873,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-34.94395119523875,173.57386566787866</t>
+          <t>-34.943951945689825,173.57386488019728</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -34877,7 +34920,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-34.94395180924418,173.57386502341208</t>
+          <t>-34.94395215035829,173.57386466537508</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -34924,7 +34967,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-34.94397022940514,173.57384568941</t>
+          <t>-34.94396975184544,173.57384619066204</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -34971,7 +35014,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-34.94397022940514,173.57384568941</t>
+          <t>-34.94396975184544,173.57384619066204</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -35018,7 +35061,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-34.94396790982948,173.5738481240626</t>
+          <t>-34.94396729582416,173.57384876852944</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -35065,7 +35108,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-34.943963748237735,173.57385249211544</t>
+          <t>-34.94396258844986,173.57385370944155</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -35112,7 +35155,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-34.94395692595586,173.5738596528568</t>
+          <t>-34.9439557661679,173.57386087018273</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -35159,7 +35202,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-34.94395692595586,173.5738596528568</t>
+          <t>-34.9439557661679,173.57386087018273</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -35206,7 +35249,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-34.94395010367356,173.57386681359702</t>
+          <t>-34.94394914855401,173.57386781610055</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -35253,7 +35296,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-34.94394485051591,173.57387232736616</t>
+          <t>-34.94394410006478,173.5738731150474</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -35300,7 +35343,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-34.94393181995494,173.5738860043749</t>
+          <t>-34.943931137726565,173.57388672044854</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -35347,7 +35390,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-34.943935913325035,173.57388170793283</t>
+          <t>-34.943935299319534,173.57388235239918</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -35394,7 +35437,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-34.943926293905065,173.57389180457105</t>
+          <t>-34.94392643035073,173.5738916613563</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -35441,7 +35484,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-34.94392131363765,173.57389703190762</t>
+          <t>-34.94392192764324,173.5738963874415</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -35488,7 +35531,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-34.94391223999919,173.57390655568358</t>
+          <t>-34.943913195119066,173.57390555318094</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -35535,7 +35578,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-34.943912717559144,173.57390605443226</t>
+          <t>-34.94391380912471,173.57390490871495</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -35582,7 +35625,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-34.94391080731937,173.57390805943749</t>
+          <t>-34.9439123764449,173.57390641246892</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -35629,7 +35672,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-34.94391960806658,173.57389882209122</t>
+          <t>-34.94392158652902,173.5738967454782</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -35676,7 +35719,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-34.94392015384932,173.57389824923249</t>
+          <t>-34.94392179119755,173.57389653065619</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -35723,7 +35766,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-34.94392145008334,173.5738968886929</t>
+          <t>-34.943922609871656,173.573895671368</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -35770,7 +35813,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-34.94392322387723,173.57389502690188</t>
+          <t>-34.94392431544269,173.57389388118426</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -35817,7 +35860,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-34.94392315565439,173.5738950985092</t>
+          <t>-34.9439245201112,173.5738936663622</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -35864,7 +35907,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>-34.94392574812235,173.57389237742984</t>
+          <t>-34.9439263621279,173.57389173296366</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -35911,7 +35954,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-34.94393236573763,173.573885431516</t>
+          <t>-34.943933252634494,173.57388450062024</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -35958,7 +36001,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-34.94395201391264,173.5738648085899</t>
+          <t>-34.94395208213546,173.5738647369825</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -36005,7 +36048,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>-34.943949216776836,173.57386774449316</t>
+          <t>-34.94394955789096,173.5738673864562</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -36052,7 +36095,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-34.943951945689825,173.57386488019728</t>
+          <t>-34.94395228680394,173.57386452216028</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -36099,7 +36142,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>-34.943960405319665,173.57385600087886</t>
+          <t>-34.9439608828794,173.57385549962697</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -36146,7 +36189,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-34.943985852428156,173.5738292913052</t>
+          <t>-34.94398721688422,173.57382785915604</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -36193,7 +36236,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-34.94401307332329,173.57380071992</t>
+          <t>-34.94401471067016,173.57379900133986</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -36240,7 +36283,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>-34.94398946823667,173.57382549610978</t>
+          <t>-34.94399042335588,173.57382449360526</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -36287,7 +36330,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-34.943972821871995,173.57384296832754</t>
+          <t>-34.94397309476323,173.57384268189782</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -36334,7 +36377,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-34.94397145741578,173.57384440047625</t>
+          <t>-34.94397220786669,173.57384361279446</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -36381,7 +36424,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-34.94396067821095,173.57385571444922</t>
+          <t>-34.94396101932504,173.57385535641214</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -36428,7 +36471,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>-34.94395890441764,173.57385757624192</t>
+          <t>-34.943959586645846,173.5738568601678</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -36475,7 +36518,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>-34.94393993847216,173.5738774830977</t>
+          <t>-34.94394027958632,173.57387712506082</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -36522,7 +36565,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-34.94394314494518,173.5738741175508</t>
+          <t>-34.943943281390844,173.573873974336</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -36569,7 +36612,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-34.94394314494518,173.5738741175508</t>
+          <t>-34.943943281390844,173.573873974336</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -36616,7 +36659,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-34.94394539629854,173.57387175450705</t>
+          <t>-34.943945737412676,173.5738713964701</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -36663,7 +36706,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>-34.94393407130851,173.5738836413318</t>
+          <t>-34.94393373019434,173.57388399936866</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -36710,7 +36753,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-34.9439354357652,173.5738822091844</t>
+          <t>-34.94393495820537,173.573882710436</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -36757,7 +36800,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-34.94393243396047,173.57388535990862</t>
+          <t>-34.94393209284628,173.57388571794544</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -36804,7 +36847,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-34.943924588334056,173.57389359475485</t>
+          <t>-34.94392404255132,173.57389416761367</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -36851,7 +36894,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-34.94392561167666,173.57389252064456</t>
+          <t>-34.943924656556895,173.5738935231475</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -36898,7 +36941,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-34.94394048425481,173.57387691023868</t>
+          <t>-34.94394021136348,173.5738771966682</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -36945,7 +36988,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>-34.94392663501926,173.57389144653425</t>
+          <t>-34.943926703242084,173.5738913749269</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -37039,7 +37082,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-34.94392915926429,173.573888797062</t>
+          <t>-34.943929363932796,173.57388858223993</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -37086,7 +37129,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-34.94392192764324,173.5738963874415</t>
+          <t>-34.943921995866084,173.57389631583413</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -37133,7 +37176,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-34.94392049496353,173.57389789119574</t>
+          <t>-34.94392042674069,173.5738979628031</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -37227,7 +37270,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>-34.94390337102856,173.57391586463552</t>
+          <t>-34.94390316636001,173.57391607945746</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -37274,7 +37317,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>-34.94390050566868,173.57391887214263</t>
+          <t>-34.94390036922296,173.57391901535726</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -37321,7 +37364,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>-34.94389682163441,173.5739227389372</t>
+          <t>-34.94389695808013,173.5739225957226</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -37368,7 +37411,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>-34.94388836199973,173.57393161824194</t>
+          <t>-34.94388829377687,173.57393168984922</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -37415,7 +37458,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>-34.94388529197086,173.57393484056982</t>
+          <t>-34.94388549663945,173.57393462574797</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -37509,7 +37552,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>-34.943879697695806,173.57394071236666</t>
+          <t>-34.94387935658146,173.57394107040307</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -37556,7 +37599,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>-34.9438904086856,173.57392947002322</t>
+          <t>-34.943890204017016,173.5739296848451</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -37603,7 +37646,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>-34.94389695808013,173.5739225957226</t>
+          <t>-34.943896685188705,173.5739228821518</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -37650,7 +37693,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>-34.9439053494913,173.57391378802333</t>
+          <t>-34.9439050765999,173.5739140744526</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -37697,7 +37740,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>-34.94390275702288,173.57391650910134</t>
+          <t>-34.94390255235431,173.5739167239233</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -37744,7 +37787,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>-34.94390555415986,173.5739135732014</t>
+          <t>-34.94390541771416,173.57391371641603</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -37791,7 +37834,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>-34.943913263341926,173.57390548157363</t>
+          <t>-34.943912854004836,173.5739059112176</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -37838,7 +37881,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>-34.9439053494913,173.57391378802333</t>
+          <t>-34.943904667262785,173.5739145040965</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -37885,7 +37928,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>-34.94391953984372,173.57389889369855</t>
+          <t>-34.943918380055365,173.57390011102336</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -37932,7 +37975,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>-34.94391551469587,173.5739031185316</t>
+          <t>-34.94391435490747,173.57390433585627</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -37979,7 +38022,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>-34.94391046620514,173.57390841747414</t>
+          <t>-34.94390964753094,173.57390927676204</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -38026,7 +38069,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>-34.94386632601283,173.57395474739008</t>
+          <t>-34.94386530266967,173.5739558214988</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -38073,7 +38116,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>-34.943861550411384,173.57395975989732</t>
+          <t>-34.94386073173681,173.57396061918422</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -38120,7 +38163,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>-34.94385513746054,173.5739664909776</t>
+          <t>-34.943854250563035,173.57396742187157</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -38167,7 +38210,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>-34.94385384122573,173.57396785151494</t>
+          <t>-34.94385322721978,173.57396849598</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -38214,7 +38257,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>-34.94384640493112,173.5739756567022</t>
+          <t>-34.94384599559379,173.5739760863455</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -38261,7 +38304,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>-34.94384660959978,173.57397544188055</t>
+          <t>-34.943846063816686,173.5739760147383</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -38308,7 +38351,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>-34.943834807039444,173.57398782992723</t>
+          <t>-34.943834329479174,173.57398833117762</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -38355,7 +38398,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>-34.943830372551126,173.57399248439472</t>
+          <t>-34.94382989499084,173.57399298564502</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -38402,7 +38445,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>-34.943830372551126,173.57399248439472</t>
+          <t>-34.94382989499084,173.57399298564502</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -38449,7 +38492,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>-34.94383310146704,173.57398962010708</t>
+          <t>-34.94383323791283,173.5739894768927</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -38496,7 +38539,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>-34.94381133836083,173.57401246279562</t>
+          <t>-34.94381127013792,173.57401253440278</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -38543,7 +38586,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>-34.94381133836083,173.57401246279562</t>
+          <t>-34.94381127013792,173.57401253440278</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -38590,7 +38633,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>-34.94381549995826,173.57400809475894</t>
+          <t>-34.94381556818118,173.57400802315178</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -38637,7 +38680,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>-34.94380513007583,173.57401897904626</t>
+          <t>-34.94380499363001,173.57401912226052</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -38684,7 +38727,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>-34.94380533474458,173.57401876422483</t>
+          <t>-34.94380526652166,173.57401883583196</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -38731,7 +38774,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>-34.943824914719116,173.57399821296937</t>
+          <t>-34.94382477827332,173.57399835618375</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -38778,7 +38821,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>-34.943824914719116,173.57399821296937</t>
+          <t>-34.94382477827332,173.57399835618375</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -38825,7 +38868,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>-34.94384476758178,173.57397737527538</t>
+          <t>-34.943844631135995,173.57397751848978</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -38872,7 +38915,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>-34.943840469539644,173.57398188652954</t>
+          <t>-34.94384012842518,173.57398224456557</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -38966,7 +39009,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>-34.943856706586836,173.57396484401124</t>
+          <t>-34.94385691125548,173.57396462918953</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -39013,7 +39056,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>-34.94387280718589,173.57394794470073</t>
+          <t>-34.94387321652314,173.57394751505717</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -39060,7 +39103,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>-34.943877514564,173.57394300379937</t>
+          <t>-34.94387799212409,173.57394250254848</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -39107,7 +39150,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>-34.943879083689986,173.57394135683214</t>
+          <t>-34.943880243478745,173.5739401395085</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -39154,7 +39197,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>-34.94390889707958,173.57391006444263</t>
+          <t>-34.94391026153658,173.5739086322961</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -39201,7 +39244,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>-34.94388965823413,173.57393025770344</t>
+          <t>-34.94389136380566,173.5739284675211</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -39248,7 +39291,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>-34.943879493027204,173.57394092718852</t>
+          <t>-34.94388092570743,173.57393942343575</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -39295,7 +39338,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>-34.94388406395929,173.5739361295009</t>
+          <t>-34.94388549663945,173.57393462574797</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -39342,7 +39385,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>-34.943872261402916,173.57394851755882</t>
+          <t>-34.94387362586038,173.57394708541358</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -39389,7 +39432,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>-34.94387212495717,173.57394866077334</t>
+          <t>-34.943873966974735,173.57394672737726</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -39436,7 +39479,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>-34.943875194986404,173.57394543844651</t>
+          <t>-34.943877037003915,173.57394350505027</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -39483,7 +39526,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>-34.94386502977816,173.5739561079278</t>
+          <t>-34.94386646245857,173.57395460417558</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -39530,7 +39573,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>-34.943860527068175,173.57396083400593</t>
+          <t>-34.94386202797152,173.57395925864662</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -39577,7 +39620,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>-34.94386284664608,173.5739583993597</t>
+          <t>-34.94386427932651,173.57395689560755</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -39624,7 +39667,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>-34.94386284664608,173.5739583993597</t>
+          <t>-34.94386427932651,173.57395689560755</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -39671,7 +39714,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>-34.94388167615897,173.5739386357557</t>
+          <t>-34.94388304061629,173.57393720361011</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -39718,7 +39761,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>-34.94389122735995,173.57392861073572</t>
+          <t>-34.94389225070285,173.5739275366263</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -39765,7 +39808,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>-34.943898936542986,173.57392051911074</t>
+          <t>-34.94389961877155,173.57391980303765</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -39812,7 +39855,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>-34.94391428668463,173.57390440746363</t>
+          <t>-34.943914423130316,173.57390426424897</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -39859,7 +39902,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>-34.94391817538684,173.57390032584541</t>
+          <t>-34.943918652946756,173.573899824594</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -39906,7 +39949,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>-34.94394853454857,173.5738684605671</t>
+          <t>-34.94394928499966,173.57386767288574</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -39953,7 +39996,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>-34.94394525985288,173.57387189772186</t>
+          <t>-34.94394553274419,173.57387161129228</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -40000,7 +40043,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>-34.943937141336036,173.57388041900012</t>
+          <t>-34.94393816467853,173.57387934488952</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -40047,7 +40090,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>-34.94395713062432,173.5738594380346</t>
+          <t>-34.94395781285253,173.5738587219605</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -40094,7 +40137,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>-34.943961087547855,173.57385528480472</t>
+          <t>-34.943962179112944,173.57385413908605</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -40141,7 +40184,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>-34.943963407123654,173.57385285015252</t>
+          <t>-34.94396408935183,173.57385213407832</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -40188,7 +40231,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>-34.943972685426374,173.57384311154243</t>
+          <t>-34.943972890094805,173.57384289672012</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -40235,7 +40278,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>-34.94398414685807,173.57383108149165</t>
+          <t>-34.94398469264049,173.573830508632</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -40282,7 +40325,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>-34.94399028691028,173.5738246368202</t>
+          <t>-34.94399103736107,173.57382384913808</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -40329,7 +40372,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>-34.94399478961502,173.5738199107272</t>
+          <t>-34.94399519895182,173.57381948108235</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -40376,7 +40419,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>-34.944010890194114,173.57380301136013</t>
+          <t>-34.944011435976414,173.5738024385001</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -40423,7 +40466,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>-34.94400911640161,173.57380487315513</t>
+          <t>-34.94400952573835,173.57380444351014</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -40470,7 +40513,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>-34.94401382377395,173.57379993223745</t>
+          <t>-34.94401389199673,173.57379986062992</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -40517,7 +40560,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>-34.94401682557648,173.57379678150704</t>
+          <t>-34.9440167573537,173.57379685311454</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -40564,7 +40607,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>-34.94401627979421,173.57379735436714</t>
+          <t>-34.94401641623979,173.5737972111521</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -40611,7 +40654,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>-34.94401123130805,173.57380265332262</t>
+          <t>-34.944011572421985,173.5738022952851</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -40658,7 +40701,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>-34.94401123130805,173.57380265332262</t>
+          <t>-34.944011572421985,173.5738022952851</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -40705,7 +40748,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>-34.94400741083188,173.57380666334254</t>
+          <t>-34.9440079566142,173.57380609048258</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -40752,7 +40795,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>-34.94400679682676,173.57380730781</t>
+          <t>-34.944007137940716,173.57380694977255</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -40799,7 +40842,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>-34.944006660381184,173.573807451025</t>
+          <t>-34.94400679682676,173.57380730781</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -40893,7 +40936,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>-34.94400788839141,173.57380616209008</t>
+          <t>-34.944007751945826,173.57380630530506</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -40940,7 +40983,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>-34.94400993507507,173.57380401386513</t>
+          <t>-34.9440097986295,173.57380415708013</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -40987,7 +41030,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>-34.94400993507507,173.57380401386513</t>
+          <t>-34.9440097986295,173.57380415708013</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -41034,7 +41077,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>-34.94400932106998,173.57380465833262</t>
+          <t>-34.94400870706488,173.5738053028001</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -41081,7 +41124,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>-34.9440192815967,173.57379420363654</t>
+          <t>-34.94401859936887,173.5737949197117</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -41128,7 +41171,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>-34.944020441384005,173.57379298630875</t>
+          <t>-34.94402010027008,173.57379334434634</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -41175,7 +41218,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>-34.94402903745419,173.57378396376052</t>
+          <t>-34.944028901008636,173.57378410697558</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -41222,7 +41265,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>-34.94402903745419,173.57378396376052</t>
+          <t>-34.944028901008636,173.57378410697558</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -41269,7 +41312,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>-34.94405332476004,173.57375847147125</t>
+          <t>-34.94405284720071,173.57375897272428</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -41316,7 +41359,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>-34.944047389379605,173.57376470132982</t>
+          <t>-34.944047321156845,173.5737647729374</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -41363,7 +41406,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>-34.94404773049343,173.57376434329203</t>
+          <t>-34.944047389379605,173.57376470132982</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -41410,7 +41453,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>-34.94404889028044,173.57376312596338</t>
+          <t>-34.94404848094385,173.5737635556088</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -41457,7 +41500,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>-34.94405264253243,173.57375918754698</t>
+          <t>-34.94405223319585,173.57375961719242</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -41504,7 +41547,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>-34.94405523499736,173.5737564664591</t>
+          <t>-34.94405482566079,173.57375689610456</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -41551,7 +41594,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>-34.94405591722496,173.57375575038327</t>
+          <t>-34.944055780779436,173.57375589359845</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -41598,7 +41641,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>-34.9440517556365,173.57376011844542</t>
+          <t>-34.944051892082044,173.5737599752303</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -41645,7 +41688,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>-34.94404288667699,173.57376942742889</t>
+          <t>-34.944043159568075,173.57376914099862</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -41692,7 +41735,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>-34.94404288667699,173.57376942742889</t>
+          <t>-34.944043159568075,173.57376914099862</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -41739,7 +41782,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>-34.94403729240986,173.57377529924815</t>
+          <t>-34.94403763352372,173.57377494121042</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -41786,7 +41829,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>-34.944037906414806,173.5737746547802</t>
+          <t>-34.944038111083124,173.5737744399576</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -41833,7 +41876,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>-34.94403558684056,173.57377708943682</t>
+          <t>-34.94403579150888,173.57377687461414</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -41880,7 +41923,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>-34.944029378568075,173.57378360572284</t>
+          <t>-34.94402958323639,173.57378339090027</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -41927,7 +41970,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>-34.9440256263153,173.57378754413702</t>
+          <t>-34.944025762760845,173.573787400922</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -41974,7 +42017,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>-34.9440196227106,173.57379384559897</t>
+          <t>-34.94401975915618,173.57379370238394</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -42021,7 +42064,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>-34.94401013974344,173.57380379904262</t>
+          <t>-34.944010480857386,173.5738034410051</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -42068,7 +42111,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>-34.944003863246735,173.57381038693217</t>
+          <t>-34.94400440902907,173.57380981407223</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -42162,7 +42205,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>-34.94397473211069,173.57384096331933</t>
+          <t>-34.94397527789317,173.57384039045982</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -42209,7 +42252,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>-34.94397022940514,173.57384568941</t>
+          <t>-34.94397091163326,173.57384497333572</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -42256,7 +42299,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>-34.94397022940514,173.57384568941</t>
+          <t>-34.94397091163326,173.57384497333572</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -42303,7 +42346,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>-34.94397138919296,173.57384447208366</t>
+          <t>-34.94397200319826,173.5738438276168</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -42350,7 +42393,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>-34.943981213277446,173.5738341606121</t>
+          <t>-34.94398196372831,173.57383337293015</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -42397,7 +42440,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>-34.94398346463003,173.57383179756619</t>
+          <t>-34.94398407863526,173.5738311530991</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -42444,7 +42487,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>-34.943989331791066,173.5738256393247</t>
+          <t>-34.94399028691028,173.5738246368202</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -42491,7 +42534,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>-34.94399185603468,173.57382298984845</t>
+          <t>-34.94399247003987,173.57382234538125</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -42538,7 +42581,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>-34.9439829870704,173.57383229881836</t>
+          <t>-34.94398394218966,173.573831296314</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -42585,7 +42628,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>-34.94398053104938,173.5738348766866</t>
+          <t>-34.94398155439148,173.57383380257485</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -42632,7 +42675,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>-34.9439805992722,173.57383480507914</t>
+          <t>-34.9439816908371,173.57383365935993</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -42679,7 +42722,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>-34.94398578420536,173.57382936291268</t>
+          <t>-34.94398667110179,173.57382843201572</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -42726,7 +42769,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>-34.94400208945413,173.57381224872682</t>
+          <t>-34.944003112796025,173.57381117461455</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -42773,7 +42816,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>-34.94400208945413,173.57381224872682</t>
+          <t>-34.944003112796025,173.57381117461455</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -42820,7 +42863,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>-34.94399840542324,173.57381611553092</t>
+          <t>-34.94399963343355,173.57381482659628</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -42867,7 +42910,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>-34.94399649518495,173.57381812054032</t>
+          <t>-34.94399779141807,173.57381675999824</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -42914,7 +42957,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>-34.944001134335025,173.57381325123163</t>
+          <t>-34.9440024305681,173.5738118906894</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -42961,7 +43004,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>-34.943990628024274,173.57382427878287</t>
+          <t>-34.94399199248028,173.57382284663353</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -43008,7 +43051,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>-34.943987694443834,173.5738273579038</t>
+          <t>-34.94398892245426,173.57382606896948</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -43055,7 +43098,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>-34.943987694443834,173.5738273579038</t>
+          <t>-34.94398892245426,173.57382606896948</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -43102,7 +43145,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>-34.94398407863526,173.5738311530991</t>
+          <t>-34.94398537486853,173.57382979255743</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -43149,7 +43192,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>-34.94397459566507,173.5738411065342</t>
+          <t>-34.94397561900722,173.57384003242262</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -43196,7 +43239,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>-34.943972276089504,173.57384354118705</t>
+          <t>-34.94397316298605,173.57384261029037</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -43243,7 +43286,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>-34.94396900139451,173.57384697834377</t>
+          <t>-34.94397009295951,173.5738458326249</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -43290,7 +43333,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>-34.94396825094355,173.57384776602547</t>
+          <t>-34.9439694789542,173.57384647709176</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -43337,7 +43380,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>-34.94394253093971,173.57387476201725</t>
+          <t>-34.94394355428216,173.57387368790648</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -43384,7 +43427,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>-34.943941780488586,173.57387554969844</t>
+          <t>-34.94394273560821,173.5738745471951</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -43431,7 +43474,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>-34.94393761889587,173.5738799177485</t>
+          <t>-34.94393857401552,173.57387891524525</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -43478,7 +43521,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>-34.94393072838955,173.5738871500927</t>
+          <t>-34.94393168350926,173.57388614758963</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -43525,7 +43568,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>-34.94392704435629,173.57389101689012</t>
+          <t>-34.94392793125319,173.57389008599446</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -43572,7 +43615,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>-34.94392288276303,173.57389538493862</t>
+          <t>-34.943923496768605,173.57389474047247</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -43619,7 +43662,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>-34.94392329210008,173.5738949552945</t>
+          <t>-34.94392404255132,173.57389416761367</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -43666,7 +43709,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>-34.94392370143712,173.57389452565042</t>
+          <t>-34.943924588334056,173.57389359475485</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -43713,7 +43756,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>-34.94392226875745,173.57389602940475</t>
+          <t>-34.943922678094495,173.57389559976065</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -43760,7 +43803,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>-34.94391776604978,173.57390075548943</t>
+          <t>-34.9439179707183,173.5739005406674</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -43807,7 +43850,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>-34.943918380055365,173.57390011102336</t>
+          <t>-34.943918652946756,173.573899824594</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -43854,7 +43897,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>-34.94391701559847,173.57390154317017</t>
+          <t>-34.94391749315839,173.5739010419188</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -43901,7 +43944,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>-34.94392226875745,173.57389602940475</t>
+          <t>-34.94392281454018,173.57389545654596</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -43948,7 +43991,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>-34.94392615745938,173.57389194778574</t>
+          <t>-34.94392656679642,173.5738915181416</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -43995,7 +44038,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>-34.943923974328484,173.573894239221</t>
+          <t>-34.94392424721985,173.5738939527916</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -44042,7 +44085,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>-34.943939870249324,173.57387755470506</t>
+          <t>-34.94394055247764,173.5738768386313</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -44089,7 +44132,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>-34.94394266738538,173.57387461880248</t>
+          <t>-34.94394355428216,173.57387368790648</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -44136,7 +44179,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>-34.943945328075706,173.57387182611444</t>
+          <t>-34.943946283195295,173.573870823611</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -44183,7 +44226,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>-34.94394648786377,173.57387060878884</t>
+          <t>-34.943947511206176,173.57386953467798</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -44230,7 +44273,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>-34.943953037255,173.57386373447886</t>
+          <t>-34.94395392415171,173.57386280358267</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -44277,7 +44320,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>-34.94395180924418,173.57386502341208</t>
+          <t>-34.94395255969524,173.57386423573067</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -44324,7 +44367,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>-34.94395092234746,173.57386595430825</t>
+          <t>-34.94395174102136,173.57386509501947</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -44371,7 +44414,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>-34.943951399907235,173.57386545305647</t>
+          <t>-34.94395235502676,173.5738644505529</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -44418,7 +44461,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>-34.94394805698878,173.57386896181885</t>
+          <t>-34.943948875662706,173.5738681025301</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -44465,7 +44508,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>-34.943955493276604,173.57386115661237</t>
+          <t>-34.94395603905919,173.57386058375312</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -44512,7 +44555,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>-34.94395945020021,173.57385700338264</t>
+          <t>-34.9439601324284,173.5738562873085</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -44559,7 +44602,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>-34.94395945020021,173.57385700338264</t>
+          <t>-34.9439601324284,173.5738562873085</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -44606,7 +44649,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>-34.94396709115571,173.57384898335172</t>
+          <t>-34.943967841606664,173.57384819567002</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -44653,7 +44696,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>-34.94396831916637,173.57384769441805</t>
+          <t>-34.943968864948864,173.57384712155863</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -44700,7 +44743,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>-34.94397364054573,173.57384210903834</t>
+          <t>-34.943974186328205,173.57384153617883</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -44747,7 +44790,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>-34.94397514144755,173.57384053367468</t>
+          <t>-34.94397575545283,173.57383988920773</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -44794,7 +44837,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>-34.943972480757935,173.57384332636474</t>
+          <t>-34.943972821871995,173.57384296832754</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -44841,7 +44884,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>-34.94397391343696,173.57384182260859</t>
+          <t>-34.9439741181054,173.57384160778625</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -44888,7 +44931,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>-34.94397800680553,173.57383752616212</t>
+          <t>-34.94397787035991,173.573837669377</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -44982,7 +45025,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>-34.94397664234935,173.573838958311</t>
+          <t>-34.94397609656688,173.57383953117053</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -45029,7 +45072,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>-34.943971320970135,173.5738445436911</t>
+          <t>-34.943970570519205,173.57384533137287</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -45076,7 +45119,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>-34.94397520967036,173.57384046206727</t>
+          <t>-34.94397466388787,173.57384103492674</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -45123,7 +45166,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>-34.94398264595637,173.57383265685561</t>
+          <t>-34.94398210017393,173.57383322971523</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -45170,7 +45213,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>-34.94398360107563,173.57383165435127</t>
+          <t>-34.9439829870704,173.57383229881836</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -45217,7 +45260,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>-34.94398319173881,173.57383208399602</t>
+          <t>-34.94398264595637,173.57383265685561</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -45264,7 +45307,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>-34.94398632998778,173.573828790053</t>
+          <t>-34.94398571598256,173.57382943452015</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -45311,7 +45354,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>-34.94398714866142,173.57382793076349</t>
+          <t>-34.94398653465619,173.57382857523064</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -45358,7 +45401,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>-34.943994380278234,173.57382034037204</t>
+          <t>-34.94399383449585,173.5738209132318</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -45405,7 +45448,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>-34.94399465316942,173.57382005394214</t>
+          <t>-34.94399417560984,173.57382055519446</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -45452,7 +45495,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>-34.94399465316942,173.57382005394214</t>
+          <t>-34.94399417560984,173.57382055519446</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -45499,7 +45542,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>-34.94399465316942,173.57382005394214</t>
+          <t>-34.94399417560984,173.57382055519446</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -45546,7 +45589,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>-34.943996290516566,173.57381833536274</t>
+          <t>-34.94399574473419,173.57381890822256</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -45593,7 +45636,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>-34.944004818365826,173.5738093844273</t>
+          <t>-34.944004545474655,173.57380967085726</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -45640,7 +45683,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>-34.94400611459886,173.57380802388494</t>
+          <t>-34.9440057734849,173.57380838192242</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -45687,7 +45730,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>-34.944004067915124,173.5738101721097</t>
+          <t>-34.944003863246735,173.57381038693217</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -45734,7 +45777,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>-34.94400004277032,173.57381439695138</t>
+          <t>-34.94399976987914,173.57381468338133</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -45781,7 +45824,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>-34.944000452107076,173.57381396730648</t>
+          <t>-34.944000179215905,173.57381425373643</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -45810,6 +45853,53 @@
         </is>
       </c>
       <c r="I489" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>-34.94342221110251,173.57339424197113</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>-34.94399581295698,173.5738188366151</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>-34.94438010038796,173.57452423156064</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>-34.944697496165986,173.57531337868457</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>-34.94488545067808,173.5761574272088</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>-34.94492971687603,173.57700534269597</t>
+        </is>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>-34.944935432638005,173.57785044249047</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
